--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1052"/>
+  <dimension ref="A1:H1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28677,23 +28677,23 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Dijual Cepat Alam Segar Pondok Indah Harga Murah Semi Furnished Bagus, Rumah Pondok Indah</t>
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>7090000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1009" t="n">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="E1009" t="n">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="F1009" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1009" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1009" t="n">
         <v>1</v>
@@ -28705,26 +28705,26 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Dijual Cepat Alam Segar Pondok Indah Harga Murah Semi Furnished Bagus, Rumah Pondok Indah</t>
+          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>11500000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1010" t="n">
-        <v>310</v>
+        <v>760</v>
       </c>
       <c r="E1010" t="n">
-        <v>260</v>
+        <v>517</v>
       </c>
       <c r="F1010" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1010" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1011">
@@ -28733,26 +28733,26 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
+          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>38000000000</v>
+        <v>85000000000</v>
       </c>
       <c r="D1011" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="E1011" t="n">
-        <v>517</v>
+        <v>634</v>
       </c>
       <c r="F1011" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1011" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1012">
@@ -28761,26 +28761,26 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
+          <t>Rumah Cozy Dn Nyaman di Lingkungan Pusat Bisnis di Fatmawati,Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>85000000000</v>
+        <v>5200000000</v>
       </c>
       <c r="D1012" t="n">
-        <v>1500</v>
+        <v>215</v>
       </c>
       <c r="E1012" t="n">
-        <v>634</v>
+        <v>215</v>
       </c>
       <c r="F1012" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1012" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1012" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -28789,26 +28789,26 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Rumah Cozy Dn Nyaman di Lingkungan Pusat Bisnis di Fatmawati,Jakarta Selatan</t>
+          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>5200000000</v>
+        <v>20000000000</v>
       </c>
       <c r="D1013" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="E1013" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F1013" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1013" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1013" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1014">
@@ -28817,26 +28817,26 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
+          <t>For Sale Rumah Mewah Kondisi Baru Paling Strategis di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>20000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1014" t="n">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="E1014" t="n">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="F1014" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1014" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1014" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -28845,17 +28845,17 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru Paling Strategis di Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah 5 Lantai Ada Lift Interior Premium Designtropical Modern Di Pondok Indah Niaga Design By Ateiler Riri</t>
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>6900000000</v>
+        <v>17500000000</v>
       </c>
       <c r="D1015" t="n">
-        <v>375</v>
+        <v>603</v>
       </c>
       <c r="E1015" t="n">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="F1015" t="n">
         <v>4</v>
@@ -28873,26 +28873,26 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>2400000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1016" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="E1016" t="n">
-        <v>117</v>
+        <v>400</v>
       </c>
       <c r="F1016" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1016" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1017">
@@ -28901,17 +28901,17 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah 5 Lantai Ada Lift Interior Premium Designtropical Modern Di Pondok Indah Niaga Design By Ateiler Riri</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>17500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1017" t="n">
-        <v>603</v>
+        <v>375</v>
       </c>
       <c r="E1017" t="n">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="F1017" t="n">
         <v>4</v>
@@ -28929,26 +28929,26 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>7700000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1018" t="n">
-        <v>500</v>
+        <v>147</v>
       </c>
       <c r="E1018" t="n">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="F1018" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1018" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019">
@@ -28957,7 +28957,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
         </is>
       </c>
       <c r="C1019" t="n">
@@ -28985,23 +28985,23 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>2600000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1020" t="n">
-        <v>88</v>
+        <v>375</v>
       </c>
       <c r="E1020" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F1020" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1020" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1020" t="n">
         <v>2</v>
@@ -29013,26 +29013,26 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>15500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1021" t="n">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="E1021" t="n">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="F1021" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1021" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022">
@@ -29041,23 +29041,23 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>6900000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1022" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E1022" t="n">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F1022" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1022" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1022" t="n">
         <v>2</v>
@@ -29069,26 +29069,26 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>6900000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1023" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="E1023" t="n">
-        <v>76</v>
+        <v>2448</v>
       </c>
       <c r="F1023" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1023" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1024">
@@ -29097,26 +29097,26 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>2830000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1024" t="n">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="E1024" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F1024" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1024" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025">
@@ -29125,20 +29125,20 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>6900000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1025" t="n">
-        <v>375</v>
+        <v>220</v>
       </c>
       <c r="E1025" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="F1025" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1025" t="n">
         <v>4</v>
@@ -29153,23 +29153,23 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>5700000000</v>
+        <v>1830000000</v>
       </c>
       <c r="D1026" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E1026" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="F1026" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1026" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1026" t="n">
         <v>2</v>
@@ -29181,26 +29181,26 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
+          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>19000000000</v>
+        <v>5800000000</v>
       </c>
       <c r="D1027" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="E1027" t="n">
-        <v>2448</v>
+        <v>200</v>
       </c>
       <c r="F1027" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1027" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1027" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028">
@@ -29209,26 +29209,26 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
+          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>2750000000</v>
+        <v>6800000000</v>
       </c>
       <c r="D1028" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="E1028" t="n">
-        <v>150</v>
+        <v>475</v>
       </c>
       <c r="F1028" t="n">
         <v>5</v>
       </c>
       <c r="G1028" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1029">
@@ -29237,26 +29237,26 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>2750000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1029" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E1029" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F1029" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1029" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030">
@@ -29265,26 +29265,26 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>1830000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1030" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="E1030" t="n">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="F1030" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1030" t="n">
         <v>4</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1031">
@@ -29293,26 +29293,26 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
+          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>5800000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1031" t="n">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="E1031" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F1031" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1031" t="n">
         <v>3</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032">
@@ -29321,26 +29321,26 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
+          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>6800000000</v>
+        <v>13700000000</v>
       </c>
       <c r="D1032" t="n">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="E1032" t="n">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="F1032" t="n">
         <v>5</v>
       </c>
       <c r="G1032" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033">
@@ -29349,23 +29349,23 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
+          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>3500000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1033" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E1033" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F1033" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1033" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1033" t="n">
         <v>1</v>
@@ -29377,26 +29377,26 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>15500000000</v>
+        <v>16500000000</v>
       </c>
       <c r="D1034" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E1034" t="n">
-        <v>350</v>
+        <v>502</v>
       </c>
       <c r="F1034" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1034" t="n">
         <v>4</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035">
@@ -29405,23 +29405,23 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
+          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>7000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="D1035" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="E1035" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="F1035" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1035" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1035" t="n">
         <v>1</v>
@@ -29433,17 +29433,17 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
+          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>13700000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1036" t="n">
-        <v>520</v>
+        <v>466</v>
       </c>
       <c r="E1036" t="n">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="F1036" t="n">
         <v>5</v>
@@ -29461,26 +29461,26 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
+          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>5750000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1037" t="n">
-        <v>270</v>
+        <v>432</v>
       </c>
       <c r="E1037" t="n">
-        <v>132</v>
+        <v>432</v>
       </c>
       <c r="F1037" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1037" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1038">
@@ -29489,26 +29489,26 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
+          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>16500000000</v>
+        <v>1390000000</v>
       </c>
       <c r="D1038" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="E1038" t="n">
-        <v>502</v>
+        <v>125</v>
       </c>
       <c r="F1038" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1038" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -29517,26 +29517,26 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
+          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>5000000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1039" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="E1039" t="n">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="F1039" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1039" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -29545,23 +29545,23 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
+          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>13500000000</v>
+        <v>1170000000</v>
       </c>
       <c r="D1040" t="n">
-        <v>466</v>
+        <v>56</v>
       </c>
       <c r="E1040" t="n">
-        <v>496</v>
+        <v>29</v>
       </c>
       <c r="F1040" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1040" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1040" t="n">
         <v>1</v>
@@ -29573,26 +29573,26 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>7000000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1041" t="n">
-        <v>432</v>
+        <v>720</v>
       </c>
       <c r="E1041" t="n">
-        <v>432</v>
+        <v>634</v>
       </c>
       <c r="F1041" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1041" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1041" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1042">
@@ -29601,23 +29601,23 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
+          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>1390000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1042" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="E1042" t="n">
-        <v>125</v>
+        <v>518</v>
       </c>
       <c r="F1042" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1042" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1042" t="n">
         <v>2</v>
@@ -29629,26 +29629,26 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
+          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>3500000000</v>
+        <v>79900000000</v>
       </c>
       <c r="D1043" t="n">
-        <v>230</v>
+        <v>750</v>
       </c>
       <c r="E1043" t="n">
-        <v>102</v>
+        <v>1026</v>
       </c>
       <c r="F1043" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1043" t="n">
         <v>6</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1044">
@@ -29657,26 +29657,26 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>1170000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>56</v>
+        <v>325</v>
       </c>
       <c r="E1044" t="n">
-        <v>29</v>
+        <v>696</v>
       </c>
       <c r="F1044" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1044" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,26 +29685,26 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
+          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>44000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>720</v>
+        <v>134</v>
       </c>
       <c r="E1045" t="n">
-        <v>634</v>
+        <v>127</v>
       </c>
       <c r="F1045" t="n">
         <v>4</v>
       </c>
       <c r="G1045" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1045" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -29713,20 +29713,20 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
+          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>22000000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="E1046" t="n">
-        <v>518</v>
+        <v>102</v>
       </c>
       <c r="F1046" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1046" t="n">
         <v>4</v>
@@ -29741,26 +29741,26 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>79900000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="E1047" t="n">
-        <v>1026</v>
+        <v>250</v>
       </c>
       <c r="F1047" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1047" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1047" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -29769,23 +29769,23 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>13500000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>325</v>
+        <v>1800</v>
       </c>
       <c r="E1048" t="n">
-        <v>696</v>
+        <v>1225</v>
       </c>
       <c r="F1048" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1048" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1048" t="n">
         <v>4</v>
@@ -29797,26 +29797,26 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>2000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>134</v>
+        <v>375</v>
       </c>
       <c r="E1049" t="n">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="F1049" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1049" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050">
@@ -29825,23 +29825,23 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>3850000000</v>
+        <v>1300000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="E1050" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F1050" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1050" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1050" t="n">
         <v>2</v>
@@ -29853,26 +29853,26 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>8000000000</v>
+        <v>3700000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="E1051" t="n">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="F1051" t="n">
         <v>5</v>
       </c>
       <c r="G1051" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052">
@@ -29881,26 +29881,586 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
+          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>45000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>1800</v>
+        <v>185</v>
       </c>
       <c r="E1052" t="n">
-        <v>1225</v>
+        <v>128</v>
       </c>
       <c r="F1052" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1052" t="n">
         <v>4</v>
       </c>
       <c r="H1052" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1053" t="n">
+        <v>41900000000</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>720</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>634</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+        </is>
+      </c>
+      <c r="C1054" t="n">
+        <v>5750000000</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>279</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
+        </is>
+      </c>
+      <c r="C1055" t="n">
+        <v>1950000000</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>144</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>232</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Padmavilla Pejaten</t>
+        </is>
+      </c>
+      <c r="C1056" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>88</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
+        </is>
+      </c>
+      <c r="C1057" t="n">
+        <v>12200000000</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>340</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>309</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
+        </is>
+      </c>
+      <c r="C1058" t="n">
+        <v>47000000000</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>810</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+        </is>
+      </c>
+      <c r="C1059" t="n">
+        <v>14000000000</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>210</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>315</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1060" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
+        </is>
+      </c>
+      <c r="C1061" t="n">
+        <v>46000000000</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>871</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>317</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1062" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>109</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>50</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1063" t="n">
+        <v>19000000000</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYATT</t>
+        </is>
+      </c>
+      <c r="C1064" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
+        </is>
+      </c>
+      <c r="C1065" t="n">
+        <v>1800000000</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>135</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>116</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
+        </is>
+      </c>
+      <c r="C1066" t="n">
+        <v>2500000000</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
+        </is>
+      </c>
+      <c r="C1067" t="n">
+        <v>1970000000</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
+        </is>
+      </c>
+      <c r="C1068" t="n">
+        <v>1900000000</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>125</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>2500000000</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>130</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>4500000000</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>150</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>250</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>1650000000</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1072"/>
+  <dimension ref="A1:H1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29825,23 +29825,23 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>1300000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="E1050" t="n">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F1050" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1050" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1050" t="n">
         <v>2</v>
@@ -29853,26 +29853,26 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>3700000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="E1051" t="n">
-        <v>143</v>
+        <v>634</v>
       </c>
       <c r="F1051" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1051" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1052">
@@ -29881,23 +29881,23 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>2500000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E1052" t="n">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="F1052" t="n">
         <v>3</v>
       </c>
       <c r="G1052" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1052" t="n">
         <v>2</v>
@@ -29909,26 +29909,26 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>41900000000</v>
+        <v>1950000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="E1053" t="n">
-        <v>634</v>
+        <v>232</v>
       </c>
       <c r="F1053" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1053" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1053" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054">
@@ -29937,17 +29937,17 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>5750000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E1054" t="n">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="F1054" t="n">
         <v>3</v>
@@ -29965,20 +29965,20 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
+          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>1950000000</v>
+        <v>12200000000</v>
       </c>
       <c r="D1055" t="n">
-        <v>144</v>
+        <v>340</v>
       </c>
       <c r="E1055" t="n">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="F1055" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1055" t="n">
         <v>3</v>
@@ -29993,23 +29993,23 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>2600000000</v>
+        <v>47000000000</v>
       </c>
       <c r="D1056" t="n">
-        <v>88</v>
+        <v>1000</v>
       </c>
       <c r="E1056" t="n">
-        <v>55</v>
+        <v>810</v>
       </c>
       <c r="F1056" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1056" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1056" t="n">
         <v>2</v>
@@ -30021,26 +30021,26 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
+          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>12200000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="E1057" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F1057" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1057" t="n">
         <v>3</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058">
@@ -30049,23 +30049,23 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>47000000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>1000</v>
+        <v>112</v>
       </c>
       <c r="E1058" t="n">
-        <v>810</v>
+        <v>70</v>
       </c>
       <c r="F1058" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1058" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1058" t="n">
         <v>2</v>
@@ -30077,20 +30077,20 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>14000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="E1059" t="n">
-        <v>315</v>
+        <v>50</v>
       </c>
       <c r="F1059" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1059" t="n">
         <v>3</v>
@@ -30105,26 +30105,26 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>2830000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>112</v>
+        <v>350</v>
       </c>
       <c r="E1060" t="n">
-        <v>70</v>
+        <v>1070</v>
       </c>
       <c r="F1060" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1060" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -30133,23 +30133,23 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>2025 Modern House Kebayoran Baru For Sale</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>46000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1061" t="n">
-        <v>871</v>
+        <v>130</v>
       </c>
       <c r="E1061" t="n">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="F1061" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1061" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1061" t="n">
         <v>2</v>
@@ -30161,23 +30161,23 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
+          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>2400000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1062" t="n">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E1062" t="n">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F1062" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1062" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1062" t="n">
         <v>2</v>
@@ -30189,20 +30189,20 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
+          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>19000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="E1063" t="n">
-        <v>1070</v>
+        <v>200</v>
       </c>
       <c r="F1063" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1063" t="n">
         <v>3</v>
@@ -30217,26 +30217,26 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>2400000000</v>
+        <v>1970000000</v>
       </c>
       <c r="D1064" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E1064" t="n">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F1064" t="n">
         <v>3</v>
       </c>
       <c r="G1064" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -30245,17 +30245,17 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
+          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>1800000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E1065" t="n">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F1065" t="n">
         <v>4</v>
@@ -30273,23 +30273,23 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
+          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
         </is>
       </c>
       <c r="C1066" t="n">
         <v>2500000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="E1066" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="F1066" t="n">
         <v>3</v>
       </c>
       <c r="G1066" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1066" t="n">
         <v>1</v>
@@ -30301,23 +30301,23 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
+          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>1970000000</v>
+        <v>4500000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E1067" t="n">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="F1067" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1067" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1067" t="n">
         <v>1</v>
@@ -30329,23 +30329,23 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
+          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>1900000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="E1068" t="n">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="F1068" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1068" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1068" t="n">
         <v>2</v>
@@ -30357,26 +30357,26 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
+          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>2500000000</v>
+        <v>1650000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E1069" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F1069" t="n">
         <v>3</v>
       </c>
       <c r="G1069" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -30385,23 +30385,23 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>4500000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="E1070" t="n">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="F1070" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1070" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1070" t="n">
         <v>1</v>
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
+          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>6900000000</v>
+        <v>7890000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E1071" t="n">
-        <v>250</v>
+        <v>404</v>
       </c>
       <c r="F1071" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1071" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,26 +30441,614 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>1650000000</v>
+        <v>31900000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E1072" t="n">
+        <v>350</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>7800000000</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>404</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>44000000000</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>627</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>13900000000</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>696</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>39900000000</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>796</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>864</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Padmavilla Pejaten</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>88</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1078" t="n">
+        <v>22000000000</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>854</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>53500000000</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>452</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>34900000000</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>800</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>538</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>48000000000</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>540</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>500</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>1500000000</v>
+      </c>
+      <c r="D1084" t="n">
         <v>65</v>
       </c>
-      <c r="F1072" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1072" t="n">
-        <v>3</v>
-      </c>
-      <c r="H1072" t="n">
-        <v>2</v>
+      <c r="E1084" t="n">
+        <v>106</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYATT</t>
+        </is>
+      </c>
+      <c r="C1085" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+        </is>
+      </c>
+      <c r="C1086" t="n">
+        <v>3600000000</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>144</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1087" t="n">
+        <v>3700000000</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>143</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+        </is>
+      </c>
+      <c r="C1088" t="n">
+        <v>7900000000</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>682</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+        </is>
+      </c>
+      <c r="C1089" t="n">
+        <v>48000000000</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>810</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>338</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+        </is>
+      </c>
+      <c r="C1090" t="n">
+        <v>62000000000</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>670</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
+        </is>
+      </c>
+      <c r="C1091" t="n">
+        <v>46000000000</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>871</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>317</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
+        </is>
+      </c>
+      <c r="C1092" t="n">
+        <v>1500000000</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>75</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1093" t="n">
+        <v>5700000000</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>250</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1093"/>
+  <dimension ref="A1:H1110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28901,26 +28901,26 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>6900000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1017" t="n">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="E1017" t="n">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="F1017" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1017" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018">
@@ -28929,26 +28929,26 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>15500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1018" t="n">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="E1018" t="n">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="F1018" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1018" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1018" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -28957,7 +28957,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1019" t="n">
@@ -28985,23 +28985,23 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>6900000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1020" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E1020" t="n">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F1020" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1020" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1020" t="n">
         <v>2</v>
@@ -29013,26 +29013,26 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>6900000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1021" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="E1021" t="n">
-        <v>76</v>
+        <v>2448</v>
       </c>
       <c r="F1021" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1021" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1022">
@@ -29041,26 +29041,26 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
+          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>5700000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1022" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1022" t="n">
         <v>150</v>
       </c>
-      <c r="E1022" t="n">
-        <v>300</v>
-      </c>
       <c r="F1022" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1022" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023">
@@ -29069,26 +29069,26 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>19000000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1023" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="E1023" t="n">
-        <v>2448</v>
+        <v>114</v>
       </c>
       <c r="F1023" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1023" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1023" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024">
@@ -29097,26 +29097,26 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>2750000000</v>
+        <v>1830000000</v>
       </c>
       <c r="D1024" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="E1024" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="F1024" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1024" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025">
@@ -29125,23 +29125,23 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>2750000000</v>
+        <v>5800000000</v>
       </c>
       <c r="D1025" t="n">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E1025" t="n">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="F1025" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1025" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1025" t="n">
         <v>2</v>
@@ -29153,26 +29153,26 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>1830000000</v>
+        <v>6800000000</v>
       </c>
       <c r="D1026" t="n">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="E1026" t="n">
-        <v>67</v>
+        <v>475</v>
       </c>
       <c r="F1026" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1026" t="n">
         <v>4</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1027">
@@ -29181,26 +29181,26 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
+          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>5800000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1027" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E1027" t="n">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="F1027" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1027" t="n">
         <v>3</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028">
@@ -29209,20 +29209,20 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>6800000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1028" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="E1028" t="n">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="F1028" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1028" t="n">
         <v>4</v>
@@ -29237,17 +29237,17 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
+          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>3500000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1029" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="E1029" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F1029" t="n">
         <v>3</v>
@@ -29265,26 +29265,26 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>15500000000</v>
+        <v>13700000000</v>
       </c>
       <c r="D1030" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="E1030" t="n">
-        <v>350</v>
+        <v>528</v>
       </c>
       <c r="F1030" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1030" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031">
@@ -29293,23 +29293,23 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
+          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>7000000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1031" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E1031" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F1031" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1031" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1031" t="n">
         <v>1</v>
@@ -29321,23 +29321,23 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
+          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>13700000000</v>
+        <v>16500000000</v>
       </c>
       <c r="D1032" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="E1032" t="n">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="F1032" t="n">
         <v>5</v>
       </c>
       <c r="G1032" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1032" t="n">
         <v>1</v>
@@ -29349,17 +29349,17 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
+          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>5750000000</v>
+        <v>5000000000</v>
       </c>
       <c r="D1033" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="E1033" t="n">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="F1033" t="n">
         <v>4</v>
@@ -29377,23 +29377,23 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
+          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>16500000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1034" t="n">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="E1034" t="n">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F1034" t="n">
         <v>5</v>
       </c>
       <c r="G1034" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1034" t="n">
         <v>1</v>
@@ -29405,26 +29405,26 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
+          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>5000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1035" t="n">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="E1035" t="n">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="F1035" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1035" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1036">
@@ -29433,26 +29433,26 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
+          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>13500000000</v>
+        <v>1390000000</v>
       </c>
       <c r="D1036" t="n">
-        <v>466</v>
+        <v>90</v>
       </c>
       <c r="E1036" t="n">
-        <v>496</v>
+        <v>125</v>
       </c>
       <c r="F1036" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1036" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -29461,26 +29461,26 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
+          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>7000000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1037" t="n">
-        <v>432</v>
+        <v>230</v>
       </c>
       <c r="E1037" t="n">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="F1037" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1037" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1037" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -29489,26 +29489,26 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
+          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>1390000000</v>
+        <v>1170000000</v>
       </c>
       <c r="D1038" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E1038" t="n">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="F1038" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1038" t="n">
         <v>2</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039">
@@ -29517,26 +29517,26 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>3500000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1039" t="n">
-        <v>230</v>
+        <v>720</v>
       </c>
       <c r="E1039" t="n">
-        <v>102</v>
+        <v>634</v>
       </c>
       <c r="F1039" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1039" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1040">
@@ -29545,26 +29545,26 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
+          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>1170000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1040" t="n">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="E1040" t="n">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="F1040" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1040" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -29573,26 +29573,26 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
+          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>44000000000</v>
+        <v>79900000000</v>
       </c>
       <c r="D1041" t="n">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="E1041" t="n">
-        <v>634</v>
+        <v>1026</v>
       </c>
       <c r="F1041" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1041" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1041" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1042">
@@ -29601,26 +29601,26 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>22000000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1042" t="n">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="E1042" t="n">
-        <v>518</v>
+        <v>696</v>
       </c>
       <c r="F1042" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1042" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1043">
@@ -29629,26 +29629,26 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
+          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>79900000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D1043" t="n">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="E1043" t="n">
-        <v>1026</v>
+        <v>127</v>
       </c>
       <c r="F1043" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G1043" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1043" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044">
@@ -29657,26 +29657,26 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>13500000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="E1044" t="n">
-        <v>696</v>
+        <v>102</v>
       </c>
       <c r="F1044" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1044" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1044" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,26 +29685,26 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>2000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="E1045" t="n">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="F1045" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1045" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -29713,17 +29713,17 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>3850000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E1046" t="n">
-        <v>102</v>
+        <v>1225</v>
       </c>
       <c r="F1046" t="n">
         <v>5</v>
@@ -29732,7 +29732,7 @@
         <v>4</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1047">
@@ -29741,26 +29741,26 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>8000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="E1047" t="n">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="F1047" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1047" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048">
@@ -29769,26 +29769,26 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
+          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>45000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>1800</v>
+        <v>185</v>
       </c>
       <c r="E1048" t="n">
-        <v>1225</v>
+        <v>128</v>
       </c>
       <c r="F1048" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1048" t="n">
         <v>4</v>
       </c>
       <c r="H1048" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049">
@@ -29797,26 +29797,26 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>7090000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>375</v>
+        <v>720</v>
       </c>
       <c r="E1049" t="n">
-        <v>76</v>
+        <v>634</v>
       </c>
       <c r="F1049" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1049" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1050">
@@ -29825,23 +29825,23 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>2500000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E1050" t="n">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="F1050" t="n">
         <v>3</v>
       </c>
       <c r="G1050" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1050" t="n">
         <v>2</v>
@@ -29853,26 +29853,26 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>41900000000</v>
+        <v>1950000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="E1051" t="n">
-        <v>634</v>
+        <v>232</v>
       </c>
       <c r="F1051" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1051" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1051" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052">
@@ -29881,17 +29881,17 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>5750000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E1052" t="n">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="F1052" t="n">
         <v>3</v>
@@ -29909,20 +29909,20 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
+          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>1950000000</v>
+        <v>12200000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>144</v>
+        <v>340</v>
       </c>
       <c r="E1053" t="n">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="F1053" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1053" t="n">
         <v>3</v>
@@ -29937,23 +29937,23 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>2600000000</v>
+        <v>47000000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>88</v>
+        <v>1000</v>
       </c>
       <c r="E1054" t="n">
-        <v>55</v>
+        <v>810</v>
       </c>
       <c r="F1054" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1054" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1054" t="n">
         <v>2</v>
@@ -29965,26 +29965,26 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>12200000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1055" t="n">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="E1055" t="n">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="F1055" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1055" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -29993,23 +29993,23 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
+          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>47000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1056" t="n">
-        <v>1000</v>
+        <v>109</v>
       </c>
       <c r="E1056" t="n">
-        <v>810</v>
+        <v>50</v>
       </c>
       <c r="F1056" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1056" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1056" t="n">
         <v>2</v>
@@ -30021,26 +30021,26 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>14000000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="E1057" t="n">
-        <v>315</v>
+        <v>1070</v>
       </c>
       <c r="F1057" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1057" t="n">
         <v>3</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -30049,23 +30049,23 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>2830000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E1058" t="n">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F1058" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1058" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1058" t="n">
         <v>2</v>
@@ -30077,23 +30077,23 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
+          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>2400000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E1059" t="n">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F1059" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1059" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1059" t="n">
         <v>2</v>
@@ -30105,20 +30105,20 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
+          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>19000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="E1060" t="n">
-        <v>1070</v>
+        <v>200</v>
       </c>
       <c r="F1060" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1060" t="n">
         <v>3</v>
@@ -30133,26 +30133,26 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>2400000000</v>
+        <v>1970000000</v>
       </c>
       <c r="D1061" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E1061" t="n">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F1061" t="n">
         <v>3</v>
       </c>
       <c r="G1061" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -30161,17 +30161,17 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
+          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>1800000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1062" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E1062" t="n">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F1062" t="n">
         <v>4</v>
@@ -30189,23 +30189,23 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
+          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
         </is>
       </c>
       <c r="C1063" t="n">
         <v>2500000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="E1063" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="F1063" t="n">
         <v>3</v>
       </c>
       <c r="G1063" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1063" t="n">
         <v>1</v>
@@ -30217,23 +30217,23 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
+          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>1970000000</v>
+        <v>4500000000</v>
       </c>
       <c r="D1064" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E1064" t="n">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="F1064" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1064" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1064" t="n">
         <v>1</v>
@@ -30245,23 +30245,23 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
+          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>1900000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="E1065" t="n">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="F1065" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1065" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1065" t="n">
         <v>2</v>
@@ -30273,17 +30273,17 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
+          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>2500000000</v>
+        <v>7890000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E1066" t="n">
-        <v>130</v>
+        <v>404</v>
       </c>
       <c r="F1066" t="n">
         <v>3</v>
@@ -30292,7 +30292,7 @@
         <v>2</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1067">
@@ -30301,17 +30301,17 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>4500000000</v>
+        <v>31900000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E1067" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="F1067" t="n">
         <v>5</v>
@@ -30320,7 +30320,7 @@
         <v>4</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1068">
@@ -30329,26 +30329,26 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>6900000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E1068" t="n">
-        <v>250</v>
+        <v>404</v>
       </c>
       <c r="F1068" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1068" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1069">
@@ -30357,26 +30357,26 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>1650000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>150</v>
+        <v>1050</v>
       </c>
       <c r="E1069" t="n">
-        <v>65</v>
+        <v>627</v>
       </c>
       <c r="F1069" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1069" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1070">
@@ -30385,26 +30385,26 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>7090000000</v>
+        <v>13900000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="E1070" t="n">
-        <v>76</v>
+        <v>696</v>
       </c>
       <c r="F1070" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1070" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1071">
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>7890000000</v>
+        <v>39900000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>250</v>
+        <v>796</v>
       </c>
       <c r="E1071" t="n">
-        <v>404</v>
+        <v>864</v>
       </c>
       <c r="F1071" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1071" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1071" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,26 +30441,26 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>31900000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E1072" t="n">
-        <v>350</v>
+        <v>854</v>
       </c>
       <c r="F1072" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1072" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1072" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1073">
@@ -30469,26 +30469,26 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>7800000000</v>
+        <v>53500000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>300</v>
+        <v>452</v>
       </c>
       <c r="E1073" t="n">
-        <v>404</v>
+        <v>1165</v>
       </c>
       <c r="F1073" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1073" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1073" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1074">
@@ -30497,26 +30497,26 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>44000000000</v>
+        <v>34900000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>1050</v>
+        <v>800</v>
       </c>
       <c r="E1074" t="n">
-        <v>627</v>
+        <v>538</v>
       </c>
       <c r="F1074" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1074" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1074" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1075">
@@ -30525,26 +30525,26 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>13900000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>325</v>
+        <v>1100</v>
       </c>
       <c r="E1075" t="n">
-        <v>696</v>
+        <v>540</v>
       </c>
       <c r="F1075" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1075" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1075" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1076">
@@ -30553,26 +30553,26 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>39900000000</v>
+        <v>55000000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>796</v>
+        <v>500</v>
       </c>
       <c r="E1076" t="n">
-        <v>864</v>
+        <v>500</v>
       </c>
       <c r="F1076" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1076" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1076" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1077">
@@ -30581,17 +30581,17 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>2600000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E1077" t="n">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F1077" t="n">
         <v>2</v>
@@ -30600,7 +30600,7 @@
         <v>1</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,26 +30609,26 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>22000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>650</v>
+        <v>130</v>
       </c>
       <c r="E1078" t="n">
-        <v>854</v>
+        <v>117</v>
       </c>
       <c r="F1078" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1078" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1078" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079">
@@ -30637,26 +30637,26 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>53500000000</v>
+        <v>3600000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>452</v>
+        <v>250</v>
       </c>
       <c r="E1079" t="n">
-        <v>1165</v>
+        <v>144</v>
       </c>
       <c r="F1079" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1079" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1079" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -30665,26 +30665,26 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>34900000000</v>
+        <v>3700000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E1080" t="n">
-        <v>538</v>
+        <v>143</v>
       </c>
       <c r="F1080" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1080" t="n">
         <v>4</v>
       </c>
       <c r="H1080" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -30693,26 +30693,26 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>2830000000</v>
+        <v>7900000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="E1081" t="n">
-        <v>70</v>
+        <v>682</v>
       </c>
       <c r="F1081" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1081" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -30721,17 +30721,17 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
         </is>
       </c>
       <c r="C1082" t="n">
         <v>48000000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>1100</v>
+        <v>810</v>
       </c>
       <c r="E1082" t="n">
-        <v>540</v>
+        <v>338</v>
       </c>
       <c r="F1082" t="n">
         <v>4</v>
@@ -30740,7 +30740,7 @@
         <v>4</v>
       </c>
       <c r="H1082" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -30749,26 +30749,26 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>55000000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E1083" t="n">
-        <v>500</v>
+        <v>670</v>
       </c>
       <c r="F1083" t="n">
         <v>4</v>
       </c>
       <c r="G1083" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1083" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1084">
@@ -30777,23 +30777,23 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>1500000000</v>
+        <v>46000000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>65</v>
+        <v>871</v>
       </c>
       <c r="E1084" t="n">
-        <v>106</v>
+        <v>317</v>
       </c>
       <c r="F1084" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1084" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1084" t="n">
         <v>2</v>
@@ -30805,20 +30805,20 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>2400000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E1085" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F1085" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1085" t="n">
         <v>1</v>
@@ -30833,23 +30833,23 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>3600000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1086" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1086" t="n">
         <v>250</v>
       </c>
-      <c r="E1086" t="n">
-        <v>144</v>
-      </c>
       <c r="F1086" t="n">
         <v>3</v>
       </c>
       <c r="G1086" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1086" t="n">
         <v>1</v>
@@ -30861,23 +30861,23 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>3700000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="E1087" t="n">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="F1087" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1087" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1087" t="n">
         <v>1</v>
@@ -30889,26 +30889,26 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>7900000000</v>
+        <v>8800000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="E1088" t="n">
-        <v>682</v>
+        <v>120</v>
       </c>
       <c r="F1088" t="n">
         <v>5</v>
       </c>
       <c r="G1088" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1088" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -30917,17 +30917,17 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>48000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>810</v>
+        <v>375</v>
       </c>
       <c r="E1089" t="n">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="F1089" t="n">
         <v>4</v>
@@ -30945,26 +30945,26 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>62000000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="E1090" t="n">
-        <v>670</v>
+        <v>200</v>
       </c>
       <c r="F1090" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1090" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1090" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -30973,26 +30973,26 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>2025 Modern House Kebayoran Baru For Sale</t>
+          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>46000000000</v>
+        <v>52000000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>871</v>
+        <v>564</v>
       </c>
       <c r="E1091" t="n">
-        <v>317</v>
+        <v>726</v>
       </c>
       <c r="F1091" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1091" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1092">
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>1500000000</v>
+        <v>28000000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="E1092" t="n">
-        <v>81</v>
+        <v>2500</v>
       </c>
       <c r="F1092" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1092" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1092" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,26 +31029,502 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>5700000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>180</v>
+        <v>1600</v>
       </c>
       <c r="E1093" t="n">
-        <v>250</v>
+        <v>1050</v>
       </c>
       <c r="F1093" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1093" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H1093" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Padmavilla Pejaten</t>
+        </is>
+      </c>
+      <c r="C1094" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>88</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+        </is>
+      </c>
+      <c r="C1095" t="n">
+        <v>22500000000</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>248</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+        </is>
+      </c>
+      <c r="C1096" t="n">
+        <v>7000000000</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>183</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>149</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1097" t="n">
+        <v>31500000000</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>2620</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1098" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1099" t="n">
+        <v>3750000000</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>300</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1100" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>1343</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1101" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1102" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+        </is>
+      </c>
+      <c r="C1103" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+        </is>
+      </c>
+      <c r="C1104" t="n">
+        <v>14000000000</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>210</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>315</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+        </is>
+      </c>
+      <c r="C1105" t="n">
+        <v>1650000000</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
+        </is>
+      </c>
+      <c r="C1106" t="n">
+        <v>3900000000</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>206</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>170</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
+        </is>
+      </c>
+      <c r="C1107" t="n">
+        <v>3000000000</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>225</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
+        </is>
+      </c>
+      <c r="C1108" t="n">
+        <v>1800000000</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1109" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>148</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>210</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
+        </is>
+      </c>
+      <c r="C1110" t="n">
+        <v>3850000000</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1110"/>
+  <dimension ref="A1:H1128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30861,23 +30861,23 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>7090000000</v>
+        <v>8800000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="E1087" t="n">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F1087" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1087" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1087" t="n">
         <v>1</v>
@@ -30889,23 +30889,23 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>8800000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E1088" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F1088" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1088" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1088" t="n">
         <v>1</v>
@@ -30917,26 +30917,26 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>6900000000</v>
+        <v>52000000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>375</v>
+        <v>564</v>
       </c>
       <c r="E1089" t="n">
-        <v>76</v>
+        <v>726</v>
       </c>
       <c r="F1089" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1089" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1090">
@@ -30945,26 +30945,26 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>6000000000</v>
+        <v>28000000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E1090" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="F1090" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1090" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1090" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -30973,26 +30973,26 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
+          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>52000000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>564</v>
+        <v>1600</v>
       </c>
       <c r="E1091" t="n">
-        <v>726</v>
+        <v>1050</v>
       </c>
       <c r="F1091" t="n">
         <v>8</v>
       </c>
       <c r="G1091" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1091" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1092">
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>28000000000</v>
+        <v>22500000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E1092" t="n">
-        <v>2500</v>
+        <v>248</v>
       </c>
       <c r="F1092" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1092" t="n">
         <v>6</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,26 +31029,26 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>68000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>1600</v>
+        <v>183</v>
       </c>
       <c r="E1093" t="n">
-        <v>1050</v>
+        <v>149</v>
       </c>
       <c r="F1093" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1093" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1093" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -31057,26 +31057,26 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>2600000000</v>
+        <v>31500000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>88</v>
+        <v>400</v>
       </c>
       <c r="E1094" t="n">
-        <v>55</v>
+        <v>2620</v>
       </c>
       <c r="F1094" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1094" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1095">
@@ -31085,26 +31085,26 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>22500000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E1095" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="F1095" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1095" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1095" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -31113,17 +31113,17 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>7000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>183</v>
+        <v>700</v>
       </c>
       <c r="E1096" t="n">
-        <v>149</v>
+        <v>1343</v>
       </c>
       <c r="F1096" t="n">
         <v>4</v>
@@ -31132,7 +31132,7 @@
         <v>3</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1097">
@@ -31141,26 +31141,26 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>31500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1097" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="E1097" t="n">
-        <v>2620</v>
+        <v>76</v>
       </c>
       <c r="F1097" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1097" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1097" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098">
@@ -31169,26 +31169,26 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>2830000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1098" t="n">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="E1098" t="n">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="F1098" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1098" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1098" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099">
@@ -31197,26 +31197,26 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>3750000000</v>
+        <v>1650000000</v>
       </c>
       <c r="D1099" t="n">
         <v>150</v>
       </c>
       <c r="E1099" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="F1099" t="n">
         <v>3</v>
       </c>
       <c r="G1099" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1099" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100">
@@ -31225,26 +31225,26 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>25000000000</v>
+        <v>3900000000</v>
       </c>
       <c r="D1100" t="n">
-        <v>700</v>
+        <v>206</v>
       </c>
       <c r="E1100" t="n">
-        <v>1343</v>
+        <v>170</v>
       </c>
       <c r="F1100" t="n">
         <v>4</v>
       </c>
       <c r="G1100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1100" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1101">
@@ -31253,23 +31253,23 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>6900000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>375</v>
+        <v>225</v>
       </c>
       <c r="E1101" t="n">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F1101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1101" t="n">
         <v>2</v>
@@ -31281,26 +31281,26 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>2600000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E1102" t="n">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F1102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1103">
@@ -31309,17 +31309,17 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>6900000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1103" t="n">
-        <v>375</v>
+        <v>148</v>
       </c>
       <c r="E1103" t="n">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="F1103" t="n">
         <v>4</v>
@@ -31337,23 +31337,23 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>14000000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1104" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="E1104" t="n">
-        <v>315</v>
+        <v>102</v>
       </c>
       <c r="F1104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1104" t="n">
         <v>2</v>
@@ -31365,26 +31365,26 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>1650000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1105" t="n">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="E1105" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F1105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106">
@@ -31393,26 +31393,26 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>3900000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1106" t="n">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="E1106" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F1106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1107">
@@ -31421,23 +31421,23 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>3000000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1107" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="E1107" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="F1107" t="n">
         <v>5</v>
       </c>
       <c r="G1107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1107" t="n">
         <v>2</v>
@@ -31449,20 +31449,20 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>1800000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1108" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E1108" t="n">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="F1108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1108" t="n">
         <v>3</v>
@@ -31477,23 +31477,23 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>2400000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1109" t="n">
-        <v>148</v>
+        <v>500</v>
       </c>
       <c r="E1109" t="n">
-        <v>210</v>
+        <v>446</v>
       </c>
       <c r="F1109" t="n">
         <v>4</v>
       </c>
       <c r="G1109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1109" t="n">
         <v>2</v>
@@ -31505,25 +31505,529 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>3850000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1110" t="n">
         <v>300</v>
       </c>
       <c r="E1110" t="n">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="F1110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+        </is>
+      </c>
+      <c r="C1111" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1112" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+        </is>
+      </c>
+      <c r="C1113" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>406</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1114" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>274</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>448</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+        </is>
+      </c>
+      <c r="C1115" t="n">
+        <v>26000000000</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>1374</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>1493</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Padmavilla Pejaten</t>
+        </is>
+      </c>
+      <c r="C1116" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>88</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+        </is>
+      </c>
+      <c r="C1117" t="n">
+        <v>18000000000</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>467</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>899</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
+        </is>
+      </c>
+      <c r="C1118" t="n">
+        <v>12500000000</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>520</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>720</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1119" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1120" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+        </is>
+      </c>
+      <c r="C1121" t="n">
+        <v>42000000000</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+        </is>
+      </c>
+      <c r="C1122" t="n">
+        <v>21000000000</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>960</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+        </is>
+      </c>
+      <c r="C1123" t="n">
+        <v>13000000000</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>300</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+        </is>
+      </c>
+      <c r="C1124" t="n">
+        <v>40500000000</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>534</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+        </is>
+      </c>
+      <c r="C1125" t="n">
+        <v>12000000000</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
+        </is>
+      </c>
+      <c r="C1126" t="n">
+        <v>27000000000</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>2028</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
+        </is>
+      </c>
+      <c r="C1127" t="n">
+        <v>61000000000</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>900</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>850</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
+        </is>
+      </c>
+      <c r="C1128" t="n">
+        <v>2500000000</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>185</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>128</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1128" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1128"/>
+  <dimension ref="A1:H1144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29601,26 +29601,26 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>13500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D1042" t="n">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="E1042" t="n">
-        <v>696</v>
+        <v>127</v>
       </c>
       <c r="F1042" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1042" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1042" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -29629,20 +29629,20 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
+          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>2000000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1043" t="n">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="E1043" t="n">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F1043" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1043" t="n">
         <v>4</v>
@@ -29657,17 +29657,17 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>3850000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E1044" t="n">
-        <v>102</v>
+        <v>1225</v>
       </c>
       <c r="F1044" t="n">
         <v>5</v>
@@ -29676,7 +29676,7 @@
         <v>4</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,26 +29685,26 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>8000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="E1045" t="n">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="F1045" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1045" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -29713,26 +29713,26 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
+          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>45000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>1800</v>
+        <v>185</v>
       </c>
       <c r="E1046" t="n">
-        <v>1225</v>
+        <v>128</v>
       </c>
       <c r="F1046" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1046" t="n">
         <v>4</v>
       </c>
       <c r="H1046" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047">
@@ -29741,26 +29741,26 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>7090000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>375</v>
+        <v>720</v>
       </c>
       <c r="E1047" t="n">
-        <v>76</v>
+        <v>634</v>
       </c>
       <c r="F1047" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1047" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1048">
@@ -29769,23 +29769,23 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>2500000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E1048" t="n">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="F1048" t="n">
         <v>3</v>
       </c>
       <c r="G1048" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1048" t="n">
         <v>2</v>
@@ -29797,26 +29797,26 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>41900000000</v>
+        <v>1950000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="E1049" t="n">
-        <v>634</v>
+        <v>232</v>
       </c>
       <c r="F1049" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1049" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1049" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050">
@@ -29825,17 +29825,17 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>5750000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E1050" t="n">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="F1050" t="n">
         <v>3</v>
@@ -29853,20 +29853,20 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
+          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>1950000000</v>
+        <v>12200000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>144</v>
+        <v>340</v>
       </c>
       <c r="E1051" t="n">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="F1051" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1051" t="n">
         <v>3</v>
@@ -29881,23 +29881,23 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>2600000000</v>
+        <v>47000000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>88</v>
+        <v>1000</v>
       </c>
       <c r="E1052" t="n">
-        <v>55</v>
+        <v>810</v>
       </c>
       <c r="F1052" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1052" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1052" t="n">
         <v>2</v>
@@ -29909,26 +29909,26 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>12200000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="E1053" t="n">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="F1053" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1053" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -29937,23 +29937,23 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
+          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>47000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>1000</v>
+        <v>109</v>
       </c>
       <c r="E1054" t="n">
-        <v>810</v>
+        <v>50</v>
       </c>
       <c r="F1054" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1054" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1054" t="n">
         <v>2</v>
@@ -29965,26 +29965,26 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>2830000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1055" t="n">
-        <v>112</v>
+        <v>350</v>
       </c>
       <c r="E1055" t="n">
-        <v>70</v>
+        <v>1070</v>
       </c>
       <c r="F1055" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1055" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056">
@@ -29993,17 +29993,17 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1056" t="n">
         <v>2400000000</v>
       </c>
       <c r="D1056" t="n">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E1056" t="n">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="F1056" t="n">
         <v>3</v>
@@ -30021,26 +30021,26 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
+          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>19000000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="E1057" t="n">
-        <v>1070</v>
+        <v>116</v>
       </c>
       <c r="F1057" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1057" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058">
@@ -30049,17 +30049,17 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>2400000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="E1058" t="n">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="F1058" t="n">
         <v>3</v>
@@ -30068,7 +30068,7 @@
         <v>3</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -30077,26 +30077,26 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
+          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>1800000000</v>
+        <v>1970000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E1059" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F1059" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1059" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -30105,26 +30105,26 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
+          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>2500000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="E1060" t="n">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="F1060" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1060" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -30133,17 +30133,17 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
+          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>1970000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1061" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E1061" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F1061" t="n">
         <v>3</v>
@@ -30161,26 +30161,26 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
+          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>1900000000</v>
+        <v>4500000000</v>
       </c>
       <c r="D1062" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E1062" t="n">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="F1062" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1062" t="n">
         <v>4</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -30189,26 +30189,26 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
+          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>2500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E1063" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="F1063" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1063" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1063" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064">
@@ -30217,26 +30217,26 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
+          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>4500000000</v>
+        <v>7890000000</v>
       </c>
       <c r="D1064" t="n">
         <v>250</v>
       </c>
       <c r="E1064" t="n">
-        <v>150</v>
+        <v>404</v>
       </c>
       <c r="F1064" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1064" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1065">
@@ -30245,26 +30245,26 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>6900000000</v>
+        <v>31900000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E1065" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F1065" t="n">
         <v>5</v>
       </c>
       <c r="G1065" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1066">
@@ -30273,14 +30273,14 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>7890000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E1066" t="n">
         <v>404</v>
@@ -30301,26 +30301,26 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>31900000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>400</v>
+        <v>1050</v>
       </c>
       <c r="E1067" t="n">
-        <v>350</v>
+        <v>627</v>
       </c>
       <c r="F1067" t="n">
         <v>5</v>
       </c>
       <c r="G1067" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1067" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1068">
@@ -30329,26 +30329,26 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>7800000000</v>
+        <v>13900000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E1068" t="n">
-        <v>404</v>
+        <v>696</v>
       </c>
       <c r="F1068" t="n">
         <v>3</v>
       </c>
       <c r="G1068" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1068" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1069">
@@ -30357,17 +30357,17 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>44000000000</v>
+        <v>39900000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>1050</v>
+        <v>796</v>
       </c>
       <c r="E1069" t="n">
-        <v>627</v>
+        <v>864</v>
       </c>
       <c r="F1069" t="n">
         <v>5</v>
@@ -30376,7 +30376,7 @@
         <v>5</v>
       </c>
       <c r="H1069" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1070">
@@ -30385,26 +30385,26 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>13900000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="E1070" t="n">
-        <v>696</v>
+        <v>854</v>
       </c>
       <c r="F1070" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1070" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1070" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1071">
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>39900000000</v>
+        <v>53500000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>796</v>
+        <v>452</v>
       </c>
       <c r="E1071" t="n">
-        <v>864</v>
+        <v>1165</v>
       </c>
       <c r="F1071" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1071" t="n">
         <v>5</v>
       </c>
       <c r="H1071" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,23 +30441,23 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>22000000000</v>
+        <v>34900000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E1072" t="n">
-        <v>854</v>
+        <v>538</v>
       </c>
       <c r="F1072" t="n">
         <v>6</v>
       </c>
       <c r="G1072" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1072" t="n">
         <v>5</v>
@@ -30469,26 +30469,26 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>53500000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>452</v>
+        <v>1100</v>
       </c>
       <c r="E1073" t="n">
-        <v>1165</v>
+        <v>540</v>
       </c>
       <c r="F1073" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1073" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1073" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1074">
@@ -30497,26 +30497,26 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>34900000000</v>
+        <v>55000000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E1074" t="n">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="F1074" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1074" t="n">
         <v>6</v>
-      </c>
-      <c r="G1074" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1074" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="1075">
@@ -30525,26 +30525,26 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>48000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>1100</v>
+        <v>65</v>
       </c>
       <c r="E1075" t="n">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="F1075" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1075" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1075" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -30553,26 +30553,26 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>55000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="E1076" t="n">
-        <v>500</v>
+        <v>117</v>
       </c>
       <c r="F1076" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1076" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1076" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077">
@@ -30581,26 +30581,26 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>1500000000</v>
+        <v>3600000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="E1077" t="n">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="F1077" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1077" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,23 +30609,23 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>2400000000</v>
+        <v>3700000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="E1078" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F1078" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1078" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1078" t="n">
         <v>1</v>
@@ -30637,26 +30637,26 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>3600000000</v>
+        <v>7900000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E1079" t="n">
-        <v>144</v>
+        <v>682</v>
       </c>
       <c r="F1079" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1079" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1079" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -30665,26 +30665,26 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>3700000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>300</v>
+        <v>810</v>
       </c>
       <c r="E1080" t="n">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="F1080" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1080" t="n">
         <v>4</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081">
@@ -30693,26 +30693,26 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>7900000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E1081" t="n">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="F1081" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1081" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1082">
@@ -30721,17 +30721,17 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>48000000000</v>
+        <v>46000000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>810</v>
+        <v>871</v>
       </c>
       <c r="E1082" t="n">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F1082" t="n">
         <v>4</v>
@@ -30749,26 +30749,26 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>62000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="E1083" t="n">
-        <v>670</v>
+        <v>81</v>
       </c>
       <c r="F1083" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1083" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1083" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -30777,26 +30777,26 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>2025 Modern House Kebayoran Baru For Sale</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>46000000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>871</v>
+        <v>180</v>
       </c>
       <c r="E1084" t="n">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="F1084" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1084" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085">
@@ -30805,23 +30805,23 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>1500000000</v>
+        <v>8800000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="E1085" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F1085" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1085" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1085" t="n">
         <v>1</v>
@@ -30833,23 +30833,23 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>5700000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1086" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E1086" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F1086" t="n">
         <v>3</v>
       </c>
       <c r="G1086" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1086" t="n">
         <v>1</v>
@@ -30861,26 +30861,26 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>8800000000</v>
+        <v>52000000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>280</v>
+        <v>564</v>
       </c>
       <c r="E1087" t="n">
-        <v>120</v>
+        <v>726</v>
       </c>
       <c r="F1087" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1087" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1088">
@@ -30889,26 +30889,26 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>6000000000</v>
+        <v>28000000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E1088" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="F1088" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1088" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -30917,26 +30917,26 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
+          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>52000000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>564</v>
+        <v>1600</v>
       </c>
       <c r="E1089" t="n">
-        <v>726</v>
+        <v>1050</v>
       </c>
       <c r="F1089" t="n">
         <v>8</v>
       </c>
       <c r="G1089" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1089" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1090">
@@ -30945,26 +30945,26 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>28000000000</v>
+        <v>22500000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E1090" t="n">
-        <v>2500</v>
+        <v>248</v>
       </c>
       <c r="F1090" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1090" t="n">
         <v>6</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -30973,26 +30973,26 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>68000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>1600</v>
+        <v>183</v>
       </c>
       <c r="E1091" t="n">
-        <v>1050</v>
+        <v>149</v>
       </c>
       <c r="F1091" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1091" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1091" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>22500000000</v>
+        <v>31500000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E1092" t="n">
-        <v>248</v>
+        <v>2620</v>
       </c>
       <c r="F1092" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1092" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1092" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,26 +31029,26 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>7000000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E1093" t="n">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="F1093" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1093" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
@@ -31057,26 +31057,26 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>31500000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E1094" t="n">
-        <v>2620</v>
+        <v>1343</v>
       </c>
       <c r="F1094" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1094" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1094" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1095">
@@ -31085,26 +31085,26 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>3750000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="E1095" t="n">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="F1095" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1095" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096">
@@ -31113,17 +31113,17 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>25000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>700</v>
+        <v>210</v>
       </c>
       <c r="E1096" t="n">
-        <v>1343</v>
+        <v>315</v>
       </c>
       <c r="F1096" t="n">
         <v>4</v>
@@ -31132,7 +31132,7 @@
         <v>3</v>
       </c>
       <c r="H1096" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097">
@@ -31141,23 +31141,23 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>6900000000</v>
+        <v>1650000000</v>
       </c>
       <c r="D1097" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E1097" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F1097" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1097" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1097" t="n">
         <v>2</v>
@@ -31169,26 +31169,26 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>14000000000</v>
+        <v>3900000000</v>
       </c>
       <c r="D1098" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E1098" t="n">
-        <v>315</v>
+        <v>170</v>
       </c>
       <c r="F1098" t="n">
         <v>4</v>
       </c>
       <c r="G1098" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1099">
@@ -31197,23 +31197,23 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>1650000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1099" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="E1099" t="n">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F1099" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1099" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1099" t="n">
         <v>2</v>
@@ -31225,26 +31225,26 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
+          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>3900000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1100" t="n">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="E1100" t="n">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="F1100" t="n">
         <v>4</v>
       </c>
       <c r="G1100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1101">
@@ -31253,23 +31253,23 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
+          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>3000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E1101" t="n">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="F1101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1101" t="n">
         <v>2</v>
@@ -31281,23 +31281,23 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
+          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>1800000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E1102" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F1102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1102" t="n">
         <v>2</v>
@@ -31309,23 +31309,23 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>2400000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1103" t="n">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E1103" t="n">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="F1103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1103" t="n">
         <v>2</v>
@@ -31337,23 +31337,23 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>3850000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1104" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E1104" t="n">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="F1104" t="n">
         <v>5</v>
       </c>
       <c r="G1104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1104" t="n">
         <v>2</v>
@@ -31365,26 +31365,26 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>7090000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1105" t="n">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="E1105" t="n">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="F1105" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -31393,20 +31393,20 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>3950000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1106" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E1106" t="n">
-        <v>161</v>
+        <v>446</v>
       </c>
       <c r="F1106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1106" t="n">
         <v>3</v>
@@ -31421,26 +31421,26 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>3950000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1107" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E1107" t="n">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="F1107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1108">
@@ -31449,26 +31449,26 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>3950000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1108" t="n">
-        <v>180</v>
+        <v>650</v>
       </c>
       <c r="E1108" t="n">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="F1108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1108" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1109">
@@ -31477,26 +31477,26 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>11500000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1109" t="n">
-        <v>500</v>
+        <v>274</v>
       </c>
       <c r="E1109" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F1109" t="n">
         <v>4</v>
       </c>
       <c r="G1109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110">
@@ -31505,26 +31505,26 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>9500000000</v>
+        <v>26000000000</v>
       </c>
       <c r="D1110" t="n">
-        <v>300</v>
+        <v>1374</v>
       </c>
       <c r="E1110" t="n">
-        <v>361</v>
+        <v>1493</v>
       </c>
       <c r="F1110" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1110" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H1110" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1111">
@@ -31533,17 +31533,17 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>6900000000</v>
+        <v>18000000000</v>
       </c>
       <c r="D1111" t="n">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="E1111" t="n">
-        <v>76</v>
+        <v>899</v>
       </c>
       <c r="F1111" t="n">
         <v>4</v>
@@ -31552,7 +31552,7 @@
         <v>4</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1112">
@@ -31561,26 +31561,26 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>2600000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1112" t="n">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="E1112" t="n">
-        <v>117</v>
+        <v>720</v>
       </c>
       <c r="F1112" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G1112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1112" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1113">
@@ -31589,26 +31589,26 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>35000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1113" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="E1113" t="n">
-        <v>406</v>
+        <v>620</v>
       </c>
       <c r="F1113" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G1113" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1113" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1114">
@@ -31617,26 +31617,26 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>30000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1114" t="n">
-        <v>274</v>
+        <v>700</v>
       </c>
       <c r="E1114" t="n">
-        <v>448</v>
+        <v>960</v>
       </c>
       <c r="F1114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1114" t="n">
         <v>4</v>
       </c>
       <c r="H1114" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1115">
@@ -31645,26 +31645,26 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>26000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1115" t="n">
-        <v>1374</v>
+        <v>150</v>
       </c>
       <c r="E1115" t="n">
-        <v>1493</v>
+        <v>300</v>
       </c>
       <c r="F1115" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G1115" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H1115" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116">
@@ -31673,26 +31673,26 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>2600000000</v>
+        <v>40500000000</v>
       </c>
       <c r="D1116" t="n">
-        <v>88</v>
+        <v>350</v>
       </c>
       <c r="E1116" t="n">
-        <v>55</v>
+        <v>534</v>
       </c>
       <c r="F1116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1117">
@@ -31701,26 +31701,26 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>18000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1117" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="E1117" t="n">
-        <v>899</v>
+        <v>550</v>
       </c>
       <c r="F1117" t="n">
         <v>4</v>
       </c>
       <c r="G1117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1117" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -31729,26 +31729,26 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru di Jagakarsa</t>
+          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>12500000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1118" t="n">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E1118" t="n">
-        <v>720</v>
+        <v>2028</v>
       </c>
       <c r="F1118" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1118" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1118" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1119">
@@ -31757,26 +31757,26 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>6900000000</v>
+        <v>61000000000</v>
       </c>
       <c r="D1119" t="n">
-        <v>375</v>
+        <v>900</v>
       </c>
       <c r="E1119" t="n">
-        <v>76</v>
+        <v>850</v>
       </c>
       <c r="F1119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1119" t="n">
         <v>4</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1120">
@@ -31785,26 +31785,26 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>2830000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1120" t="n">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="E1120" t="n">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="F1120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -31813,26 +31813,26 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>42000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1121" t="n">
-        <v>1200</v>
+        <v>375</v>
       </c>
       <c r="E1121" t="n">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="F1121" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G1121" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H1121" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -31841,26 +31841,26 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>21000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1122" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="E1122" t="n">
-        <v>960</v>
+        <v>250</v>
       </c>
       <c r="F1122" t="n">
         <v>5</v>
       </c>
       <c r="G1122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -31869,26 +31869,26 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>13000000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1123" t="n">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="E1123" t="n">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="F1123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124">
@@ -31897,26 +31897,26 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>40500000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1124" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="E1124" t="n">
-        <v>534</v>
+        <v>384</v>
       </c>
       <c r="F1124" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1124" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H1124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -31925,23 +31925,23 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+          <t>Siap Huni 4 Lantai Private Lift 500 Meter Tol Andara Kawasa Artis</t>
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>12000000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1125" t="n">
-        <v>600</v>
+        <v>258</v>
       </c>
       <c r="E1125" t="n">
-        <v>550</v>
+        <v>108</v>
       </c>
       <c r="F1125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1125" t="n">
         <v>2</v>
@@ -31953,26 +31953,26 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
+          <t>Rumah Mewah Prime Location Area Permata Hijau Harga Menarik</t>
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>27000000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1126" t="n">
-        <v>550</v>
+        <v>409</v>
       </c>
       <c r="E1126" t="n">
-        <v>2028</v>
+        <v>520</v>
       </c>
       <c r="F1126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -31981,26 +31981,26 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>61000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1127" t="n">
-        <v>900</v>
+        <v>375</v>
       </c>
       <c r="E1127" t="n">
-        <v>850</v>
+        <v>76</v>
       </c>
       <c r="F1127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1127" t="n">
         <v>4</v>
       </c>
       <c r="H1127" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -32009,25 +32009,473 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>2500000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1128" t="n">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="E1128" t="n">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="F1128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
+        </is>
+      </c>
+      <c r="C1129" t="n">
+        <v>14500000000</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>240</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+        </is>
+      </c>
+      <c r="C1130" t="n">
+        <v>13500000000</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>696</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
+        </is>
+      </c>
+      <c r="C1131" t="n">
+        <v>4800000000</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>150</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1132" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Luxury House At West Jakarta Taman Palem Cengkareng</t>
+        </is>
+      </c>
+      <c r="C1133" t="n">
+        <v>9000000000</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>202</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1134" t="n">
+        <v>13500000000</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>304</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Pondok Indah - For Sale Rumah Modern Classic Di Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1135" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1136" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Jual Rumah Bagus SHM di Pondok Indah Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1137" t="n">
+        <v>68000000000</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
+        </is>
+      </c>
+      <c r="C1138" t="n">
+        <v>32000000000</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>825</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>768</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
+        </is>
+      </c>
+      <c r="C1139" t="n">
+        <v>14000000000</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>380</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>300</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Rumah Rasa Villa Luas 2000M 6 Kamar Cipete Dekat Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1140" t="n">
+        <v>42000000000</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>850</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>1925</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1141" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Rumah 2 Lantai di Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1142" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>10</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
+        </is>
+      </c>
+      <c r="C1143" t="n">
+        <v>15800000000</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>240</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>310</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Rumah Djual Dalam Cluster Dekat Cilandak Trakindo</t>
+        </is>
+      </c>
+      <c r="C1144" t="n">
+        <v>3750000000</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>198</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1144" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1144"/>
+  <dimension ref="A1:H1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30245,26 +30245,26 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>31900000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E1065" t="n">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="F1065" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1065" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1065" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1066">
@@ -30273,26 +30273,26 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>7800000000</v>
+        <v>39900000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>300</v>
+        <v>796</v>
       </c>
       <c r="E1066" t="n">
-        <v>404</v>
+        <v>864</v>
       </c>
       <c r="F1066" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1066" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1066" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1067">
@@ -30301,26 +30301,26 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>44000000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>1050</v>
+        <v>650</v>
       </c>
       <c r="E1067" t="n">
-        <v>627</v>
+        <v>854</v>
       </c>
       <c r="F1067" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1067" t="n">
         <v>5</v>
       </c>
       <c r="H1067" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1068">
@@ -30329,26 +30329,26 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>13900000000</v>
+        <v>53500000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>325</v>
+        <v>452</v>
       </c>
       <c r="E1068" t="n">
-        <v>696</v>
+        <v>1165</v>
       </c>
       <c r="F1068" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1068" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1068" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1069">
@@ -30357,26 +30357,26 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>39900000000</v>
+        <v>34900000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="E1069" t="n">
-        <v>864</v>
+        <v>538</v>
       </c>
       <c r="F1069" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1069" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1069" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1070">
@@ -30385,23 +30385,23 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>22000000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="E1070" t="n">
-        <v>854</v>
+        <v>540</v>
       </c>
       <c r="F1070" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1070" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1070" t="n">
         <v>5</v>
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>53500000000</v>
+        <v>55000000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="E1071" t="n">
-        <v>1165</v>
+        <v>500</v>
       </c>
       <c r="F1071" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1071" t="n">
         <v>6</v>
-      </c>
-      <c r="G1071" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1071" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,26 +30441,26 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>34900000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>800</v>
+        <v>65</v>
       </c>
       <c r="E1072" t="n">
-        <v>538</v>
+        <v>106</v>
       </c>
       <c r="F1072" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1072" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1072" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -30469,26 +30469,26 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>48000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>1100</v>
+        <v>130</v>
       </c>
       <c r="E1073" t="n">
-        <v>540</v>
+        <v>117</v>
       </c>
       <c r="F1073" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1073" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1073" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074">
@@ -30497,26 +30497,26 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>55000000000</v>
+        <v>3600000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E1074" t="n">
-        <v>500</v>
+        <v>144</v>
       </c>
       <c r="F1074" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1074" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1074" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075">
@@ -30525,26 +30525,26 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>1500000000</v>
+        <v>3700000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="E1075" t="n">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F1075" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1075" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076">
@@ -30553,26 +30553,26 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>2400000000</v>
+        <v>7900000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="E1076" t="n">
-        <v>117</v>
+        <v>682</v>
       </c>
       <c r="F1076" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1076" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1076" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -30581,26 +30581,26 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>3600000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>250</v>
+        <v>810</v>
       </c>
       <c r="E1077" t="n">
-        <v>144</v>
+        <v>338</v>
       </c>
       <c r="F1077" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1077" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,26 +30609,26 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>3700000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="E1078" t="n">
-        <v>143</v>
+        <v>670</v>
       </c>
       <c r="F1078" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1078" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1078" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1079">
@@ -30637,26 +30637,26 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>7900000000</v>
+        <v>46000000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>400</v>
+        <v>871</v>
       </c>
       <c r="E1079" t="n">
-        <v>682</v>
+        <v>317</v>
       </c>
       <c r="F1079" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1079" t="n">
         <v>4</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -30665,26 +30665,26 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>48000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>810</v>
+        <v>75</v>
       </c>
       <c r="E1080" t="n">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="F1080" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1080" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -30693,26 +30693,26 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>62000000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>2000</v>
+        <v>180</v>
       </c>
       <c r="E1081" t="n">
-        <v>670</v>
+        <v>250</v>
       </c>
       <c r="F1081" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1081" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1081" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082">
@@ -30721,26 +30721,26 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>2025 Modern House Kebayoran Baru For Sale</t>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>46000000000</v>
+        <v>8800000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>871</v>
+        <v>280</v>
       </c>
       <c r="E1082" t="n">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="F1082" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1082" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083">
@@ -30749,23 +30749,23 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>1500000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="E1083" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="F1083" t="n">
         <v>3</v>
       </c>
       <c r="G1083" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1083" t="n">
         <v>1</v>
@@ -30777,26 +30777,26 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>5700000000</v>
+        <v>52000000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="E1084" t="n">
-        <v>250</v>
+        <v>726</v>
       </c>
       <c r="F1084" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1084" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1084" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1085">
@@ -30805,26 +30805,26 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>8800000000</v>
+        <v>28000000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="E1085" t="n">
-        <v>120</v>
+        <v>2500</v>
       </c>
       <c r="F1085" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1085" t="n">
         <v>6</v>
       </c>
       <c r="H1085" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -30833,26 +30833,26 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>6000000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1086" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="E1086" t="n">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="F1086" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1086" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1086" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1087">
@@ -30861,26 +30861,26 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>52000000000</v>
+        <v>22500000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="E1087" t="n">
-        <v>726</v>
+        <v>248</v>
       </c>
       <c r="F1087" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1087" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1087" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -30889,23 +30889,23 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>28000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>1000</v>
+        <v>183</v>
       </c>
       <c r="E1088" t="n">
-        <v>2500</v>
+        <v>149</v>
       </c>
       <c r="F1088" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1088" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1088" t="n">
         <v>2</v>
@@ -30917,26 +30917,26 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>68000000000</v>
+        <v>31500000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="E1089" t="n">
-        <v>1050</v>
+        <v>2620</v>
       </c>
       <c r="F1089" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1089" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1089" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1090">
@@ -30945,26 +30945,26 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>22500000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E1090" t="n">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="F1090" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1090" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1090" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091">
@@ -30973,17 +30973,17 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>7000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>183</v>
+        <v>700</v>
       </c>
       <c r="E1091" t="n">
-        <v>149</v>
+        <v>1343</v>
       </c>
       <c r="F1091" t="n">
         <v>4</v>
@@ -30992,7 +30992,7 @@
         <v>3</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1092">
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>31500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="E1092" t="n">
-        <v>2620</v>
+        <v>76</v>
       </c>
       <c r="F1092" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1092" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1092" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,26 +31029,26 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>3750000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="E1093" t="n">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F1093" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1093" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1093" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -31057,26 +31057,26 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>25000000000</v>
+        <v>1650000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="E1094" t="n">
-        <v>1343</v>
+        <v>65</v>
       </c>
       <c r="F1094" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1094" t="n">
         <v>3</v>
       </c>
       <c r="H1094" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095">
@@ -31085,17 +31085,17 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>6900000000</v>
+        <v>3900000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>375</v>
+        <v>206</v>
       </c>
       <c r="E1095" t="n">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="F1095" t="n">
         <v>4</v>
@@ -31104,7 +31104,7 @@
         <v>4</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1096">
@@ -31113,23 +31113,23 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>14000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E1096" t="n">
-        <v>315</v>
+        <v>108</v>
       </c>
       <c r="F1096" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1096" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1096" t="n">
         <v>2</v>
@@ -31141,20 +31141,20 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>1650000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1097" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="E1097" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="F1097" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1097" t="n">
         <v>3</v>
@@ -31169,17 +31169,17 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
+          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>3900000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1098" t="n">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="E1098" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F1098" t="n">
         <v>4</v>
@@ -31188,7 +31188,7 @@
         <v>4</v>
       </c>
       <c r="H1098" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099">
@@ -31197,23 +31197,23 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
+          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>3000000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1099" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="E1099" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F1099" t="n">
         <v>5</v>
       </c>
       <c r="G1099" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1099" t="n">
         <v>2</v>
@@ -31225,20 +31225,20 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>1800000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1100" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E1100" t="n">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="F1100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1100" t="n">
         <v>3</v>
@@ -31253,23 +31253,23 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>2400000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E1101" t="n">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="F1101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1101" t="n">
         <v>2</v>
@@ -31281,23 +31281,23 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>3850000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E1102" t="n">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="F1102" t="n">
         <v>5</v>
       </c>
       <c r="G1102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1102" t="n">
         <v>2</v>
@@ -31309,20 +31309,20 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>3950000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1103" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E1103" t="n">
-        <v>161</v>
+        <v>446</v>
       </c>
       <c r="F1103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1103" t="n">
         <v>3</v>
@@ -31337,26 +31337,26 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>3950000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1104" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E1104" t="n">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="F1104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
@@ -31365,26 +31365,26 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>3950000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1105" t="n">
-        <v>180</v>
+        <v>650</v>
       </c>
       <c r="E1105" t="n">
-        <v>162</v>
+        <v>406</v>
       </c>
       <c r="F1105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1105" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1106">
@@ -31393,26 +31393,26 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>11500000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1106" t="n">
-        <v>500</v>
+        <v>274</v>
       </c>
       <c r="E1106" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F1106" t="n">
         <v>4</v>
       </c>
       <c r="G1106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107">
@@ -31421,26 +31421,26 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>9500000000</v>
+        <v>26000000000</v>
       </c>
       <c r="D1107" t="n">
-        <v>300</v>
+        <v>1374</v>
       </c>
       <c r="E1107" t="n">
-        <v>361</v>
+        <v>1493</v>
       </c>
       <c r="F1107" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1107" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H1107" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1108">
@@ -31449,26 +31449,26 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>35000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="D1108" t="n">
-        <v>650</v>
+        <v>467</v>
       </c>
       <c r="E1108" t="n">
-        <v>406</v>
+        <v>899</v>
       </c>
       <c r="F1108" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1108" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1108" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1109">
@@ -31477,26 +31477,26 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>30000000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1109" t="n">
-        <v>274</v>
+        <v>520</v>
       </c>
       <c r="E1109" t="n">
-        <v>448</v>
+        <v>720</v>
       </c>
       <c r="F1109" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1109" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1110">
@@ -31505,26 +31505,26 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>26000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1110" t="n">
-        <v>1374</v>
+        <v>150</v>
       </c>
       <c r="E1110" t="n">
-        <v>1493</v>
+        <v>300</v>
       </c>
       <c r="F1110" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G1110" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H1110" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111">
@@ -31533,17 +31533,17 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>18000000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1111" t="n">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="E1111" t="n">
-        <v>899</v>
+        <v>2028</v>
       </c>
       <c r="F1111" t="n">
         <v>4</v>
@@ -31552,7 +31552,7 @@
         <v>4</v>
       </c>
       <c r="H1111" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1112">
@@ -31561,26 +31561,26 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru di Jagakarsa</t>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>12500000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1112" t="n">
-        <v>520</v>
+        <v>185</v>
       </c>
       <c r="E1112" t="n">
-        <v>720</v>
+        <v>128</v>
       </c>
       <c r="F1112" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1112" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113">
@@ -31589,26 +31589,26 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>42000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1113" t="n">
-        <v>1200</v>
+        <v>430</v>
       </c>
       <c r="E1113" t="n">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="F1113" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1113" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="H1113" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -31617,26 +31617,26 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>21000000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1114" t="n">
-        <v>700</v>
+        <v>320</v>
       </c>
       <c r="E1114" t="n">
-        <v>960</v>
+        <v>318</v>
       </c>
       <c r="F1114" t="n">
         <v>5</v>
       </c>
       <c r="G1114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1114" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115">
@@ -31645,26 +31645,26 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>13000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1115" t="n">
-        <v>150</v>
+        <v>850</v>
       </c>
       <c r="E1115" t="n">
-        <v>300</v>
+        <v>384</v>
       </c>
       <c r="F1115" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G1115" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H1115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -31673,26 +31673,26 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+          <t>Siap Huni 4 Lantai Private Lift 500 Meter Tol Andara Kawasa Artis</t>
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>40500000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1116" t="n">
-        <v>350</v>
+        <v>258</v>
       </c>
       <c r="E1116" t="n">
-        <v>534</v>
+        <v>108</v>
       </c>
       <c r="F1116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
@@ -31701,26 +31701,26 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+          <t>Rumah Mewah Prime Location Area Permata Hijau Harga Menarik</t>
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>12000000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1117" t="n">
-        <v>600</v>
+        <v>409</v>
       </c>
       <c r="E1117" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="F1117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1117" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -31729,26 +31729,26 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
+          <t>Luxury House At West Jakarta Taman Palem Cengkareng</t>
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>27000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1118" t="n">
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="E1118" t="n">
-        <v>2028</v>
+        <v>202</v>
       </c>
       <c r="F1118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1118" t="n">
         <v>4</v>
       </c>
       <c r="H1118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119">
@@ -31757,26 +31757,26 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
+          <t>Pondok Indah - For Sale Rumah Modern Classic Di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>61000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1119" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E1119" t="n">
-        <v>850</v>
+        <v>620</v>
       </c>
       <c r="F1119" t="n">
         <v>5</v>
       </c>
       <c r="G1119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1119" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -31785,26 +31785,26 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
+          <t>Jual Rumah Bagus SHM di Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>2500000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1120" t="n">
-        <v>185</v>
+        <v>1600</v>
       </c>
       <c r="E1120" t="n">
-        <v>128</v>
+        <v>1050</v>
       </c>
       <c r="F1120" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1120" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1121">
@@ -31813,26 +31813,26 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>7090000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1121" t="n">
-        <v>375</v>
+        <v>825</v>
       </c>
       <c r="E1121" t="n">
-        <v>76</v>
+        <v>768</v>
       </c>
       <c r="F1121" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G1121" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122">
@@ -31841,26 +31841,26 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>8000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1122" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="E1122" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F1122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1122" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -31869,26 +31869,26 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
+          <t>Rumah Rasa Villa Luas 2000M 6 Kamar Cipete Dekat Pondok Indah</t>
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>5500000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1123" t="n">
-        <v>320</v>
+        <v>850</v>
       </c>
       <c r="E1123" t="n">
-        <v>318</v>
+        <v>1925</v>
       </c>
       <c r="F1123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1123" t="n">
         <v>5</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1124">
@@ -31897,26 +31897,26 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>14000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1124" t="n">
-        <v>850</v>
+        <v>375</v>
       </c>
       <c r="E1124" t="n">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="F1124" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1124" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H1124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -31925,26 +31925,26 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Siap Huni 4 Lantai Private Lift 500 Meter Tol Andara Kawasa Artis</t>
+          <t>Rumah 2 Lantai di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>4800000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1125" t="n">
-        <v>258</v>
+        <v>1200</v>
       </c>
       <c r="E1125" t="n">
-        <v>108</v>
+        <v>1000</v>
       </c>
       <c r="F1125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1125" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126">
@@ -31953,23 +31953,23 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Rumah Mewah Prime Location Area Permata Hijau Harga Menarik</t>
+          <t>Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>19000000000</v>
+        <v>15800000000</v>
       </c>
       <c r="D1126" t="n">
-        <v>409</v>
+        <v>240</v>
       </c>
       <c r="E1126" t="n">
-        <v>520</v>
+        <v>310</v>
       </c>
       <c r="F1126" t="n">
         <v>5</v>
       </c>
       <c r="G1126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1126" t="n">
         <v>1</v>
@@ -31981,20 +31981,20 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Rumah Djual Dalam Cluster Dekat Cilandak Trakindo</t>
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>6900000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1127" t="n">
-        <v>375</v>
+        <v>198</v>
       </c>
       <c r="E1127" t="n">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="F1127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1127" t="n">
         <v>4</v>
@@ -32009,17 +32009,17 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>2600000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1128" t="n">
-        <v>88</v>
+        <v>375</v>
       </c>
       <c r="E1128" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F1128" t="n">
         <v>2</v>
@@ -32037,20 +32037,20 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
+          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>14500000000</v>
+        <v>17000000000</v>
       </c>
       <c r="D1129" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E1129" t="n">
-        <v>240</v>
+        <v>1070</v>
       </c>
       <c r="F1129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1129" t="n">
         <v>3</v>
@@ -32065,26 +32065,26 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Rumah Besar Tebet Utara, Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>13500000000</v>
+        <v>9700000000</v>
       </c>
       <c r="D1130" t="n">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="E1130" t="n">
-        <v>696</v>
+        <v>216</v>
       </c>
       <c r="F1130" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1130" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131">
@@ -32093,26 +32093,26 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
+          <t>Dijual Cepat Rumah di Kemang Masih Sangat Terawat dan Bangunan Masih Bagus</t>
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>4800000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1131" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E1131" t="n">
-        <v>150</v>
+        <v>1250</v>
       </c>
       <c r="F1131" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -32121,26 +32121,26 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Dijual Rumah Renovated Di Kemang, Dekat Kemang Dalam Lt 467m Hanya Rp 12 Milyar</t>
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>2830000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1132" t="n">
-        <v>112</v>
+        <v>580</v>
       </c>
       <c r="E1132" t="n">
-        <v>70</v>
+        <v>467</v>
       </c>
       <c r="F1132" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133">
@@ -32149,26 +32149,26 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Luxury House At West Jakarta Taman Palem Cengkareng</t>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>9000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1133" t="n">
-        <v>440</v>
+        <v>1200</v>
       </c>
       <c r="E1133" t="n">
-        <v>202</v>
+        <v>620</v>
       </c>
       <c r="F1133" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1133" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1134">
@@ -32177,26 +32177,26 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>13500000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1134" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E1134" t="n">
-        <v>304</v>
+        <v>960</v>
       </c>
       <c r="F1134" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1134" t="n">
         <v>6</v>
-      </c>
-      <c r="G1134" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1134" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -32205,26 +32205,26 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Pondok Indah - For Sale Rumah Modern Classic Di Jakarta Selatan</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>45000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1135" t="n">
-        <v>1000</v>
+        <v>88</v>
       </c>
       <c r="E1135" t="n">
-        <v>620</v>
+        <v>55</v>
       </c>
       <c r="F1135" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1135" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -32233,26 +32233,26 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Dijual Murah 15Jt/M2 di Kemang.pejaten Barat Kemang. Rumah Model Bali Luas 4041M2 Siap Huni Hanya Rp 15Juta/M</t>
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>2600000000</v>
+        <v>60600000000</v>
       </c>
       <c r="D1136" t="n">
-        <v>130</v>
+        <v>1130</v>
       </c>
       <c r="E1136" t="n">
-        <v>117</v>
+        <v>4041</v>
       </c>
       <c r="F1136" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G1136" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1136" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1137">
@@ -32261,26 +32261,26 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Jual Rumah Bagus SHM di Pondok Indah Jakarta Selatan</t>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>68000000000</v>
+        <v>40500000000</v>
       </c>
       <c r="D1137" t="n">
-        <v>1600</v>
+        <v>350</v>
       </c>
       <c r="E1137" t="n">
-        <v>1050</v>
+        <v>534</v>
       </c>
       <c r="F1137" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1137" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1137" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1138">
@@ -32289,20 +32289,20 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>32000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1138" t="n">
-        <v>825</v>
+        <v>600</v>
       </c>
       <c r="E1138" t="n">
-        <v>768</v>
+        <v>550</v>
       </c>
       <c r="F1138" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1138" t="n">
         <v>5</v>
@@ -32317,26 +32317,26 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>14000000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1139" t="n">
-        <v>380</v>
+        <v>112</v>
       </c>
       <c r="E1139" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="F1139" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140">
@@ -32345,26 +32345,26 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Rumah Rasa Villa Luas 2000M 6 Kamar Cipete Dekat Pondok Indah</t>
+          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>42000000000</v>
+        <v>61000000000</v>
       </c>
       <c r="D1140" t="n">
+        <v>900</v>
+      </c>
+      <c r="E1140" t="n">
         <v>850</v>
       </c>
-      <c r="E1140" t="n">
-        <v>1925</v>
-      </c>
       <c r="F1140" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1140" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1141">
@@ -32373,26 +32373,26 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+          <t>Dijual Murah Hanya Rp 13Jt/M Rumah Lama di Kemang - Cipete, Luas 1153M Harga Rp 15 M</t>
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>6900000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1141" t="n">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="E1141" t="n">
-        <v>76</v>
+        <v>1153</v>
       </c>
       <c r="F1141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1141" t="n">
         <v>4</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1142">
@@ -32401,26 +32401,26 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai di Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Mendekati NJOP Rumah di Pondok Indah (Dalam Portal) Luas 1235M2.hanya Rp.36.4jt/M</t>
         </is>
       </c>
       <c r="C1142" t="n">
         <v>45000000000</v>
       </c>
       <c r="D1142" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E1142" t="n">
-        <v>1000</v>
+        <v>1235</v>
       </c>
       <c r="F1142" t="n">
         <v>6</v>
       </c>
       <c r="G1142" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H1142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1143">
@@ -32429,23 +32429,23 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
+          <t>ZENITPARC HYTT</t>
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>15800000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1143" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="E1143" t="n">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="F1143" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1143" t="n">
         <v>1</v>
@@ -32457,26 +32457,782 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Rumah Djual Dalam Cluster Dekat Cilandak Trakindo</t>
+          <t>Dijual Murah Area Senopati Rumah untuk Hunian / Kantor / Klinik / Usaha Luas 252M Jalan Lebar Rp 14 M</t>
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>3750000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1144" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E1144" t="n">
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="F1144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Pondok Indah Luas 300M Hanya 13 M . Jalan Lebar dan Tenang, Dalam Portal</t>
+        </is>
+      </c>
+      <c r="C1145" t="n">
+        <v>12800000000</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>300</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Dijua Murah Rumah Depan Taman di Kebayoran Baru. Luas 379M Lokasi Bagus</t>
+        </is>
+      </c>
+      <c r="C1146" t="n">
+        <v>21000000000</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>379</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Lux di Mega Kuningan (Dalam Komplek) Luas.tanah 604M2 Rp 40 M Nego</t>
+        </is>
+      </c>
+      <c r="C1147" t="n">
+        <v>40000000000</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>800</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>604</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Dijual Murah Rumah di Kebayoran Baru. Lingkungan Seperti Komplek(Gated) . Jalan Lebar dan Tenang. Luas.293m Rp 15 M (Rp 51.1Jt/M Nego)</t>
+        </is>
+      </c>
+      <c r="C1148" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>293</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+        </is>
+      </c>
+      <c r="C1149" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
+        </is>
+      </c>
+      <c r="C1150" t="n">
+        <v>14500000000</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>240</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+        </is>
+      </c>
+      <c r="C1151" t="n">
+        <v>13500000000</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>696</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
+        </is>
+      </c>
+      <c r="C1152" t="n">
+        <v>4800000000</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>150</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Jarang Ada Rumah Bagus Kemang Bangka Tanah 648</t>
+        </is>
+      </c>
+      <c r="C1153" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>355</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>648</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Nol Jalan Raya Suryo Senopati Jakarta Selatan.cocok Untuk Tempat Usaha</t>
+        </is>
+      </c>
+      <c r="C1154" t="n">
+        <v>34500000000</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>351</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1155" t="n">
+        <v>13500000000</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>304</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Hunian Nyaman Dalam Cluster Private Jagakarsa | Lokasi Favorit Jaksel</t>
+        </is>
+      </c>
+      <c r="C1156" t="n">
+        <v>6950000000</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>322</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Rumah Bagus Siap Huni di Area Pakubuwono Kebayoran Baru</t>
+        </is>
+      </c>
+      <c r="C1157" t="n">
+        <v>27000000000</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>301</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>469</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Modern Siap Huni Lokasi Asri Dan Nyaman Tenang Dekat Sekolah Internasional Dan Dekat Kemang Raya Dan Dekat Kuningan Dan Kebayoran Baru Area Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1158" t="n">
+        <v>21000000000</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>630</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat MRT dan Dekat Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1159" t="n">
+        <v>42000000000</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>850</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>1925</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Murah Rumah Bangunan 1 Lantai Luas Tanah 1845 Meter Harga Murah Lokasi Prime Area Kuningan Dekat Menteng dan Sudirman dan Area Kedutaan dan Pejabat dan Pengusaha Dekat Mega Kuningan Area Kuningan Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1160" t="n">
+        <v>71900000000</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>882</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>1845</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Cantik Modern Murah Dalam Townhouse Area Ampera Jeruk Purut Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1161" t="n">
+        <v>6500000000</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>140</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat MRT dan Fatmawati dan Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1162" t="n">
+        <v>42000000000</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>850</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>1925</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran Dan Drkat Senayan Dan Dekat Gatot Subroto Dan Sudirman Dan Dekat Menteng Area Mentri Dan Pejabat Dan Perkantoran Dan Dekat Mall Dan Kedutaan Dan Area Mega Kuning</t>
+        </is>
+      </c>
+      <c r="C1163" t="n">
+        <v>49000000000</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>540</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Cantik Tanah Luas Lokasi Premium Dekat Kemang Raya dan Perbelanjaan dan Perkantoran dan Kuliner Area dan Dekat ke Kebayoran Baru Harga Murah Area Bangka Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1164" t="n">
+        <v>13000000000</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>696</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah Brand New Tropical Modern Kemang Lokasi Strategis Tanah Luas Parkiran Lebih Dari 10 Mobil Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat Kemang Raya Area Prime Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1165" t="n">
+        <v>62000000000</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>880</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Harga Murah Rumah Modern Cantik Asri Siap Huni Dalam Komplek Dekat MRT dan Fatmawati dan Cilandak Dekat MRT dan Tol Tb Simatupang dan Dekat Kuliner Rea Lebak Bulus Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1166" t="n">
+        <v>4990000000</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>187</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Rumah Lama Tanah Luas Harga Murah Lokasi Strategis Dekat Sekolah Internasional Prancis dan Kuliner dan MRT Cipete dan Dekat Kebayoran Baru dan Dekat Pondok Indah dan Kemang Area Cipete Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1167" t="n">
+        <v>13800000000</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>407</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>692</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Cantik Lokasi Strategis Dekat Kemang dan Pejaten dan Mampang Prapatan Area Kalibata Mampang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1168" t="n">
+        <v>13900000000</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>340</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1169" t="n">
+        <v>44000000000</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>627</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1170" t="n">
+        <v>31900000000</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>350</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1171" t="n">
+        <v>13000000000</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>696</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1171"/>
+  <dimension ref="A1:H1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30721,23 +30721,23 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>8800000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E1082" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F1082" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1082" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1082" t="n">
         <v>1</v>
@@ -30749,26 +30749,26 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>6000000000</v>
+        <v>52000000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>300</v>
+        <v>564</v>
       </c>
       <c r="E1083" t="n">
-        <v>200</v>
+        <v>726</v>
       </c>
       <c r="F1083" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1083" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1083" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1084">
@@ -30777,26 +30777,26 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
+          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>52000000000</v>
+        <v>28000000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>564</v>
+        <v>1000</v>
       </c>
       <c r="E1084" t="n">
-        <v>726</v>
+        <v>2500</v>
       </c>
       <c r="F1084" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1084" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1084" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -30805,26 +30805,26 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>28000000000</v>
+        <v>22500000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E1085" t="n">
-        <v>2500</v>
+        <v>248</v>
       </c>
       <c r="F1085" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1085" t="n">
         <v>6</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -30833,26 +30833,26 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>68000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1086" t="n">
-        <v>1600</v>
+        <v>183</v>
       </c>
       <c r="E1086" t="n">
-        <v>1050</v>
+        <v>149</v>
       </c>
       <c r="F1086" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1086" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1086" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -30861,26 +30861,26 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>22500000000</v>
+        <v>31500000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E1087" t="n">
-        <v>248</v>
+        <v>2620</v>
       </c>
       <c r="F1087" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1087" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1087" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1088">
@@ -30889,26 +30889,26 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>7000000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E1088" t="n">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="F1088" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1088" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -30917,26 +30917,26 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>31500000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E1089" t="n">
-        <v>2620</v>
+        <v>1343</v>
       </c>
       <c r="F1089" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1089" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1089" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1090">
@@ -30945,26 +30945,26 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>3750000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="E1090" t="n">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="F1090" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1090" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1090" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091">
@@ -30973,17 +30973,17 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>25000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>700</v>
+        <v>210</v>
       </c>
       <c r="E1091" t="n">
-        <v>1343</v>
+        <v>315</v>
       </c>
       <c r="F1091" t="n">
         <v>4</v>
@@ -30992,7 +30992,7 @@
         <v>3</v>
       </c>
       <c r="H1091" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -31001,23 +31001,23 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>6900000000</v>
+        <v>1650000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E1092" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F1092" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1092" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1092" t="n">
         <v>2</v>
@@ -31029,26 +31029,26 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>14000000000</v>
+        <v>3900000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E1093" t="n">
-        <v>315</v>
+        <v>170</v>
       </c>
       <c r="F1093" t="n">
         <v>4</v>
       </c>
       <c r="G1093" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1094">
@@ -31057,23 +31057,23 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>1650000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="E1094" t="n">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F1094" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1094" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1094" t="n">
         <v>2</v>
@@ -31085,26 +31085,26 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
+          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>3900000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="E1095" t="n">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="F1095" t="n">
         <v>4</v>
       </c>
       <c r="G1095" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1095" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096">
@@ -31113,23 +31113,23 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
+          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>3000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E1096" t="n">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="F1096" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1096" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1096" t="n">
         <v>2</v>
@@ -31141,23 +31141,23 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
+          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>1800000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1097" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E1097" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F1097" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1097" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1097" t="n">
         <v>2</v>
@@ -31169,23 +31169,23 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>2400000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1098" t="n">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E1098" t="n">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="F1098" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1098" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1098" t="n">
         <v>2</v>
@@ -31197,23 +31197,23 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>3850000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1099" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E1099" t="n">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="F1099" t="n">
         <v>5</v>
       </c>
       <c r="G1099" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1099" t="n">
         <v>2</v>
@@ -31225,7 +31225,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
         </is>
       </c>
       <c r="C1100" t="n">
@@ -31235,7 +31235,7 @@
         <v>180</v>
       </c>
       <c r="E1100" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1100" t="n">
         <v>5</v>
@@ -31253,20 +31253,20 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>3950000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E1101" t="n">
-        <v>162</v>
+        <v>446</v>
       </c>
       <c r="F1101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1101" t="n">
         <v>3</v>
@@ -31281,26 +31281,26 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>3950000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E1102" t="n">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="F1102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1103">
@@ -31309,26 +31309,26 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>11500000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1103" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E1103" t="n">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="F1103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1103" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1104">
@@ -31337,26 +31337,26 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>9500000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1104" t="n">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E1104" t="n">
-        <v>361</v>
+        <v>448</v>
       </c>
       <c r="F1104" t="n">
         <v>4</v>
       </c>
       <c r="G1104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105">
@@ -31365,26 +31365,26 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>35000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="D1105" t="n">
-        <v>650</v>
+        <v>1374</v>
       </c>
       <c r="E1105" t="n">
-        <v>406</v>
+        <v>1493</v>
       </c>
       <c r="F1105" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G1105" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H1105" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1106">
@@ -31393,17 +31393,17 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>30000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="D1106" t="n">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="E1106" t="n">
-        <v>448</v>
+        <v>899</v>
       </c>
       <c r="F1106" t="n">
         <v>4</v>
@@ -31412,7 +31412,7 @@
         <v>4</v>
       </c>
       <c r="H1106" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1107">
@@ -31421,26 +31421,26 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>26000000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1107" t="n">
-        <v>1374</v>
+        <v>520</v>
       </c>
       <c r="E1107" t="n">
-        <v>1493</v>
+        <v>720</v>
       </c>
       <c r="F1107" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G1107" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H1107" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1108">
@@ -31449,26 +31449,26 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>18000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1108" t="n">
-        <v>467</v>
+        <v>150</v>
       </c>
       <c r="E1108" t="n">
-        <v>899</v>
+        <v>300</v>
       </c>
       <c r="F1108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1108" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109">
@@ -31477,26 +31477,26 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru di Jagakarsa</t>
+          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>12500000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1109" t="n">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E1109" t="n">
-        <v>720</v>
+        <v>2028</v>
       </c>
       <c r="F1109" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1109" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1110">
@@ -31505,26 +31505,26 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>13000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1110" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E1110" t="n">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="F1110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -31533,26 +31533,26 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>27000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1111" t="n">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="E1111" t="n">
-        <v>2028</v>
+        <v>250</v>
       </c>
       <c r="F1111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -31561,23 +31561,23 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
+          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>2500000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1112" t="n">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="E1112" t="n">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="F1112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1112" t="n">
         <v>2</v>
@@ -31589,23 +31589,23 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>8000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1113" t="n">
-        <v>430</v>
+        <v>850</v>
       </c>
       <c r="E1113" t="n">
-        <v>250</v>
+        <v>384</v>
       </c>
       <c r="F1113" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1113" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1113" t="n">
         <v>3</v>
@@ -31617,23 +31617,23 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
+          <t>Siap Huni 4 Lantai Private Lift 500 Meter Tol Andara Kawasa Artis</t>
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>5500000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1114" t="n">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="E1114" t="n">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="F1114" t="n">
         <v>5</v>
       </c>
       <c r="G1114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1114" t="n">
         <v>2</v>
@@ -31645,26 +31645,26 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
+          <t>Rumah Mewah Prime Location Area Permata Hijau Harga Menarik</t>
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>14000000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1115" t="n">
-        <v>850</v>
+        <v>409</v>
       </c>
       <c r="E1115" t="n">
-        <v>384</v>
+        <v>520</v>
       </c>
       <c r="F1115" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1115" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H1115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116">
@@ -31673,17 +31673,17 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Siap Huni 4 Lantai Private Lift 500 Meter Tol Andara Kawasa Artis</t>
+          <t>Luxury House At West Jakarta Taman Palem Cengkareng</t>
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>4800000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1116" t="n">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="E1116" t="n">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="F1116" t="n">
         <v>5</v>
@@ -31701,26 +31701,26 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Rumah Mewah Prime Location Area Permata Hijau Harga Menarik</t>
+          <t>Pondok Indah - For Sale Rumah Modern Classic Di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>19000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1117" t="n">
-        <v>409</v>
+        <v>1000</v>
       </c>
       <c r="E1117" t="n">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="F1117" t="n">
         <v>5</v>
       </c>
       <c r="G1117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -31729,26 +31729,26 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Luxury House At West Jakarta Taman Palem Cengkareng</t>
+          <t>Jual Rumah Bagus SHM di Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>9000000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1118" t="n">
-        <v>440</v>
+        <v>1600</v>
       </c>
       <c r="E1118" t="n">
-        <v>202</v>
+        <v>1050</v>
       </c>
       <c r="F1118" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1118" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1119">
@@ -31757,26 +31757,26 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Pondok Indah - For Sale Rumah Modern Classic Di Jakarta Selatan</t>
+          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>45000000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1119" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="E1119" t="n">
-        <v>620</v>
+        <v>768</v>
       </c>
       <c r="F1119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1119" t="n">
         <v>5</v>
       </c>
       <c r="H1119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120">
@@ -31785,26 +31785,26 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Jual Rumah Bagus SHM di Pondok Indah Jakarta Selatan</t>
+          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>68000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1120" t="n">
-        <v>1600</v>
+        <v>380</v>
       </c>
       <c r="E1120" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="F1120" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1120" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1120" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -31813,17 +31813,17 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
+          <t>Rumah Rasa Villa Luas 2000M 6 Kamar Cipete Dekat Pondok Indah</t>
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>32000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1121" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="E1121" t="n">
-        <v>768</v>
+        <v>1925</v>
       </c>
       <c r="F1121" t="n">
         <v>6</v>
@@ -31832,7 +31832,7 @@
         <v>5</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1122">
@@ -31841,23 +31841,23 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>14000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1122" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E1122" t="n">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="F1122" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1122" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1122" t="n">
         <v>2</v>
@@ -31869,26 +31869,26 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Rumah Rasa Villa Luas 2000M 6 Kamar Cipete Dekat Pondok Indah</t>
+          <t>Rumah 2 Lantai di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>42000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1123" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="E1123" t="n">
-        <v>1925</v>
+        <v>1000</v>
       </c>
       <c r="F1123" t="n">
         <v>6</v>
       </c>
       <c r="G1123" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H1123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -31897,26 +31897,26 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+          <t>Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>6900000000</v>
+        <v>15800000000</v>
       </c>
       <c r="D1124" t="n">
-        <v>375</v>
+        <v>240</v>
       </c>
       <c r="E1124" t="n">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="F1124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1124" t="n">
         <v>4</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -31925,26 +31925,26 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai di Kemang Jakarta Selatan</t>
+          <t>Rumah Djual Dalam Cluster Dekat Cilandak Trakindo</t>
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>45000000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1125" t="n">
-        <v>1200</v>
+        <v>198</v>
       </c>
       <c r="E1125" t="n">
-        <v>1000</v>
+        <v>105</v>
       </c>
       <c r="F1125" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1125" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H1125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -31953,26 +31953,26 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
+          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>15800000000</v>
+        <v>17000000000</v>
       </c>
       <c r="D1126" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="E1126" t="n">
-        <v>310</v>
+        <v>1070</v>
       </c>
       <c r="F1126" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1127">
@@ -31981,26 +31981,26 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Rumah Djual Dalam Cluster Dekat Cilandak Trakindo</t>
+          <t>Rumah Besar Tebet Utara, Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>3750000000</v>
+        <v>9700000000</v>
       </c>
       <c r="D1127" t="n">
-        <v>198</v>
+        <v>430</v>
       </c>
       <c r="E1127" t="n">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="F1127" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128">
@@ -32009,26 +32009,26 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Dijual Cepat Rumah di Kemang Masih Sangat Terawat dan Bangunan Masih Bagus</t>
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>7090000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1128" t="n">
-        <v>375</v>
+        <v>700</v>
       </c>
       <c r="E1128" t="n">
-        <v>76</v>
+        <v>1250</v>
       </c>
       <c r="F1128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -32037,26 +32037,26 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
+          <t>Dijual Rumah Renovated Di Kemang, Dekat Kemang Dalam Lt 467m Hanya Rp 12 Milyar</t>
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>17000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1129" t="n">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="E1129" t="n">
-        <v>1070</v>
+        <v>467</v>
       </c>
       <c r="F1129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -32065,26 +32065,26 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Rumah Besar Tebet Utara, Jakarta Selatan.</t>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>9700000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1130" t="n">
-        <v>430</v>
+        <v>1200</v>
       </c>
       <c r="E1130" t="n">
-        <v>216</v>
+        <v>620</v>
       </c>
       <c r="F1130" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G1130" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H1130" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1131">
@@ -32093,26 +32093,26 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah di Kemang Masih Sangat Terawat dan Bangunan Masih Bagus</t>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>23000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1131" t="n">
         <v>700</v>
       </c>
       <c r="E1131" t="n">
-        <v>1250</v>
+        <v>960</v>
       </c>
       <c r="F1131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1131" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1132">
@@ -32121,26 +32121,26 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Dijual Rumah Renovated Di Kemang, Dekat Kemang Dalam Lt 467m Hanya Rp 12 Milyar</t>
+          <t>Dijual Murah 15Jt/M2 di Kemang.pejaten Barat Kemang. Rumah Model Bali Luas 4041M2 Siap Huni Hanya Rp 15Juta/M</t>
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>12000000000</v>
+        <v>60600000000</v>
       </c>
       <c r="D1132" t="n">
-        <v>580</v>
+        <v>1130</v>
       </c>
       <c r="E1132" t="n">
-        <v>467</v>
+        <v>4041</v>
       </c>
       <c r="F1132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1132" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1133">
@@ -32149,26 +32149,26 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>42000000000</v>
+        <v>40500000000</v>
       </c>
       <c r="D1133" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="E1133" t="n">
-        <v>620</v>
+        <v>534</v>
       </c>
       <c r="F1133" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G1133" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H1133" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1134">
@@ -32177,26 +32177,26 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>21000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1134" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E1134" t="n">
-        <v>960</v>
+        <v>550</v>
       </c>
       <c r="F1134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1134" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -32205,26 +32205,26 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>2600000000</v>
+        <v>61000000000</v>
       </c>
       <c r="D1135" t="n">
-        <v>88</v>
+        <v>900</v>
       </c>
       <c r="E1135" t="n">
-        <v>55</v>
+        <v>850</v>
       </c>
       <c r="F1135" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1135" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1136">
@@ -32233,26 +32233,26 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Dijual Murah 15Jt/M2 di Kemang.pejaten Barat Kemang. Rumah Model Bali Luas 4041M2 Siap Huni Hanya Rp 15Juta/M</t>
+          <t>Dijual Murah Hanya Rp 13Jt/M Rumah Lama di Kemang - Cipete, Luas 1153M Harga Rp 15 M</t>
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>60600000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1136" t="n">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="E1136" t="n">
-        <v>4041</v>
+        <v>1153</v>
       </c>
       <c r="F1136" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1136" t="n">
         <v>6</v>
-      </c>
-      <c r="G1136" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1136" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="1137">
@@ -32261,23 +32261,23 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+          <t>Dijual Cepat Mendekati NJOP Rumah di Pondok Indah (Dalam Portal) Luas 1235M2.hanya Rp.36.4jt/M</t>
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>40500000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1137" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="E1137" t="n">
-        <v>534</v>
+        <v>1235</v>
       </c>
       <c r="F1137" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1137" t="n">
         <v>4</v>
@@ -32289,26 +32289,26 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+          <t>Dijual Murah Area Senopati Rumah untuk Hunian / Kantor / Klinik / Usaha Luas 252M Jalan Lebar Rp 14 M</t>
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>12000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1138" t="n">
-        <v>600</v>
+        <v>195</v>
       </c>
       <c r="E1138" t="n">
-        <v>550</v>
+        <v>252</v>
       </c>
       <c r="F1138" t="n">
         <v>4</v>
       </c>
       <c r="G1138" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -32317,23 +32317,23 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Pondok Indah Luas 300M Hanya 13 M . Jalan Lebar dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>2830000000</v>
+        <v>12800000000</v>
       </c>
       <c r="D1139" t="n">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="E1139" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="F1139" t="n">
         <v>2</v>
       </c>
       <c r="G1139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1139" t="n">
         <v>1</v>
@@ -32345,26 +32345,26 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
+          <t>Dijua Murah Rumah Depan Taman di Kebayoran Baru. Luas 379M Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>61000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1140" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="E1140" t="n">
-        <v>850</v>
+        <v>379</v>
       </c>
       <c r="F1140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1140" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141">
@@ -32373,26 +32373,26 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Dijual Murah Hanya Rp 13Jt/M Rumah Lama di Kemang - Cipete, Luas 1153M Harga Rp 15 M</t>
+          <t>Dijual Cepat Rumah Lux di Mega Kuningan (Dalam Komplek) Luas.tanah 604M2 Rp 40 M Nego</t>
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>15000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="D1141" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E1141" t="n">
-        <v>1153</v>
+        <v>604</v>
       </c>
       <c r="F1141" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1141" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1142">
@@ -32401,26 +32401,26 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Dijual Cepat Mendekati NJOP Rumah di Pondok Indah (Dalam Portal) Luas 1235M2.hanya Rp.36.4jt/M</t>
+          <t>Dijual Murah Rumah di Kebayoran Baru. Lingkungan Seperti Komplek(Gated) . Jalan Lebar dan Tenang. Luas.293m Rp 15 M (Rp 51.1Jt/M Nego)</t>
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>45000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1142" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E1142" t="n">
-        <v>1235</v>
+        <v>293</v>
       </c>
       <c r="F1142" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1143">
@@ -32429,26 +32429,26 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>2600000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1143" t="n">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="E1143" t="n">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F1143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -32457,26 +32457,26 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Dijual Murah Area Senopati Rumah untuk Hunian / Kantor / Klinik / Usaha Luas 252M Jalan Lebar Rp 14 M</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>14000000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1144" t="n">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="E1144" t="n">
-        <v>252</v>
+        <v>696</v>
       </c>
       <c r="F1144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1144" t="n">
         <v>3</v>
       </c>
       <c r="H1144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1145">
@@ -32485,26 +32485,26 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300M Hanya 13 M . Jalan Lebar dan Tenang, Dalam Portal</t>
+          <t>Dijual Cepat Hunian Nyaman Dalam Cluster Private Jagakarsa | Lokasi Favorit Jaksel</t>
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>12800000000</v>
+        <v>6950000000</v>
       </c>
       <c r="D1145" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E1145" t="n">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="F1145" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146">
@@ -32513,26 +32513,26 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Dijua Murah Rumah Depan Taman di Kebayoran Baru. Luas 379M Lokasi Bagus</t>
+          <t>Rumah Bagus Siap Huni di Area Pakubuwono Kebayoran Baru</t>
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>21000000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1146" t="n">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="E1146" t="n">
-        <v>379</v>
+        <v>469</v>
       </c>
       <c r="F1146" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1146" t="n">
         <v>3</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1147">
@@ -32541,26 +32541,26 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Lux di Mega Kuningan (Dalam Komplek) Luas.tanah 604M2 Rp 40 M Nego</t>
+          <t>Dijual Rumah Modern Siap Huni Lokasi Asri Dan Nyaman Tenang Dekat Sekolah Internasional Dan Dekat Kemang Raya Dan Dekat Kuningan Dan Kebayoran Baru Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>40000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1147" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E1147" t="n">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="F1147" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1147" t="n">
         <v>5</v>
       </c>
       <c r="H1147" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1148">
@@ -32569,26 +32569,26 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Dijual Murah Rumah di Kebayoran Baru. Lingkungan Seperti Komplek(Gated) . Jalan Lebar dan Tenang. Luas.293m Rp 15 M (Rp 51.1Jt/M Nego)</t>
+          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat MRT dan Dekat Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>15000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1148" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="E1148" t="n">
-        <v>293</v>
+        <v>1925</v>
       </c>
       <c r="F1148" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1148" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1148" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1149">
@@ -32597,26 +32597,26 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Dijual Cepat Murah Rumah Bangunan 1 Lantai Luas Tanah 1845 Meter Harga Murah Lokasi Prime Area Kuningan Dekat Menteng dan Sudirman dan Area Kedutaan dan Pejabat dan Pengusaha Dekat Mega Kuningan Area Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>6900000000</v>
+        <v>71900000000</v>
       </c>
       <c r="D1149" t="n">
-        <v>375</v>
+        <v>882</v>
       </c>
       <c r="E1149" t="n">
-        <v>76</v>
+        <v>1845</v>
       </c>
       <c r="F1149" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1149" t="n">
         <v>4</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1150">
@@ -32625,17 +32625,17 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
+          <t>Dijual Rumah Cantik Modern Murah Dalam Townhouse Area Ampera Jeruk Purut Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>14500000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1150" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E1150" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="F1150" t="n">
         <v>3</v>
@@ -32644,7 +32644,7 @@
         <v>3</v>
       </c>
       <c r="H1150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151">
@@ -32653,26 +32653,26 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat MRT dan Fatmawati dan Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>13500000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1151" t="n">
-        <v>325</v>
+        <v>850</v>
       </c>
       <c r="E1151" t="n">
-        <v>696</v>
+        <v>1925</v>
       </c>
       <c r="F1151" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1151" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1151" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1152">
@@ -32681,26 +32681,26 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran Dan Drkat Senayan Dan Dekat Gatot Subroto Dan Sudirman Dan Dekat Menteng Area Mentri Dan Pejabat Dan Perkantoran Dan Dekat Mall Dan Kedutaan Dan Area Mega Kuning</t>
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>4800000000</v>
+        <v>49000000000</v>
       </c>
       <c r="D1152" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E1152" t="n">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="F1152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1153">
@@ -32709,26 +32709,26 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Jarang Ada Rumah Bagus Kemang Bangka Tanah 648</t>
+          <t>Dijual Cepat Rumah Cantik Tanah Luas Lokasi Premium Dekat Kemang Raya dan Perbelanjaan dan Perkantoran dan Kuliner Area dan Dekat ke Kebayoran Baru Harga Murah Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>10000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1153" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E1153" t="n">
-        <v>648</v>
+        <v>696</v>
       </c>
       <c r="F1153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1154">
@@ -32737,26 +32737,26 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Dijual Rumah Nol Jalan Raya Suryo Senopati Jakarta Selatan.cocok Untuk Tempat Usaha</t>
+          <t>For Sale Rumah Mewah Brand New Tropical Modern Kemang Lokasi Strategis Tanah Luas Parkiran Lebih Dari 10 Mobil Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat Kemang Raya Area Prime Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>34500000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1154" t="n">
-        <v>500</v>
+        <v>880</v>
       </c>
       <c r="E1154" t="n">
-        <v>351</v>
+        <v>1000</v>
       </c>
       <c r="F1154" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1154" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1154" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1155">
@@ -32765,23 +32765,23 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
+          <t>Dijual Cepat Harga Murah Rumah Modern Cantik Asri Siap Huni Dalam Komplek Dekat MRT dan Fatmawati dan Cilandak Dekat MRT dan Tol Tb Simatupang dan Dekat Kuliner Rea Lebak Bulus Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>13500000000</v>
+        <v>4990000000</v>
       </c>
       <c r="D1155" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E1155" t="n">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="F1155" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1155" t="n">
         <v>2</v>
@@ -32793,26 +32793,26 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Dijual Cepat Hunian Nyaman Dalam Cluster Private Jagakarsa | Lokasi Favorit Jaksel</t>
+          <t>Dijual Cepat Rumah Rumah Lama Tanah Luas Harga Murah Lokasi Strategis Dekat Sekolah Internasional Prancis dan Kuliner dan MRT Cipete dan Dekat Kebayoran Baru dan Dekat Pondok Indah dan Kemang Area Cipete Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>6950000000</v>
+        <v>13800000000</v>
       </c>
       <c r="D1156" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E1156" t="n">
-        <v>322</v>
+        <v>692</v>
       </c>
       <c r="F1156" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1156" t="n">
         <v>3</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1157">
@@ -32821,26 +32821,26 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Rumah Bagus Siap Huni di Area Pakubuwono Kebayoran Baru</t>
+          <t>Dijual Rumah Mewah Cantik Lokasi Strategis Dekat Kemang dan Pejaten dan Mampang Prapatan Area Kalibata Mampang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>27000000000</v>
+        <v>13900000000</v>
       </c>
       <c r="D1157" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="E1157" t="n">
-        <v>469</v>
+        <v>340</v>
       </c>
       <c r="F1157" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1157" t="n">
         <v>3</v>
       </c>
       <c r="H1157" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158">
@@ -32849,17 +32849,17 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Dijual Rumah Modern Siap Huni Lokasi Asri Dan Nyaman Tenang Dekat Sekolah Internasional Dan Dekat Kemang Raya Dan Dekat Kuningan Dan Kebayoran Baru Area Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>21000000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1158" t="n">
-        <v>600</v>
+        <v>1050</v>
       </c>
       <c r="E1158" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F1158" t="n">
         <v>5</v>
@@ -32868,7 +32868,7 @@
         <v>5</v>
       </c>
       <c r="H1158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1159">
@@ -32877,26 +32877,26 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat MRT dan Dekat Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>42000000000</v>
+        <v>31900000000</v>
       </c>
       <c r="D1159" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="E1159" t="n">
-        <v>1925</v>
+        <v>350</v>
       </c>
       <c r="F1159" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1159" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1160">
@@ -32905,26 +32905,26 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Dijual Cepat Murah Rumah Bangunan 1 Lantai Luas Tanah 1845 Meter Harga Murah Lokasi Prime Area Kuningan Dekat Menteng dan Sudirman dan Area Kedutaan dan Pejabat dan Pengusaha Dekat Mega Kuningan Area Kuningan Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>71900000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1160" t="n">
-        <v>882</v>
+        <v>325</v>
       </c>
       <c r="E1160" t="n">
-        <v>1845</v>
+        <v>696</v>
       </c>
       <c r="F1160" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1160" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1161">
@@ -32933,26 +32933,26 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Dijual Rumah Cantik Modern Murah Dalam Townhouse Area Ampera Jeruk Purut Jakarta Selatan</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>6500000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1161" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="E1161" t="n">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="F1161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -32961,26 +32961,26 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat MRT dan Fatmawati dan Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Pondok Indah Harga di Bawah NJOP</t>
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>42000000000</v>
+        <v>7500000000</v>
       </c>
       <c r="D1162" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="E1162" t="n">
-        <v>1925</v>
+        <v>246</v>
       </c>
       <c r="F1162" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1162" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1162" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163">
@@ -32989,26 +32989,26 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran Dan Drkat Senayan Dan Dekat Gatot Subroto Dan Sudirman Dan Dekat Menteng Area Mentri Dan Pejabat Dan Perkantoran Dan Dekat Mall Dan Kedutaan Dan Area Mega Kuning</t>
+          <t>Dijual Rumah 2 Lantai Murah Cilandak</t>
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>49000000000</v>
+        <v>7300000000</v>
       </c>
       <c r="D1163" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E1163" t="n">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="F1163" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164">
@@ -33017,26 +33017,26 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Cantik Tanah Luas Lokasi Premium Dekat Kemang Raya dan Perbelanjaan dan Perkantoran dan Kuliner Area dan Dekat ke Kebayoran Baru Harga Murah Area Bangka Kemang Jakarta Selatan</t>
+          <t>Harga dibawah 1 M - Rumah BRANDNEW di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>13000000000</v>
+        <v>998000000</v>
       </c>
       <c r="D1164" t="n">
-        <v>325</v>
+        <v>64</v>
       </c>
       <c r="E1164" t="n">
-        <v>696</v>
+        <v>32</v>
       </c>
       <c r="F1164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1164" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165">
@@ -33045,26 +33045,26 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Brand New Tropical Modern Kemang Lokasi Strategis Tanah Luas Parkiran Lebih Dari 10 Mobil Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat Kemang Raya Area Prime Kemang Jakarta Selatan</t>
+          <t>Rumah Area Senopati Dekat Sekali ke Scbd, Gunawarman, Pacific Place</t>
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>62000000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1165" t="n">
-        <v>880</v>
+        <v>232</v>
       </c>
       <c r="E1165" t="n">
-        <v>1000</v>
+        <v>284</v>
       </c>
       <c r="F1165" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1165" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1165" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166">
@@ -33073,26 +33073,26 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Dijual Cepat Harga Murah Rumah Modern Cantik Asri Siap Huni Dalam Komplek Dekat MRT dan Fatmawati dan Cilandak Dekat MRT dan Tol Tb Simatupang dan Dekat Kuliner Rea Lebak Bulus Jakarta Selatan</t>
+          <t>Rumah Tebet Strategis SHM Hadap Barat</t>
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>4990000000</v>
+        <v>6250000000</v>
       </c>
       <c r="D1166" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E1166" t="n">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F1166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -33101,26 +33101,26 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Rumah Lama Tanah Luas Harga Murah Lokasi Strategis Dekat Sekolah Internasional Prancis dan Kuliner dan MRT Cipete dan Dekat Kebayoran Baru dan Dekat Pondok Indah dan Kemang Area Cipete Jakarta Selatan</t>
+          <t>Dijual Kost Exlusive Tebet Cocok untuk Investasi Negotiable</t>
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>13800000000</v>
+        <v>7200000000</v>
       </c>
       <c r="D1167" t="n">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E1167" t="n">
-        <v>692</v>
+        <v>196</v>
       </c>
       <c r="F1167" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G1167" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H1167" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -33129,26 +33129,26 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Lokasi Strategis Dekat Kemang dan Pejaten dan Mampang Prapatan Area Kalibata Mampang Jakarta Selatan</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>13900000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1168" t="n">
-        <v>500</v>
+        <v>88</v>
       </c>
       <c r="E1168" t="n">
-        <v>340</v>
+        <v>55</v>
       </c>
       <c r="F1168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -33157,26 +33157,26 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+          <t>Rumah Modern di Kebayoran Baru Row Jalan Lebar Dekat ke Senayan</t>
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>44000000000</v>
+        <v>65000000000</v>
       </c>
       <c r="D1169" t="n">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="E1169" t="n">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="F1169" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1169" t="n">
         <v>5</v>
       </c>
       <c r="H1169" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170">
@@ -33185,26 +33185,26 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+          <t>Jual Cepat Rumah Bagus 534M2 di Bukit Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>31900000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1170" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="E1170" t="n">
-        <v>350</v>
+        <v>534</v>
       </c>
       <c r="F1170" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1170" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1170" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171">
@@ -33213,26 +33213,390 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+          <t>Murah! Townhouse Cantik Suralaya Residences A4 di Daerah Elit Kemang</t>
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>13000000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1171" t="n">
-        <v>325</v>
+        <v>928</v>
       </c>
       <c r="E1171" t="n">
-        <v>696</v>
+        <v>378</v>
       </c>
       <c r="F1171" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1172" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Siap Huni Di Kebayoran</t>
+        </is>
+      </c>
+      <c r="C1173" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>863</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Jarang Ada Rumah Bagus Kemang Bangka Tanah 648</t>
+        </is>
+      </c>
+      <c r="C1174" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>355</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>648</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1175" t="n">
+        <v>8800000000</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1176" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Langkah! Rumah Semi Furnish European Style Taman Palem Jakarta Barat</t>
+        </is>
+      </c>
+      <c r="C1177" t="n">
+        <v>9000000000</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1177" t="n">
         <v>7</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1178" t="n">
+        <v>68000000000</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Nol Jalan Raya Suryo Senopati Jakarta Selatan.cocok Untuk Tempat Usaha</t>
+        </is>
+      </c>
+      <c r="C1179" t="n">
+        <v>34500000000</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>351</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Dinual Rumah Pinggir Jalan Raya Petogogan Jaksel</t>
+        </is>
+      </c>
+      <c r="C1180" t="n">
+        <v>22000000000</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>182</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>290</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Brand New Modern Design Dalam Perumahan di Radio Dalam</t>
+        </is>
+      </c>
+      <c r="C1181" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>360</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>307</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
+        </is>
+      </c>
+      <c r="C1182" t="n">
+        <v>4800000000</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>150</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1183" t="n">
+        <v>13500000000</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>304</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
+        </is>
+      </c>
+      <c r="C1184" t="n">
+        <v>14500000000</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>240</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1184"/>
+  <dimension ref="A1:H1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28929,7 +28929,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1018" t="n">
@@ -28957,23 +28957,23 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>6900000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1019" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E1019" t="n">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F1019" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1019" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1019" t="n">
         <v>2</v>
@@ -28985,26 +28985,26 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
+          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>5700000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1020" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E1020" t="n">
-        <v>300</v>
+        <v>2448</v>
       </c>
       <c r="F1020" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1020" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1021">
@@ -29013,26 +29013,26 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
+          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>19000000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1021" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E1021" t="n">
-        <v>2448</v>
+        <v>150</v>
       </c>
       <c r="F1021" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1021" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1021" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
@@ -29041,26 +29041,26 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1022" t="n">
         <v>2750000000</v>
       </c>
       <c r="D1022" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E1022" t="n">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F1022" t="n">
         <v>5</v>
       </c>
       <c r="G1022" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1022" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023">
@@ -29069,20 +29069,20 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>2750000000</v>
+        <v>1830000000</v>
       </c>
       <c r="D1023" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="E1023" t="n">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F1023" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1023" t="n">
         <v>4</v>
@@ -29097,23 +29097,23 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>1830000000</v>
+        <v>5800000000</v>
       </c>
       <c r="D1024" t="n">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="E1024" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="F1024" t="n">
         <v>4</v>
       </c>
       <c r="G1024" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1024" t="n">
         <v>2</v>
@@ -29125,26 +29125,26 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
+          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>5800000000</v>
+        <v>6800000000</v>
       </c>
       <c r="D1025" t="n">
-        <v>206</v>
+        <v>360</v>
       </c>
       <c r="E1025" t="n">
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="F1025" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1025" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
@@ -29153,26 +29153,26 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
+          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>6800000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1026" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="E1026" t="n">
-        <v>475</v>
+        <v>127</v>
       </c>
       <c r="F1026" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1026" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1026" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027">
@@ -29181,26 +29181,26 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>3500000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1027" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="E1027" t="n">
-        <v>127</v>
+        <v>350</v>
       </c>
       <c r="F1027" t="n">
         <v>3</v>
       </c>
       <c r="G1027" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1028">
@@ -29209,26 +29209,26 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>15500000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1028" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="E1028" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="F1028" t="n">
         <v>3</v>
       </c>
       <c r="G1028" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029">
@@ -29237,23 +29237,23 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
+          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>7000000000</v>
+        <v>13700000000</v>
       </c>
       <c r="D1029" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="E1029" t="n">
-        <v>120</v>
+        <v>528</v>
       </c>
       <c r="F1029" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1029" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1029" t="n">
         <v>1</v>
@@ -29265,23 +29265,23 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
+          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>13700000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1030" t="n">
-        <v>520</v>
+        <v>270</v>
       </c>
       <c r="E1030" t="n">
-        <v>528</v>
+        <v>132</v>
       </c>
       <c r="F1030" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1030" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1030" t="n">
         <v>1</v>
@@ -29293,20 +29293,20 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
+          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>5750000000</v>
+        <v>16500000000</v>
       </c>
       <c r="D1031" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="E1031" t="n">
-        <v>132</v>
+        <v>502</v>
       </c>
       <c r="F1031" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1031" t="n">
         <v>4</v>
@@ -29321,20 +29321,20 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
+          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>16500000000</v>
+        <v>5000000000</v>
       </c>
       <c r="D1032" t="n">
         <v>350</v>
       </c>
       <c r="E1032" t="n">
-        <v>502</v>
+        <v>220</v>
       </c>
       <c r="F1032" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1032" t="n">
         <v>4</v>
@@ -29349,23 +29349,23 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
+          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>5000000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1033" t="n">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="E1033" t="n">
-        <v>220</v>
+        <v>496</v>
       </c>
       <c r="F1033" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1033" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1033" t="n">
         <v>1</v>
@@ -29377,26 +29377,26 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
+          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>13500000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1034" t="n">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="E1034" t="n">
-        <v>496</v>
+        <v>432</v>
       </c>
       <c r="F1034" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1034" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1035">
@@ -29405,26 +29405,26 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
+          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>7000000000</v>
+        <v>1390000000</v>
       </c>
       <c r="D1035" t="n">
-        <v>432</v>
+        <v>90</v>
       </c>
       <c r="E1035" t="n">
-        <v>432</v>
+        <v>125</v>
       </c>
       <c r="F1035" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1035" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1035" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036">
@@ -29433,23 +29433,23 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
+          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>1390000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1036" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="E1036" t="n">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F1036" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1036" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1036" t="n">
         <v>2</v>
@@ -29461,26 +29461,26 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
+          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>3500000000</v>
+        <v>1170000000</v>
       </c>
       <c r="D1037" t="n">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="E1037" t="n">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="F1037" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1037" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038">
@@ -29489,26 +29489,26 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>1170000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1038" t="n">
-        <v>56</v>
+        <v>720</v>
       </c>
       <c r="E1038" t="n">
-        <v>29</v>
+        <v>634</v>
       </c>
       <c r="F1038" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1038" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1039">
@@ -29517,26 +29517,26 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
+          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>44000000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1039" t="n">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="E1039" t="n">
-        <v>634</v>
+        <v>518</v>
       </c>
       <c r="F1039" t="n">
         <v>4</v>
       </c>
       <c r="G1039" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1039" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -29545,26 +29545,26 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
+          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>22000000000</v>
+        <v>79900000000</v>
       </c>
       <c r="D1040" t="n">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="E1040" t="n">
-        <v>518</v>
+        <v>1026</v>
       </c>
       <c r="F1040" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1040" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1041">
@@ -29573,26 +29573,26 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
+          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>79900000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D1041" t="n">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="E1041" t="n">
-        <v>1026</v>
+        <v>127</v>
       </c>
       <c r="F1041" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G1041" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1041" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -29601,20 +29601,20 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
+          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>2000000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1042" t="n">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="E1042" t="n">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F1042" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1042" t="n">
         <v>4</v>
@@ -29629,17 +29629,17 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>3850000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1043" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E1043" t="n">
-        <v>102</v>
+        <v>1225</v>
       </c>
       <c r="F1043" t="n">
         <v>5</v>
@@ -29648,7 +29648,7 @@
         <v>4</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1044">
@@ -29657,26 +29657,26 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>45000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>1800</v>
+        <v>375</v>
       </c>
       <c r="E1044" t="n">
-        <v>1225</v>
+        <v>76</v>
       </c>
       <c r="F1044" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1044" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1044" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,26 +29685,26 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>7090000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="E1045" t="n">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="F1045" t="n">
         <v>3</v>
       </c>
       <c r="G1045" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -29713,26 +29713,26 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>2500000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>185</v>
+        <v>720</v>
       </c>
       <c r="E1046" t="n">
-        <v>128</v>
+        <v>634</v>
       </c>
       <c r="F1046" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1046" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1047">
@@ -29741,26 +29741,26 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>41900000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>720</v>
+        <v>180</v>
       </c>
       <c r="E1047" t="n">
-        <v>634</v>
+        <v>279</v>
       </c>
       <c r="F1047" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1047" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1047" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048">
@@ -29769,17 +29769,17 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>5750000000</v>
+        <v>1950000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E1048" t="n">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="F1048" t="n">
         <v>3</v>
@@ -29788,7 +29788,7 @@
         <v>3</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -29797,17 +29797,17 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>1950000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="E1049" t="n">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="F1049" t="n">
         <v>3</v>
@@ -29816,7 +29816,7 @@
         <v>3</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -29825,26 +29825,26 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>2600000000</v>
+        <v>12200000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="E1050" t="n">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="F1050" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1050" t="n">
         <v>3</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051">
@@ -29853,26 +29853,26 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
+          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>12200000000</v>
+        <v>47000000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="E1051" t="n">
-        <v>309</v>
+        <v>810</v>
       </c>
       <c r="F1051" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1051" t="n">
         <v>6</v>
       </c>
-      <c r="G1051" t="n">
-        <v>3</v>
-      </c>
       <c r="H1051" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052">
@@ -29881,23 +29881,23 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>47000000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>1000</v>
+        <v>112</v>
       </c>
       <c r="E1052" t="n">
-        <v>810</v>
+        <v>70</v>
       </c>
       <c r="F1052" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1052" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1052" t="n">
         <v>2</v>
@@ -29909,23 +29909,23 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>2830000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E1053" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F1053" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1053" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1053" t="n">
         <v>2</v>
@@ -29937,26 +29937,26 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
+          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>2400000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>109</v>
+        <v>350</v>
       </c>
       <c r="E1054" t="n">
-        <v>50</v>
+        <v>1070</v>
       </c>
       <c r="F1054" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1054" t="n">
         <v>3</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055">
@@ -29965,26 +29965,26 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>19000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1055" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="E1055" t="n">
-        <v>1070</v>
+        <v>117</v>
       </c>
       <c r="F1055" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1055" t="n">
         <v>3</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -29993,23 +29993,23 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>2400000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1056" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E1056" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F1056" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1056" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1056" t="n">
         <v>2</v>
@@ -30021,26 +30021,26 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
+          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>1800000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>135</v>
+        <v>280</v>
       </c>
       <c r="E1057" t="n">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="F1057" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1057" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -30049,23 +30049,23 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
+          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>2500000000</v>
+        <v>1970000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="E1058" t="n">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="F1058" t="n">
         <v>3</v>
       </c>
       <c r="G1058" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1058" t="n">
         <v>1</v>
@@ -30077,26 +30077,26 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
+          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>1970000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E1059" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F1059" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1059" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -30105,26 +30105,26 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
+          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>1900000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E1060" t="n">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="F1060" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1060" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -30133,23 +30133,23 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
+          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>2500000000</v>
+        <v>4500000000</v>
       </c>
       <c r="D1061" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E1061" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F1061" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1061" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1061" t="n">
         <v>1</v>
@@ -30161,26 +30161,26 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
+          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>4500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1062" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1062" t="n">
         <v>250</v>
       </c>
-      <c r="E1062" t="n">
-        <v>150</v>
-      </c>
       <c r="F1062" t="n">
         <v>5</v>
       </c>
       <c r="G1062" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -30189,26 +30189,26 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
+          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>6900000000</v>
+        <v>7890000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E1063" t="n">
-        <v>250</v>
+        <v>404</v>
       </c>
       <c r="F1063" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1063" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1064">
@@ -30217,14 +30217,14 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>7890000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1064" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E1064" t="n">
         <v>404</v>
@@ -30245,26 +30245,26 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>7800000000</v>
+        <v>39900000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>300</v>
+        <v>796</v>
       </c>
       <c r="E1065" t="n">
-        <v>404</v>
+        <v>864</v>
       </c>
       <c r="F1065" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1065" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1065" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1066">
@@ -30273,26 +30273,26 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>39900000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>796</v>
+        <v>650</v>
       </c>
       <c r="E1066" t="n">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="F1066" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1066" t="n">
         <v>5</v>
       </c>
       <c r="H1066" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1067">
@@ -30301,17 +30301,17 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>22000000000</v>
+        <v>53500000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>650</v>
+        <v>452</v>
       </c>
       <c r="E1067" t="n">
-        <v>854</v>
+        <v>1165</v>
       </c>
       <c r="F1067" t="n">
         <v>6</v>
@@ -30320,7 +30320,7 @@
         <v>5</v>
       </c>
       <c r="H1067" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1068">
@@ -30329,26 +30329,26 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>53500000000</v>
+        <v>34900000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>452</v>
+        <v>800</v>
       </c>
       <c r="E1068" t="n">
-        <v>1165</v>
+        <v>538</v>
       </c>
       <c r="F1068" t="n">
         <v>6</v>
       </c>
       <c r="G1068" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1068" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1069">
@@ -30357,20 +30357,20 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>34900000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E1069" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F1069" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1069" t="n">
         <v>4</v>
@@ -30385,17 +30385,17 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>48000000000</v>
+        <v>55000000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E1070" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="F1070" t="n">
         <v>4</v>
@@ -30404,7 +30404,7 @@
         <v>4</v>
       </c>
       <c r="H1070" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1071">
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>55000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="E1071" t="n">
-        <v>500</v>
+        <v>106</v>
       </c>
       <c r="F1071" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1071" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1071" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,17 +30441,17 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>1500000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="E1072" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F1072" t="n">
         <v>2</v>
@@ -30460,7 +30460,7 @@
         <v>1</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -30469,23 +30469,23 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>2400000000</v>
+        <v>3600000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="E1073" t="n">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="F1073" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1073" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1073" t="n">
         <v>1</v>
@@ -30497,23 +30497,23 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>3600000000</v>
+        <v>3700000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E1074" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1074" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1074" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1074" t="n">
         <v>1</v>
@@ -30525,17 +30525,17 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>3700000000</v>
+        <v>7900000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E1075" t="n">
-        <v>143</v>
+        <v>682</v>
       </c>
       <c r="F1075" t="n">
         <v>5</v>
@@ -30544,7 +30544,7 @@
         <v>4</v>
       </c>
       <c r="H1075" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -30553,26 +30553,26 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>7900000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>400</v>
+        <v>810</v>
       </c>
       <c r="E1076" t="n">
-        <v>682</v>
+        <v>338</v>
       </c>
       <c r="F1076" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1076" t="n">
         <v>4</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077">
@@ -30581,26 +30581,26 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>48000000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>810</v>
+        <v>2000</v>
       </c>
       <c r="E1077" t="n">
-        <v>338</v>
+        <v>670</v>
       </c>
       <c r="F1077" t="n">
         <v>4</v>
       </c>
       <c r="G1077" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,26 +30609,26 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>62000000000</v>
+        <v>46000000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>2000</v>
+        <v>871</v>
       </c>
       <c r="E1078" t="n">
-        <v>670</v>
+        <v>317</v>
       </c>
       <c r="F1078" t="n">
         <v>4</v>
       </c>
       <c r="G1078" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1078" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079">
@@ -30637,26 +30637,26 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>2025 Modern House Kebayoran Baru For Sale</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>46000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>871</v>
+        <v>75</v>
       </c>
       <c r="E1079" t="n">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="F1079" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1079" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -30665,23 +30665,23 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>1500000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="E1080" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="F1080" t="n">
         <v>3</v>
       </c>
       <c r="G1080" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1080" t="n">
         <v>1</v>
@@ -30693,23 +30693,23 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>5700000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E1081" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F1081" t="n">
         <v>3</v>
       </c>
       <c r="G1081" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1081" t="n">
         <v>1</v>
@@ -30721,26 +30721,26 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>6000000000</v>
+        <v>52000000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>300</v>
+        <v>564</v>
       </c>
       <c r="E1082" t="n">
-        <v>200</v>
+        <v>726</v>
       </c>
       <c r="F1082" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1082" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1082" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1083">
@@ -30749,26 +30749,26 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
+          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>52000000000</v>
+        <v>28000000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>564</v>
+        <v>1000</v>
       </c>
       <c r="E1083" t="n">
-        <v>726</v>
+        <v>2500</v>
       </c>
       <c r="F1083" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1083" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1083" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084">
@@ -30777,26 +30777,26 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>28000000000</v>
+        <v>22500000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E1084" t="n">
-        <v>2500</v>
+        <v>248</v>
       </c>
       <c r="F1084" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1084" t="n">
         <v>6</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -30805,26 +30805,26 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>22500000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>500</v>
+        <v>183</v>
       </c>
       <c r="E1085" t="n">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="F1085" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1085" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -30833,26 +30833,26 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>7000000000</v>
+        <v>31500000000</v>
       </c>
       <c r="D1086" t="n">
-        <v>183</v>
+        <v>400</v>
       </c>
       <c r="E1086" t="n">
-        <v>149</v>
+        <v>2620</v>
       </c>
       <c r="F1086" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1086" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1087">
@@ -30861,17 +30861,17 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>31500000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="E1087" t="n">
-        <v>2620</v>
+        <v>300</v>
       </c>
       <c r="F1087" t="n">
         <v>3</v>
@@ -30880,7 +30880,7 @@
         <v>2</v>
       </c>
       <c r="H1087" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088">
@@ -30889,26 +30889,26 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>3750000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="E1088" t="n">
-        <v>300</v>
+        <v>1343</v>
       </c>
       <c r="F1088" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1088" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1089">
@@ -30917,26 +30917,26 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>25000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="E1089" t="n">
-        <v>1343</v>
+        <v>76</v>
       </c>
       <c r="F1089" t="n">
         <v>4</v>
       </c>
       <c r="G1089" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1089" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -30945,23 +30945,23 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>6900000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>375</v>
+        <v>210</v>
       </c>
       <c r="E1090" t="n">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="F1090" t="n">
         <v>4</v>
       </c>
       <c r="G1090" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1090" t="n">
         <v>2</v>
@@ -30973,20 +30973,20 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>14000000000</v>
+        <v>1650000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="E1091" t="n">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="F1091" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1091" t="n">
         <v>3</v>
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>1650000000</v>
+        <v>3900000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="E1092" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F1092" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1092" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,26 +31029,26 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
+          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>3900000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="E1093" t="n">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="F1093" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1093" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1093" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -31057,23 +31057,23 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
+          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>3000000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="E1094" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F1094" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1094" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1094" t="n">
         <v>2</v>
@@ -31085,23 +31085,23 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
+          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>1800000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E1095" t="n">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="F1095" t="n">
         <v>4</v>
       </c>
       <c r="G1095" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1095" t="n">
         <v>2</v>
@@ -31113,20 +31113,20 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
+          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>2400000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="E1096" t="n">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="F1096" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1096" t="n">
         <v>4</v>
@@ -31141,23 +31141,23 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>3850000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1097" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E1097" t="n">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="F1097" t="n">
         <v>5</v>
       </c>
       <c r="G1097" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1097" t="n">
         <v>2</v>
@@ -31169,7 +31169,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
         </is>
       </c>
       <c r="C1098" t="n">
@@ -31179,7 +31179,7 @@
         <v>180</v>
       </c>
       <c r="E1098" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1098" t="n">
         <v>5</v>
@@ -31197,7 +31197,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
         </is>
       </c>
       <c r="C1099" t="n">
@@ -31225,20 +31225,20 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>3950000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1100" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E1100" t="n">
-        <v>162</v>
+        <v>446</v>
       </c>
       <c r="F1100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1100" t="n">
         <v>3</v>
@@ -31253,26 +31253,26 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>11500000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E1101" t="n">
-        <v>446</v>
+        <v>361</v>
       </c>
       <c r="F1101" t="n">
         <v>4</v>
       </c>
       <c r="G1101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1102">
@@ -31281,26 +31281,26 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>9500000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E1102" t="n">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="F1102" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1103">
@@ -31309,26 +31309,26 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>35000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1103" t="n">
-        <v>650</v>
+        <v>274</v>
       </c>
       <c r="E1103" t="n">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="F1103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -31337,26 +31337,26 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>30000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="D1104" t="n">
-        <v>274</v>
+        <v>1374</v>
       </c>
       <c r="E1104" t="n">
-        <v>448</v>
+        <v>1493</v>
       </c>
       <c r="F1104" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1104" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H1104" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1105">
@@ -31365,26 +31365,26 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>26000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="D1105" t="n">
-        <v>1374</v>
+        <v>467</v>
       </c>
       <c r="E1105" t="n">
-        <v>1493</v>
+        <v>899</v>
       </c>
       <c r="F1105" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1105" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H1105" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1106">
@@ -31393,26 +31393,26 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>18000000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1106" t="n">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="E1106" t="n">
-        <v>899</v>
+        <v>720</v>
       </c>
       <c r="F1106" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1106" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1107">
@@ -31421,26 +31421,26 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru di Jagakarsa</t>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>12500000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1107" t="n">
-        <v>520</v>
+        <v>150</v>
       </c>
       <c r="E1107" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="F1107" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G1107" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1107" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108">
@@ -31449,26 +31449,26 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>13000000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1108" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="E1108" t="n">
-        <v>300</v>
+        <v>2028</v>
       </c>
       <c r="F1108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1109">
@@ -31477,26 +31477,26 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>27000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1109" t="n">
-        <v>550</v>
+        <v>185</v>
       </c>
       <c r="E1109" t="n">
-        <v>2028</v>
+        <v>128</v>
       </c>
       <c r="F1109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1109" t="n">
         <v>4</v>
       </c>
       <c r="H1109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110">
@@ -31505,26 +31505,26 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>2500000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1110" t="n">
-        <v>185</v>
+        <v>430</v>
       </c>
       <c r="E1110" t="n">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="F1110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -31533,17 +31533,17 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>8000000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1111" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="E1111" t="n">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="F1111" t="n">
         <v>5</v>
@@ -31552,7 +31552,7 @@
         <v>5</v>
       </c>
       <c r="H1111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112">
@@ -31561,26 +31561,26 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
+          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>5500000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1112" t="n">
-        <v>320</v>
+        <v>850</v>
       </c>
       <c r="E1112" t="n">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="F1112" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1112" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -31589,26 +31589,26 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
+          <t>Siap Huni 4 Lantai Private Lift 500 Meter Tol Andara Kawasa Artis</t>
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>14000000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1113" t="n">
-        <v>850</v>
+        <v>258</v>
       </c>
       <c r="E1113" t="n">
-        <v>384</v>
+        <v>108</v>
       </c>
       <c r="F1113" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1113" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H1113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -31617,26 +31617,26 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Siap Huni 4 Lantai Private Lift 500 Meter Tol Andara Kawasa Artis</t>
+          <t>Rumah Mewah Prime Location Area Permata Hijau Harga Menarik</t>
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>4800000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1114" t="n">
-        <v>258</v>
+        <v>409</v>
       </c>
       <c r="E1114" t="n">
-        <v>108</v>
+        <v>520</v>
       </c>
       <c r="F1114" t="n">
         <v>5</v>
       </c>
       <c r="G1114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115">
@@ -31645,26 +31645,26 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Rumah Mewah Prime Location Area Permata Hijau Harga Menarik</t>
+          <t>Luxury House At West Jakarta Taman Palem Cengkareng</t>
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>19000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1115" t="n">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="E1115" t="n">
-        <v>520</v>
+        <v>202</v>
       </c>
       <c r="F1115" t="n">
         <v>5</v>
       </c>
       <c r="G1115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -31673,26 +31673,26 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Luxury House At West Jakarta Taman Palem Cengkareng</t>
+          <t>Pondok Indah - For Sale Rumah Modern Classic Di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>9000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1116" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="E1116" t="n">
-        <v>202</v>
+        <v>620</v>
       </c>
       <c r="F1116" t="n">
         <v>5</v>
       </c>
       <c r="G1116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -31701,26 +31701,26 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Pondok Indah - For Sale Rumah Modern Classic Di Jakarta Selatan</t>
+          <t>Jual Rumah Bagus SHM di Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>45000000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1117" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E1117" t="n">
-        <v>620</v>
+        <v>1050</v>
       </c>
       <c r="F1117" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1117" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1117" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1118">
@@ -31729,26 +31729,26 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Jual Rumah Bagus SHM di Pondok Indah Jakarta Selatan</t>
+          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>68000000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1118" t="n">
-        <v>1600</v>
+        <v>825</v>
       </c>
       <c r="E1118" t="n">
-        <v>1050</v>
+        <v>768</v>
       </c>
       <c r="F1118" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1118" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1118" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119">
@@ -31757,23 +31757,23 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
+          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>32000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1119" t="n">
-        <v>825</v>
+        <v>380</v>
       </c>
       <c r="E1119" t="n">
-        <v>768</v>
+        <v>300</v>
       </c>
       <c r="F1119" t="n">
         <v>6</v>
       </c>
       <c r="G1119" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1119" t="n">
         <v>2</v>
@@ -31785,26 +31785,26 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
+          <t>Rumah Rasa Villa Luas 2000M 6 Kamar Cipete Dekat Pondok Indah</t>
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>14000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1120" t="n">
-        <v>380</v>
+        <v>850</v>
       </c>
       <c r="E1120" t="n">
-        <v>300</v>
+        <v>1925</v>
       </c>
       <c r="F1120" t="n">
         <v>6</v>
       </c>
       <c r="G1120" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1121">
@@ -31813,26 +31813,26 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Rumah Rasa Villa Luas 2000M 6 Kamar Cipete Dekat Pondok Indah</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>42000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1121" t="n">
-        <v>850</v>
+        <v>375</v>
       </c>
       <c r="E1121" t="n">
-        <v>1925</v>
+        <v>76</v>
       </c>
       <c r="F1121" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1121" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1121" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1122">
@@ -31841,26 +31841,26 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+          <t>Rumah 2 Lantai di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>6900000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1122" t="n">
-        <v>375</v>
+        <v>1200</v>
       </c>
       <c r="E1122" t="n">
-        <v>76</v>
+        <v>1000</v>
       </c>
       <c r="F1122" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1122" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -31869,23 +31869,23 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai di Kemang Jakarta Selatan</t>
+          <t>Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>45000000000</v>
+        <v>15800000000</v>
       </c>
       <c r="D1123" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="E1123" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="F1123" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1123" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H1123" t="n">
         <v>1</v>
@@ -31897,26 +31897,26 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
+          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>15800000000</v>
+        <v>17000000000</v>
       </c>
       <c r="D1124" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="E1124" t="n">
-        <v>310</v>
+        <v>1070</v>
       </c>
       <c r="F1124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1125">
@@ -31925,26 +31925,26 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Rumah Djual Dalam Cluster Dekat Cilandak Trakindo</t>
+          <t>Rumah Besar Tebet Utara, Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>3750000000</v>
+        <v>9700000000</v>
       </c>
       <c r="D1125" t="n">
-        <v>198</v>
+        <v>430</v>
       </c>
       <c r="E1125" t="n">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="F1125" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1125" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126">
@@ -31953,17 +31953,17 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah di Kemang Masih Sangat Terawat dan Bangunan Masih Bagus</t>
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>17000000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1126" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="E1126" t="n">
-        <v>1070</v>
+        <v>1250</v>
       </c>
       <c r="F1126" t="n">
         <v>4</v>
@@ -31972,7 +31972,7 @@
         <v>3</v>
       </c>
       <c r="H1126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
@@ -31981,26 +31981,26 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Rumah Besar Tebet Utara, Jakarta Selatan.</t>
+          <t>Dijual Rumah Renovated Di Kemang, Dekat Kemang Dalam Lt 467m Hanya Rp 12 Milyar</t>
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>9700000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1127" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="E1127" t="n">
-        <v>216</v>
+        <v>467</v>
       </c>
       <c r="F1127" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -32009,26 +32009,26 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah di Kemang Masih Sangat Terawat dan Bangunan Masih Bagus</t>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>23000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1128" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E1128" t="n">
-        <v>1250</v>
+        <v>620</v>
       </c>
       <c r="F1128" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G1128" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H1128" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1129">
@@ -32037,17 +32037,17 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Dijual Rumah Renovated Di Kemang, Dekat Kemang Dalam Lt 467m Hanya Rp 12 Milyar</t>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>12000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1129" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="E1129" t="n">
-        <v>467</v>
+        <v>960</v>
       </c>
       <c r="F1129" t="n">
         <v>5</v>
@@ -32056,7 +32056,7 @@
         <v>4</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1130">
@@ -32065,26 +32065,26 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+          <t>Dijual Murah 15Jt/M2 di Kemang.pejaten Barat Kemang. Rumah Model Bali Luas 4041M2 Siap Huni Hanya Rp 15Juta/M</t>
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>42000000000</v>
+        <v>60600000000</v>
       </c>
       <c r="D1130" t="n">
-        <v>1200</v>
+        <v>1130</v>
       </c>
       <c r="E1130" t="n">
-        <v>620</v>
+        <v>4041</v>
       </c>
       <c r="F1130" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G1130" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1130" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1131">
@@ -32093,26 +32093,26 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>21000000000</v>
+        <v>40500000000</v>
       </c>
       <c r="D1131" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="E1131" t="n">
-        <v>960</v>
+        <v>534</v>
       </c>
       <c r="F1131" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1131" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1132">
@@ -32121,26 +32121,26 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Dijual Murah 15Jt/M2 di Kemang.pejaten Barat Kemang. Rumah Model Bali Luas 4041M2 Siap Huni Hanya Rp 15Juta/M</t>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>60600000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1132" t="n">
-        <v>1130</v>
+        <v>600</v>
       </c>
       <c r="E1132" t="n">
-        <v>4041</v>
+        <v>550</v>
       </c>
       <c r="F1132" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1132" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1132" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133">
@@ -32149,26 +32149,26 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>40500000000</v>
+        <v>61000000000</v>
       </c>
       <c r="D1133" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="E1133" t="n">
-        <v>534</v>
+        <v>850</v>
       </c>
       <c r="F1133" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1134">
@@ -32177,26 +32177,26 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+          <t>Dijual Murah Hanya Rp 13Jt/M Rumah Lama di Kemang - Cipete, Luas 1153M Harga Rp 15 M</t>
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>12000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1134" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E1134" t="n">
-        <v>550</v>
+        <v>1153</v>
       </c>
       <c r="F1134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1135">
@@ -32205,26 +32205,26 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
+          <t>Dijual Cepat Mendekati NJOP Rumah di Pondok Indah (Dalam Portal) Luas 1235M2.hanya Rp.36.4jt/M</t>
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>61000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1135" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E1135" t="n">
-        <v>850</v>
+        <v>1235</v>
       </c>
       <c r="F1135" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1135" t="n">
         <v>4</v>
       </c>
       <c r="H1135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1136">
@@ -32233,26 +32233,26 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Dijual Murah Hanya Rp 13Jt/M Rumah Lama di Kemang - Cipete, Luas 1153M Harga Rp 15 M</t>
+          <t>Dijual Murah Area Senopati Rumah untuk Hunian / Kantor / Klinik / Usaha Luas 252M Jalan Lebar Rp 14 M</t>
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>15000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1136" t="n">
-        <v>1000</v>
+        <v>195</v>
       </c>
       <c r="E1136" t="n">
-        <v>1153</v>
+        <v>252</v>
       </c>
       <c r="F1136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1136" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -32261,26 +32261,26 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Dijual Cepat Mendekati NJOP Rumah di Pondok Indah (Dalam Portal) Luas 1235M2.hanya Rp.36.4jt/M</t>
+          <t>Pondok Indah Luas 300M Hanya 13 M . Jalan Lebar dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>45000000000</v>
+        <v>12800000000</v>
       </c>
       <c r="D1137" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="E1137" t="n">
-        <v>1235</v>
+        <v>300</v>
       </c>
       <c r="F1137" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138">
@@ -32289,17 +32289,17 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Dijual Murah Area Senopati Rumah untuk Hunian / Kantor / Klinik / Usaha Luas 252M Jalan Lebar Rp 14 M</t>
+          <t>Dijua Murah Rumah Depan Taman di Kebayoran Baru. Luas 379M Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>14000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1138" t="n">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="E1138" t="n">
-        <v>252</v>
+        <v>379</v>
       </c>
       <c r="F1138" t="n">
         <v>4</v>
@@ -32308,7 +32308,7 @@
         <v>3</v>
       </c>
       <c r="H1138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139">
@@ -32317,26 +32317,26 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300M Hanya 13 M . Jalan Lebar dan Tenang, Dalam Portal</t>
+          <t>Dijual Cepat Rumah Lux di Mega Kuningan (Dalam Komplek) Luas.tanah 604M2 Rp 40 M Nego</t>
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>12800000000</v>
+        <v>40000000000</v>
       </c>
       <c r="D1139" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="E1139" t="n">
-        <v>300</v>
+        <v>604</v>
       </c>
       <c r="F1139" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G1139" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1140">
@@ -32345,17 +32345,17 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Dijua Murah Rumah Depan Taman di Kebayoran Baru. Luas 379M Lokasi Bagus</t>
+          <t>Dijual Murah Rumah di Kebayoran Baru. Lingkungan Seperti Komplek(Gated) . Jalan Lebar dan Tenang. Luas.293m Rp 15 M (Rp 51.1Jt/M Nego)</t>
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>21000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1140" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E1140" t="n">
-        <v>379</v>
+        <v>293</v>
       </c>
       <c r="F1140" t="n">
         <v>4</v>
@@ -32364,7 +32364,7 @@
         <v>3</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1141">
@@ -32373,26 +32373,26 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Lux di Mega Kuningan (Dalam Komplek) Luas.tanah 604M2 Rp 40 M Nego</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>40000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1141" t="n">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="E1141" t="n">
-        <v>604</v>
+        <v>76</v>
       </c>
       <c r="F1141" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -32401,26 +32401,26 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Dijual Murah Rumah di Kebayoran Baru. Lingkungan Seperti Komplek(Gated) . Jalan Lebar dan Tenang. Luas.293m Rp 15 M (Rp 51.1Jt/M Nego)</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>15000000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1142" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E1142" t="n">
-        <v>293</v>
+        <v>696</v>
       </c>
       <c r="F1142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1142" t="n">
         <v>3</v>
       </c>
       <c r="H1142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1143">
@@ -32429,23 +32429,23 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Dijual Cepat Hunian Nyaman Dalam Cluster Private Jagakarsa | Lokasi Favorit Jaksel</t>
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>6900000000</v>
+        <v>6950000000</v>
       </c>
       <c r="D1143" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="E1143" t="n">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="F1143" t="n">
         <v>4</v>
       </c>
       <c r="G1143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1143" t="n">
         <v>2</v>
@@ -32457,26 +32457,26 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Rumah Bagus Siap Huni di Area Pakubuwono Kebayoran Baru</t>
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>13500000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1144" t="n">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="E1144" t="n">
-        <v>696</v>
+        <v>469</v>
       </c>
       <c r="F1144" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1144" t="n">
         <v>3</v>
       </c>
       <c r="H1144" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1145">
@@ -32485,26 +32485,26 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Dijual Cepat Hunian Nyaman Dalam Cluster Private Jagakarsa | Lokasi Favorit Jaksel</t>
+          <t>Dijual Rumah Modern Siap Huni Lokasi Asri Dan Nyaman Tenang Dekat Sekolah Internasional Dan Dekat Kemang Raya Dan Dekat Kuningan Dan Kebayoran Baru Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>6950000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1145" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E1145" t="n">
-        <v>322</v>
+        <v>630</v>
       </c>
       <c r="F1145" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1145" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1146">
@@ -32513,26 +32513,26 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Rumah Bagus Siap Huni di Area Pakubuwono Kebayoran Baru</t>
+          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat MRT dan Dekat Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>27000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1146" t="n">
-        <v>301</v>
+        <v>850</v>
       </c>
       <c r="E1146" t="n">
-        <v>469</v>
+        <v>1925</v>
       </c>
       <c r="F1146" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1146" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1146" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1147">
@@ -32541,26 +32541,26 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Dijual Rumah Modern Siap Huni Lokasi Asri Dan Nyaman Tenang Dekat Sekolah Internasional Dan Dekat Kemang Raya Dan Dekat Kuningan Dan Kebayoran Baru Area Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Murah Rumah Bangunan 1 Lantai Luas Tanah 1845 Meter Harga Murah Lokasi Prime Area Kuningan Dekat Menteng dan Sudirman dan Area Kedutaan dan Pejabat dan Pengusaha Dekat Mega Kuningan Area Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>21000000000</v>
+        <v>71900000000</v>
       </c>
       <c r="D1147" t="n">
-        <v>600</v>
+        <v>882</v>
       </c>
       <c r="E1147" t="n">
-        <v>630</v>
+        <v>1845</v>
       </c>
       <c r="F1147" t="n">
         <v>5</v>
       </c>
       <c r="G1147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1148">
@@ -32569,26 +32569,26 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat MRT dan Dekat Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Rumah Cantik Modern Murah Dalam Townhouse Area Ampera Jeruk Purut Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>42000000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1148" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="E1148" t="n">
-        <v>1925</v>
+        <v>140</v>
       </c>
       <c r="F1148" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1148" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1148" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1149">
@@ -32597,26 +32597,26 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Dijual Cepat Murah Rumah Bangunan 1 Lantai Luas Tanah 1845 Meter Harga Murah Lokasi Prime Area Kuningan Dekat Menteng dan Sudirman dan Area Kedutaan dan Pejabat dan Pengusaha Dekat Mega Kuningan Area Kuningan Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat MRT dan Fatmawati dan Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>71900000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1149" t="n">
-        <v>882</v>
+        <v>850</v>
       </c>
       <c r="E1149" t="n">
-        <v>1845</v>
+        <v>1925</v>
       </c>
       <c r="F1149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1149" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1149" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1150">
@@ -32625,26 +32625,26 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Dijual Rumah Cantik Modern Murah Dalam Townhouse Area Ampera Jeruk Purut Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran Dan Drkat Senayan Dan Dekat Gatot Subroto Dan Sudirman Dan Dekat Menteng Area Mentri Dan Pejabat Dan Perkantoran Dan Dekat Mall Dan Kedutaan Dan Area Mega Kuning</t>
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>6500000000</v>
+        <v>49000000000</v>
       </c>
       <c r="D1150" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="E1150" t="n">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="F1150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1151">
@@ -32653,26 +32653,26 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat MRT dan Fatmawati dan Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Cantik Tanah Luas Lokasi Premium Dekat Kemang Raya dan Perbelanjaan dan Perkantoran dan Kuliner Area dan Dekat ke Kebayoran Baru Harga Murah Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>42000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1151" t="n">
-        <v>850</v>
+        <v>325</v>
       </c>
       <c r="E1151" t="n">
-        <v>1925</v>
+        <v>696</v>
       </c>
       <c r="F1151" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1151" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1151" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1152">
@@ -32681,26 +32681,26 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran Dan Drkat Senayan Dan Dekat Gatot Subroto Dan Sudirman Dan Dekat Menteng Area Mentri Dan Pejabat Dan Perkantoran Dan Dekat Mall Dan Kedutaan Dan Area Mega Kuning</t>
+          <t>For Sale Rumah Mewah Brand New Tropical Modern Kemang Lokasi Strategis Tanah Luas Parkiran Lebih Dari 10 Mobil Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat Kemang Raya Area Prime Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>49000000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1152" t="n">
-        <v>1100</v>
+        <v>880</v>
       </c>
       <c r="E1152" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="F1152" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1152" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1152" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1153">
@@ -32709,26 +32709,26 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Cantik Tanah Luas Lokasi Premium Dekat Kemang Raya dan Perbelanjaan dan Perkantoran dan Kuliner Area dan Dekat ke Kebayoran Baru Harga Murah Area Bangka Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Harga Murah Rumah Modern Cantik Asri Siap Huni Dalam Komplek Dekat MRT dan Fatmawati dan Cilandak Dekat MRT dan Tol Tb Simatupang dan Dekat Kuliner Rea Lebak Bulus Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>13000000000</v>
+        <v>4990000000</v>
       </c>
       <c r="D1153" t="n">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="E1153" t="n">
-        <v>696</v>
+        <v>187</v>
       </c>
       <c r="F1153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1153" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154">
@@ -32737,26 +32737,26 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Brand New Tropical Modern Kemang Lokasi Strategis Tanah Luas Parkiran Lebih Dari 10 Mobil Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat Kemang Raya Area Prime Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Rumah Lama Tanah Luas Harga Murah Lokasi Strategis Dekat Sekolah Internasional Prancis dan Kuliner dan MRT Cipete dan Dekat Kebayoran Baru dan Dekat Pondok Indah dan Kemang Area Cipete Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>62000000000</v>
+        <v>13800000000</v>
       </c>
       <c r="D1154" t="n">
-        <v>880</v>
+        <v>407</v>
       </c>
       <c r="E1154" t="n">
-        <v>1000</v>
+        <v>692</v>
       </c>
       <c r="F1154" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1154" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1154" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1155">
@@ -32765,23 +32765,23 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Dijual Cepat Harga Murah Rumah Modern Cantik Asri Siap Huni Dalam Komplek Dekat MRT dan Fatmawati dan Cilandak Dekat MRT dan Tol Tb Simatupang dan Dekat Kuliner Rea Lebak Bulus Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Cantik Lokasi Strategis Dekat Kemang dan Pejaten dan Mampang Prapatan Area Kalibata Mampang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>4990000000</v>
+        <v>13900000000</v>
       </c>
       <c r="D1155" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E1155" t="n">
-        <v>187</v>
+        <v>340</v>
       </c>
       <c r="F1155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1155" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1155" t="n">
         <v>2</v>
@@ -32793,26 +32793,26 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Rumah Lama Tanah Luas Harga Murah Lokasi Strategis Dekat Sekolah Internasional Prancis dan Kuliner dan MRT Cipete dan Dekat Kebayoran Baru dan Dekat Pondok Indah dan Kemang Area Cipete Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>13800000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1156" t="n">
-        <v>407</v>
+        <v>1050</v>
       </c>
       <c r="E1156" t="n">
-        <v>692</v>
+        <v>627</v>
       </c>
       <c r="F1156" t="n">
         <v>5</v>
       </c>
       <c r="G1156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1156" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1157">
@@ -32821,26 +32821,26 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Lokasi Strategis Dekat Kemang dan Pejaten dan Mampang Prapatan Area Kalibata Mampang Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>13900000000</v>
+        <v>31900000000</v>
       </c>
       <c r="D1157" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E1157" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F1157" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1158">
@@ -32849,26 +32849,26 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>44000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1158" t="n">
-        <v>1050</v>
+        <v>325</v>
       </c>
       <c r="E1158" t="n">
-        <v>627</v>
+        <v>696</v>
       </c>
       <c r="F1158" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1158" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1158" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1159">
@@ -32877,26 +32877,26 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>31900000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1159" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="E1159" t="n">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="F1159" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160">
@@ -32905,26 +32905,26 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+          <t>Pondok Indah Harga di Bawah NJOP</t>
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>13000000000</v>
+        <v>7500000000</v>
       </c>
       <c r="D1160" t="n">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="E1160" t="n">
-        <v>696</v>
+        <v>246</v>
       </c>
       <c r="F1160" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1160" t="n">
         <v>3</v>
       </c>
       <c r="H1160" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161">
@@ -32933,26 +32933,26 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Dijual Rumah 2 Lantai Murah Cilandak</t>
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>7090000000</v>
+        <v>7300000000</v>
       </c>
       <c r="D1161" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="E1161" t="n">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="F1161" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G1161" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162">
@@ -32961,23 +32961,23 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Pondok Indah Harga di Bawah NJOP</t>
+          <t>Harga dibawah 1 M - Rumah BRANDNEW di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>7500000000</v>
+        <v>998000000</v>
       </c>
       <c r="D1162" t="n">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="E1162" t="n">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="F1162" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1162" t="n">
         <v>1</v>
@@ -32989,26 +32989,26 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Dijual Rumah 2 Lantai Murah Cilandak</t>
+          <t>Rumah Area Senopati Dekat Sekali ke Scbd, Gunawarman, Pacific Place</t>
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>7300000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1163" t="n">
-        <v>600</v>
+        <v>232</v>
       </c>
       <c r="E1163" t="n">
-        <v>510</v>
+        <v>284</v>
       </c>
       <c r="F1163" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164">
@@ -33017,23 +33017,23 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Harga dibawah 1 M - Rumah BRANDNEW di Jakarta Selatan</t>
+          <t>Rumah Tebet Strategis SHM Hadap Barat</t>
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>998000000</v>
+        <v>6250000000</v>
       </c>
       <c r="D1164" t="n">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="E1164" t="n">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="F1164" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1164" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1164" t="n">
         <v>1</v>
@@ -33045,23 +33045,23 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Rumah Area Senopati Dekat Sekali ke Scbd, Gunawarman, Pacific Place</t>
+          <t>Dijual Kost Exlusive Tebet Cocok untuk Investasi Negotiable</t>
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>22000000000</v>
+        <v>7200000000</v>
       </c>
       <c r="D1165" t="n">
-        <v>232</v>
+        <v>380</v>
       </c>
       <c r="E1165" t="n">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="F1165" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G1165" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H1165" t="n">
         <v>1</v>
@@ -33073,23 +33073,23 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Rumah Tebet Strategis SHM Hadap Barat</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>6250000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1166" t="n">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="E1166" t="n">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="F1166" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1166" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1166" t="n">
         <v>1</v>
@@ -33101,26 +33101,26 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Dijual Kost Exlusive Tebet Cocok untuk Investasi Negotiable</t>
+          <t>Rumah Modern di Kebayoran Baru Row Jalan Lebar Dekat ke Senayan</t>
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>7200000000</v>
+        <v>65000000000</v>
       </c>
       <c r="D1167" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="E1167" t="n">
-        <v>196</v>
+        <v>675</v>
       </c>
       <c r="F1167" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G1167" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H1167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168">
@@ -33129,26 +33129,26 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Jual Cepat Rumah Bagus 534M2 di Bukit Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>2600000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1168" t="n">
-        <v>88</v>
+        <v>375</v>
       </c>
       <c r="E1168" t="n">
-        <v>55</v>
+        <v>534</v>
       </c>
       <c r="F1168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169">
@@ -33157,26 +33157,26 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Rumah Modern di Kebayoran Baru Row Jalan Lebar Dekat ke Senayan</t>
+          <t>Murah! Townhouse Cantik Suralaya Residences A4 di Daerah Elit Kemang</t>
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>65000000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1169" t="n">
-        <v>1000</v>
+        <v>928</v>
       </c>
       <c r="E1169" t="n">
-        <v>675</v>
+        <v>378</v>
       </c>
       <c r="F1169" t="n">
         <v>4</v>
       </c>
       <c r="G1169" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -33185,26 +33185,26 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Jual Cepat Rumah Bagus 534M2 di Bukit Hijau Pondok Indah</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>23000000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1170" t="n">
-        <v>375</v>
+        <v>112</v>
       </c>
       <c r="E1170" t="n">
-        <v>534</v>
+        <v>70</v>
       </c>
       <c r="F1170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171">
@@ -33213,23 +33213,23 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Murah! Townhouse Cantik Suralaya Residences A4 di Daerah Elit Kemang</t>
+          <t>Rumah Mewah Siap Huni Di Kebayoran</t>
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>15500000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1171" t="n">
-        <v>928</v>
+        <v>1350</v>
       </c>
       <c r="E1171" t="n">
-        <v>378</v>
+        <v>863</v>
       </c>
       <c r="F1171" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1171" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1171" t="n">
         <v>1</v>
@@ -33241,23 +33241,23 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>2830000000</v>
+        <v>8800000000</v>
       </c>
       <c r="D1172" t="n">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="E1172" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F1172" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1172" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1172" t="n">
         <v>1</v>
@@ -33269,23 +33269,23 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Di Kebayoran</t>
+          <t>ZENITPARC HYTT</t>
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>38000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1173" t="n">
-        <v>1350</v>
+        <v>130</v>
       </c>
       <c r="E1173" t="n">
-        <v>863</v>
+        <v>117</v>
       </c>
       <c r="F1173" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1173" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1173" t="n">
         <v>1</v>
@@ -33297,23 +33297,23 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Jarang Ada Rumah Bagus Kemang Bangka Tanah 648</t>
+          <t>Langkah! Rumah Semi Furnish European Style Taman Palem Jakarta Barat</t>
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>10000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1174" t="n">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="E1174" t="n">
-        <v>648</v>
+        <v>200</v>
       </c>
       <c r="F1174" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1174" t="n">
         <v>2</v>
@@ -33325,26 +33325,26 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>8800000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1175" t="n">
-        <v>280</v>
+        <v>1600</v>
       </c>
       <c r="E1175" t="n">
-        <v>120</v>
+        <v>1050</v>
       </c>
       <c r="F1175" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1175" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1175" t="n">
         <v>6</v>
-      </c>
-      <c r="H1175" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="1176">
@@ -33353,26 +33353,26 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Dinual Rumah Pinggir Jalan Raya Petogogan Jaksel</t>
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>2600000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1176" t="n">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="E1176" t="n">
-        <v>117</v>
+        <v>290</v>
       </c>
       <c r="F1176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177">
@@ -33381,26 +33381,26 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Langkah! Rumah Semi Furnish European Style Taman Palem Jakarta Barat</t>
+          <t>Rumah Mewah Brand New Modern Design Dalam Perumahan di Radio Dalam</t>
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>9000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1177" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="E1177" t="n">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="F1177" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1178">
@@ -33409,26 +33409,26 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
+          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>68000000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1178" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="E1178" t="n">
-        <v>1050</v>
+        <v>150</v>
       </c>
       <c r="F1178" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1178" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1178" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179">
@@ -33437,26 +33437,26 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Dijual Rumah Nol Jalan Raya Suryo Senopati Jakarta Selatan.cocok Untuk Tempat Usaha</t>
+          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>34500000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1179" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E1179" t="n">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="F1179" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1179" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
@@ -33465,17 +33465,17 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Dinual Rumah Pinggir Jalan Raya Petogogan Jaksel</t>
+          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>22000000000</v>
+        <v>14500000000</v>
       </c>
       <c r="D1180" t="n">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="E1180" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="F1180" t="n">
         <v>3</v>
@@ -33484,7 +33484,7 @@
         <v>3</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1181">
@@ -33493,26 +33493,26 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Rumah Mewah Brand New Modern Design Dalam Perumahan di Radio Dalam</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>15000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1181" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="E1181" t="n">
-        <v>307</v>
+        <v>60</v>
       </c>
       <c r="F1181" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1181" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182">
@@ -33521,23 +33521,23 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
+          <t>Kemang Rumah Brand New 2.5Lantai 100Meter ke Kemang Raya Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>4800000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1182" t="n">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="E1182" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F1182" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1182" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1182" t="n">
         <v>2</v>
@@ -33549,26 +33549,26 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
+          <t>Lahan Strategis Fatmawati No. 42 Samping Ace Hardware</t>
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>13500000000</v>
+        <v>52500000000</v>
       </c>
       <c r="D1183" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E1183" t="n">
-        <v>304</v>
+        <v>1554</v>
       </c>
       <c r="F1183" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1183" t="n">
         <v>5</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1184">
@@ -33577,26 +33577,1146 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>14500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1184" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="E1184" t="n">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="F1184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1184" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1184" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>New House Full Furnished Kemang Selatan</t>
+        </is>
+      </c>
+      <c r="C1185" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>760</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>518</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Rumah 2 Lantai di Daerah Pondok Indah Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1186" t="n">
+        <v>7800000000</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>160</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>Dijual rumah mewah dalam Gated community Kebayoran Baru Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1187" t="n">
+        <v>48000000000</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>810</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>370</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>Padmavilla Pejaten</t>
+        </is>
+      </c>
+      <c r="C1188" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Murah Strategis Akses 1Mobil Lokasi Tebet Timur</t>
+        </is>
+      </c>
+      <c r="C1189" t="n">
+        <v>2950000000</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>172</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Rumah Brand New di Pondok Labu, 400 Meter ke Jalan Raya Fatmawati, Cocok untuk Keluarga Besar</t>
+        </is>
+      </c>
+      <c r="C1190" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>515</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Jarang Ada Rumah Bagus Kemang Bangka Tanah 648</t>
+        </is>
+      </c>
+      <c r="C1191" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>355</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>648</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1192" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Nol Jalan Raya Suryo Senopati Jakarta Selatan.cocok Untuk Tempat Usaha</t>
+        </is>
+      </c>
+      <c r="C1193" t="n">
+        <v>34500000000</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>351</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Jual rumah pondok labu cilandak, 5 Menit RSUP Fatmawati</t>
+        </is>
+      </c>
+      <c r="C1194" t="n">
+        <v>2500000000</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>120</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>50</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>Brand New House Modern Design With Pool Cilandak</t>
+        </is>
+      </c>
+      <c r="C1195" t="n">
+        <v>9800000000</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>428</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>204</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1196" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Dijual Rumah di Pondok Indah Mendekat NJOP</t>
+        </is>
+      </c>
+      <c r="C1197" t="n">
+        <v>37000000000</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>588</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>866</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Pomentia Residence Full Furnished Murah Jagakarsa</t>
+        </is>
+      </c>
+      <c r="C1198" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>140</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Murah dan Mewah di Taman Bukit Hijau Pondo Indah</t>
+        </is>
+      </c>
+      <c r="C1199" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>650</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Rumah Tropical Modern Dekat Dengan Area Golf Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1200" t="n">
+        <v>60000000000</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>1115</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>759</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Rumah Lama Hitung Tanah di Lokasi Bagus dan Tenang</t>
+        </is>
+      </c>
+      <c r="C1201" t="n">
+        <v>4550000000</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>197</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Rumah Kost Dijual Jl Madrasah Dekat Akses MRT Haji Nawi</t>
+        </is>
+      </c>
+      <c r="C1202" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>580</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>344</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>15</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Dijual Lahan Berikut Rumah dan Ruko Didalamnya</t>
+        </is>
+      </c>
+      <c r="C1203" t="n">
+        <v>31200000000</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>Rumah Djual Dalam Cluster Dekat Cilandak Trakindo</t>
+        </is>
+      </c>
+      <c r="C1204" t="n">
+        <v>3850000000</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>198</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>Rumah Hoek 2 Lantai di Kerinci Kebayoran Baru Dekat ke Senayan</t>
+        </is>
+      </c>
+      <c r="C1205" t="n">
+        <v>27000000000</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>301</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>469</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
+        </is>
+      </c>
+      <c r="C1206" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>616</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>383</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>Rumah 2 Lantai di Cilandak Dekat Citos Lokasi Strategis SHM</t>
+        </is>
+      </c>
+      <c r="C1207" t="n">
+        <v>5500000000</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>272</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>Rumah Bagus, Ceiling Tinggi, Dilengkapi Kolam Renang, Lay Out Bagus</t>
+        </is>
+      </c>
+      <c r="C1208" t="n">
+        <v>21000000000</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>543</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>Rumah Tropical Rasa Resort Bali di Pejaten Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1209" t="n">
+        <v>18500000000</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>1028</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Rumah Jakarta Selatan Siap Huni Minim Renovasi</t>
+        </is>
+      </c>
+      <c r="C1210" t="n">
+        <v>5550000000</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>304</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>Rumah 1 Lantai Posisi Hoek di Cipete Kemang Jakarta Selatan SHM</t>
+        </is>
+      </c>
+      <c r="C1211" t="n">
+        <v>15300000000</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>793</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Rumah Kokoh, Lingkungan Tenang, Siap Huni, Sirkulasi Udara Bagus</t>
+        </is>
+      </c>
+      <c r="C1212" t="n">
+        <v>24000000000</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>559</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>572</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Rumah Mewah 2 Lantai Bagus di Kemang Jaya Halaman Luas Siap Huni</t>
+        </is>
+      </c>
+      <c r="C1213" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Rumah Pondok Indah Siap Huni, Sudah Renov Walking Distance To Mall</t>
+        </is>
+      </c>
+      <c r="C1214" t="n">
+        <v>11000000000</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>310</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>260</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>Rumah Baru American Classic di Kemang Bangunan Megah Mewah SHM</t>
+        </is>
+      </c>
+      <c r="C1215" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>760</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>517</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>Rumah 3 Lantai di Kemang Jakarta Selatan SHM Lokasi Bagus</t>
+        </is>
+      </c>
+      <c r="C1216" t="n">
+        <v>13900000000</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>340</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>Rumah 2 Lantai di Cipete Utara Kebayoran Baru Lokasi Strategis</t>
+        </is>
+      </c>
+      <c r="C1217" t="n">
+        <v>12500000000</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>318</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>497</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>Jual Cepat Kemang Timur Harga Murah Bisa Nego</t>
+        </is>
+      </c>
+      <c r="C1218" t="n">
+        <v>12500000000</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>544</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>Rumah Cocok Untuk Usaha Di Tebet Selangkah Ke Mt Haryono Shm</t>
+        </is>
+      </c>
+      <c r="C1219" t="n">
+        <v>12000000000</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>348</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>Rumah Cantik Di Kemang Private Pool Dan Rooftop Shm Siap Huni</t>
+        </is>
+      </c>
+      <c r="C1220" t="n">
+        <v>9800000000</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>260</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>230</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Townhouse Minimalis 3 Lantai Di Kemang Harga Mulai 3 Miliaran</t>
+        </is>
+      </c>
+      <c r="C1221" t="n">
+        <v>3500000000</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>147</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>Rumah Furnished 4 Kamar Tidur Di Selatan Jakarta Akses Dekat Tol</t>
+        </is>
+      </c>
+      <c r="C1222" t="n">
+        <v>990000000</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>125</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>Jual Cepat Rumah 7Residence Duren Tiga Belakang Total Buah</t>
+        </is>
+      </c>
+      <c r="C1223" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>347</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah, 2 Lantai, SHM, Dekat Akses KRL 4+1 Kt</t>
+        </is>
+      </c>
+      <c r="C1224" t="n">
+        <v>1900000000</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1224"/>
+  <dimension ref="A1:H1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28677,26 +28677,26 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Dijual Cepat Alam Segar Pondok Indah Harga Murah Semi Furnished Bagus, Rumah Pondok Indah</t>
+          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>11500000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1009" t="n">
-        <v>310</v>
+        <v>760</v>
       </c>
       <c r="E1009" t="n">
-        <v>260</v>
+        <v>517</v>
       </c>
       <c r="F1009" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1009" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1010">
@@ -28705,26 +28705,26 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
+          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>38000000000</v>
+        <v>85000000000</v>
       </c>
       <c r="D1010" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="E1010" t="n">
-        <v>517</v>
+        <v>634</v>
       </c>
       <c r="F1010" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1010" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1011">
@@ -28733,26 +28733,26 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
+          <t>Rumah Cozy Dn Nyaman di Lingkungan Pusat Bisnis di Fatmawati,Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>85000000000</v>
+        <v>5200000000</v>
       </c>
       <c r="D1011" t="n">
-        <v>1500</v>
+        <v>215</v>
       </c>
       <c r="E1011" t="n">
-        <v>634</v>
+        <v>215</v>
       </c>
       <c r="F1011" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1011" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1011" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -28761,26 +28761,26 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Rumah Cozy Dn Nyaman di Lingkungan Pusat Bisnis di Fatmawati,Jakarta Selatan</t>
+          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>5200000000</v>
+        <v>20000000000</v>
       </c>
       <c r="D1012" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="E1012" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F1012" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1012" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1012" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1013">
@@ -28789,26 +28789,26 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
+          <t>For Sale Rumah Mewah Kondisi Baru Paling Strategis di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>20000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1013" t="n">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="E1013" t="n">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="F1013" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1013" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1013" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -28817,17 +28817,17 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru Paling Strategis di Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah 5 Lantai Ada Lift Interior Premium Designtropical Modern Di Pondok Indah Niaga Design By Ateiler Riri</t>
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>6900000000</v>
+        <v>17500000000</v>
       </c>
       <c r="D1014" t="n">
-        <v>375</v>
+        <v>603</v>
       </c>
       <c r="E1014" t="n">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="F1014" t="n">
         <v>4</v>
@@ -28845,26 +28845,26 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah 5 Lantai Ada Lift Interior Premium Designtropical Modern Di Pondok Indah Niaga Design By Ateiler Riri</t>
+          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>17500000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1015" t="n">
-        <v>603</v>
+        <v>500</v>
       </c>
       <c r="E1015" t="n">
-        <v>264</v>
+        <v>400</v>
       </c>
       <c r="F1015" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1015" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1016">
@@ -28873,26 +28873,26 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>7700000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1016" t="n">
-        <v>500</v>
+        <v>147</v>
       </c>
       <c r="E1016" t="n">
-        <v>400</v>
+        <v>317</v>
       </c>
       <c r="F1016" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1016" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017">
@@ -28901,26 +28901,26 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>15500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1017" t="n">
-        <v>147</v>
+        <v>375</v>
       </c>
       <c r="E1017" t="n">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="F1017" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1017" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -28929,23 +28929,23 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>6900000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1018" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E1018" t="n">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F1018" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1018" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1018" t="n">
         <v>2</v>
@@ -28957,26 +28957,26 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
+          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>5700000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1019" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E1019" t="n">
-        <v>300</v>
+        <v>2448</v>
       </c>
       <c r="F1019" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1019" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1020">
@@ -28985,26 +28985,26 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
+          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>19000000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1020" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E1020" t="n">
-        <v>2448</v>
+        <v>150</v>
       </c>
       <c r="F1020" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1020" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1020" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021">
@@ -29013,26 +29013,26 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1021" t="n">
         <v>2750000000</v>
       </c>
       <c r="D1021" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E1021" t="n">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F1021" t="n">
         <v>5</v>
       </c>
       <c r="G1021" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022">
@@ -29041,20 +29041,20 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>2750000000</v>
+        <v>1830000000</v>
       </c>
       <c r="D1022" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="E1022" t="n">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F1022" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1022" t="n">
         <v>4</v>
@@ -29069,23 +29069,23 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>1830000000</v>
+        <v>5800000000</v>
       </c>
       <c r="D1023" t="n">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="E1023" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="F1023" t="n">
         <v>4</v>
       </c>
       <c r="G1023" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1023" t="n">
         <v>2</v>
@@ -29097,26 +29097,26 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
+          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>5800000000</v>
+        <v>6800000000</v>
       </c>
       <c r="D1024" t="n">
-        <v>206</v>
+        <v>360</v>
       </c>
       <c r="E1024" t="n">
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="F1024" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1024" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
@@ -29125,26 +29125,26 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
+          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>6800000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1025" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="E1025" t="n">
-        <v>475</v>
+        <v>127</v>
       </c>
       <c r="F1025" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1025" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1025" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026">
@@ -29153,17 +29153,17 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
+          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>3500000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1026" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="E1026" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F1026" t="n">
         <v>3</v>
@@ -29181,26 +29181,26 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>15500000000</v>
+        <v>13700000000</v>
       </c>
       <c r="D1027" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="E1027" t="n">
-        <v>350</v>
+        <v>528</v>
       </c>
       <c r="F1027" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1027" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028">
@@ -29209,23 +29209,23 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
+          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>7000000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1028" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E1028" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F1028" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1028" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1028" t="n">
         <v>1</v>
@@ -29237,23 +29237,23 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
+          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>13700000000</v>
+        <v>16500000000</v>
       </c>
       <c r="D1029" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="E1029" t="n">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="F1029" t="n">
         <v>5</v>
       </c>
       <c r="G1029" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1029" t="n">
         <v>1</v>
@@ -29265,17 +29265,17 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
+          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>5750000000</v>
+        <v>5000000000</v>
       </c>
       <c r="D1030" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="E1030" t="n">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="F1030" t="n">
         <v>4</v>
@@ -29293,23 +29293,23 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
+          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>16500000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1031" t="n">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="E1031" t="n">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F1031" t="n">
         <v>5</v>
       </c>
       <c r="G1031" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1031" t="n">
         <v>1</v>
@@ -29321,26 +29321,26 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
+          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>5000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1032" t="n">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="E1032" t="n">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="F1032" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1032" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1033">
@@ -29349,26 +29349,26 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
+          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>13500000000</v>
+        <v>1390000000</v>
       </c>
       <c r="D1033" t="n">
-        <v>466</v>
+        <v>90</v>
       </c>
       <c r="E1033" t="n">
-        <v>496</v>
+        <v>125</v>
       </c>
       <c r="F1033" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1033" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -29377,26 +29377,26 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
+          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>7000000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1034" t="n">
-        <v>432</v>
+        <v>230</v>
       </c>
       <c r="E1034" t="n">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="F1034" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1034" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1034" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -29405,26 +29405,26 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
+          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>1390000000</v>
+        <v>1170000000</v>
       </c>
       <c r="D1035" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E1035" t="n">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="F1035" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1035" t="n">
         <v>2</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -29433,26 +29433,26 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>3500000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1036" t="n">
-        <v>230</v>
+        <v>720</v>
       </c>
       <c r="E1036" t="n">
-        <v>102</v>
+        <v>634</v>
       </c>
       <c r="F1036" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1036" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1037">
@@ -29461,26 +29461,26 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
+          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>1170000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1037" t="n">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="E1037" t="n">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="F1037" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1037" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -29489,26 +29489,26 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
+          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>44000000000</v>
+        <v>79900000000</v>
       </c>
       <c r="D1038" t="n">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="E1038" t="n">
-        <v>634</v>
+        <v>1026</v>
       </c>
       <c r="F1038" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1038" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1038" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1039">
@@ -29517,17 +29517,17 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
+          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>22000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D1039" t="n">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="E1039" t="n">
-        <v>518</v>
+        <v>127</v>
       </c>
       <c r="F1039" t="n">
         <v>4</v>
@@ -29545,26 +29545,26 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
+          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>79900000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1040" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E1040" t="n">
-        <v>1026</v>
+        <v>102</v>
       </c>
       <c r="F1040" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1040" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1040" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -29573,26 +29573,26 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
+          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>2000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1041" t="n">
-        <v>134</v>
+        <v>1800</v>
       </c>
       <c r="E1041" t="n">
-        <v>127</v>
+        <v>1225</v>
       </c>
       <c r="F1041" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1041" t="n">
         <v>4</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1042">
@@ -29601,26 +29601,26 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>3850000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1042" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="E1042" t="n">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F1042" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1042" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043">
@@ -29629,26 +29629,26 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
+          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>45000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1043" t="n">
-        <v>1800</v>
+        <v>185</v>
       </c>
       <c r="E1043" t="n">
-        <v>1225</v>
+        <v>128</v>
       </c>
       <c r="F1043" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1043" t="n">
         <v>4</v>
       </c>
       <c r="H1043" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044">
@@ -29657,26 +29657,26 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>7090000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>375</v>
+        <v>720</v>
       </c>
       <c r="E1044" t="n">
-        <v>76</v>
+        <v>634</v>
       </c>
       <c r="F1044" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1044" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,23 +29685,23 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Dijaksel Lokasi Strategis Pinggir Jalan</t>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>2500000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E1045" t="n">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="F1045" t="n">
         <v>3</v>
       </c>
       <c r="G1045" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1045" t="n">
         <v>2</v>
@@ -29713,26 +29713,26 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>41900000000</v>
+        <v>1950000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="E1046" t="n">
-        <v>634</v>
+        <v>232</v>
       </c>
       <c r="F1046" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1046" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1046" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
@@ -29741,17 +29741,17 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>5750000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E1047" t="n">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="F1047" t="n">
         <v>3</v>
@@ -29769,20 +29769,20 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Termurah!! Cash Only Harga NJOP Lebak Bulus</t>
+          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>1950000000</v>
+        <v>12200000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>144</v>
+        <v>340</v>
       </c>
       <c r="E1048" t="n">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="F1048" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1048" t="n">
         <v>3</v>
@@ -29797,23 +29797,23 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>2600000000</v>
+        <v>47000000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>88</v>
+        <v>1000</v>
       </c>
       <c r="E1049" t="n">
-        <v>55</v>
+        <v>810</v>
       </c>
       <c r="F1049" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1049" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1049" t="n">
         <v>2</v>
@@ -29825,26 +29825,26 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Best!! Rumah Cantik Siap Huni, Jalan Lebar, Tenang, Exclusive Area!!</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>12200000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="E1050" t="n">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="F1050" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1050" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051">
@@ -29853,23 +29853,23 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Dijual/ Disewa Rumah Pondok Indah SHM 47 M</t>
+          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>47000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>1000</v>
+        <v>109</v>
       </c>
       <c r="E1051" t="n">
-        <v>810</v>
+        <v>50</v>
       </c>
       <c r="F1051" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1051" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1051" t="n">
         <v>2</v>
@@ -29881,26 +29881,26 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>2830000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>112</v>
+        <v>350</v>
       </c>
       <c r="E1052" t="n">
-        <v>70</v>
+        <v>1070</v>
       </c>
       <c r="F1052" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1052" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053">
@@ -29909,17 +29909,17 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Masih Cari Rumah di Jakarta Selatan yang Bebas Banjir? Ini Jawabannya, Tepat di Sebelah Fatmawati &amp; Cilandak!, Pondok Labu, Alamat Bergengsi, 5 Menit Dari MRT, Akses Tanpa Batas. Investasi Terbaik di Titik Paling Strategis Jakarta Selatan</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1053" t="n">
         <v>2400000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E1053" t="n">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="F1053" t="n">
         <v>3</v>
@@ -29937,26 +29937,26 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Rumah Lama Harga Dibawah Njop  Di Pejaten Raya Jakarta Selatan</t>
+          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>19000000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="E1054" t="n">
-        <v>1070</v>
+        <v>116</v>
       </c>
       <c r="F1054" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1054" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -29965,17 +29965,17 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>2400000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1055" t="n">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="E1055" t="n">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="F1055" t="n">
         <v>3</v>
@@ -29984,7 +29984,7 @@
         <v>3</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056">
@@ -29993,26 +29993,26 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Bebas Banjir Rumah 2 Lantai, Dekat Akses Tol dan Dekat Busway dan Stasiun Kereta</t>
+          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>1800000000</v>
+        <v>1970000000</v>
       </c>
       <c r="D1056" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E1056" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F1056" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1056" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057">
@@ -30021,26 +30021,26 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Rumah Kondisi Bagus Kokoh Siap Huni Dekt 2 Pintu Toll dan Lebih Murah Dibanding yang Sama Speknya</t>
+          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>2500000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="E1057" t="n">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="F1057" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1057" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058">
@@ -30049,17 +30049,17 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Jalan 1 Mobil Dekat Jalan 2 Mobil Lingkungan Aman Nyaman dan Tenang</t>
+          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>1970000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E1058" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="F1058" t="n">
         <v>3</v>
@@ -30077,26 +30077,26 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Siaphuni 3 Lantai Free Biaya2 Pondok Cabe Deket Tol Cinere Jaksel</t>
+          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>1900000000</v>
+        <v>4500000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="E1059" t="n">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="F1059" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1059" t="n">
         <v>4</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -30105,26 +30105,26 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Rumah Hanya Hitung Tanah Saja Jalan 1 Mobil Lebar Tidak Jauh Jalan 2 Mobil Dekat Taman</t>
+          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>2500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="E1060" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="F1060" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1060" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -30133,26 +30133,26 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Rumah Bagus Dan Siap Huni Jalan 2 Mobil Dekat Dengan Eco Park</t>
+          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>4500000000</v>
+        <v>7890000000</v>
       </c>
       <c r="D1061" t="n">
         <v>250</v>
       </c>
       <c r="E1061" t="n">
-        <v>150</v>
+        <v>404</v>
       </c>
       <c r="F1061" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1061" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1062">
@@ -30161,26 +30161,26 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Rumah Cocok Untuk Kantor Akses Jalan 2 Mobil Dekat Dengan Perkantoran</t>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>6900000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1062" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E1062" t="n">
-        <v>250</v>
+        <v>404</v>
       </c>
       <c r="F1062" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1062" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1063">
@@ -30189,26 +30189,26 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>7890000000</v>
+        <v>39900000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>250</v>
+        <v>796</v>
       </c>
       <c r="E1063" t="n">
-        <v>404</v>
+        <v>864</v>
       </c>
       <c r="F1063" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1063" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1063" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1064">
@@ -30217,23 +30217,23 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>7800000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1064" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E1064" t="n">
-        <v>404</v>
+        <v>854</v>
       </c>
       <c r="F1064" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1064" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1064" t="n">
         <v>5</v>
@@ -30245,26 +30245,26 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>39900000000</v>
+        <v>53500000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>796</v>
+        <v>452</v>
       </c>
       <c r="E1065" t="n">
-        <v>864</v>
+        <v>1165</v>
       </c>
       <c r="F1065" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1065" t="n">
         <v>5</v>
       </c>
       <c r="H1065" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1066">
@@ -30273,23 +30273,23 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>22000000000</v>
+        <v>34900000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E1066" t="n">
-        <v>854</v>
+        <v>538</v>
       </c>
       <c r="F1066" t="n">
         <v>6</v>
       </c>
       <c r="G1066" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1066" t="n">
         <v>5</v>
@@ -30301,26 +30301,26 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>53500000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>452</v>
+        <v>1100</v>
       </c>
       <c r="E1067" t="n">
-        <v>1165</v>
+        <v>540</v>
       </c>
       <c r="F1067" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1067" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1067" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1068">
@@ -30329,26 +30329,26 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>34900000000</v>
+        <v>55000000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E1068" t="n">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="F1068" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1068" t="n">
         <v>6</v>
-      </c>
-      <c r="G1068" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1068" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="1069">
@@ -30357,26 +30357,26 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>48000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>1100</v>
+        <v>65</v>
       </c>
       <c r="E1069" t="n">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="F1069" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1069" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1069" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -30385,26 +30385,26 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>55000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="E1070" t="n">
-        <v>500</v>
+        <v>117</v>
       </c>
       <c r="F1070" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1070" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1070" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071">
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>1500000000</v>
+        <v>3600000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="E1071" t="n">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="F1071" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1071" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,23 +30441,23 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>2400000000</v>
+        <v>3700000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="E1072" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F1072" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1072" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1072" t="n">
         <v>1</v>
@@ -30469,26 +30469,26 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>3600000000</v>
+        <v>7900000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E1073" t="n">
-        <v>144</v>
+        <v>682</v>
       </c>
       <c r="F1073" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1073" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -30497,26 +30497,26 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>3700000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>300</v>
+        <v>810</v>
       </c>
       <c r="E1074" t="n">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="F1074" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1074" t="n">
         <v>4</v>
       </c>
       <c r="H1074" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -30525,26 +30525,26 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>7900000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E1075" t="n">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="F1075" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1075" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1076">
@@ -30553,17 +30553,17 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>48000000000</v>
+        <v>46000000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>810</v>
+        <v>871</v>
       </c>
       <c r="E1076" t="n">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F1076" t="n">
         <v>4</v>
@@ -30581,26 +30581,26 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>62000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="E1077" t="n">
-        <v>670</v>
+        <v>81</v>
       </c>
       <c r="F1077" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1077" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1077" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,26 +30609,26 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>2025 Modern House Kebayoran Baru For Sale</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>46000000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>871</v>
+        <v>180</v>
       </c>
       <c r="E1078" t="n">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="F1078" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1078" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079">
@@ -30637,23 +30637,23 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>1500000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="E1079" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="F1079" t="n">
         <v>3</v>
       </c>
       <c r="G1079" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1079" t="n">
         <v>1</v>
@@ -30665,26 +30665,26 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>5700000000</v>
+        <v>52000000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="E1080" t="n">
-        <v>250</v>
+        <v>726</v>
       </c>
       <c r="F1080" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1080" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1081">
@@ -30693,26 +30693,26 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>6000000000</v>
+        <v>28000000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E1081" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="F1081" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1081" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -30721,26 +30721,26 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Rumah Mewah Elegan Jantung Dharmawangsa Jakarta Selatan</t>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>52000000000</v>
+        <v>22500000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="E1082" t="n">
-        <v>726</v>
+        <v>248</v>
       </c>
       <c r="F1082" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1082" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1082" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1083">
@@ -30749,23 +30749,23 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Turun Harga Dibawah NJOP Rumah Pinggir Jalan Cocok Untuk Hunian &amp; Usaha Dengan Pool Dan Halaman Luas Serta Lingkungan Yang Nyaman di Cilandak Jakarta Selatan.</t>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>28000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>1000</v>
+        <v>183</v>
       </c>
       <c r="E1083" t="n">
-        <v>2500</v>
+        <v>149</v>
       </c>
       <c r="F1083" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1083" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1083" t="n">
         <v>2</v>
@@ -30777,26 +30777,26 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>22500000000</v>
+        <v>31500000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E1084" t="n">
-        <v>248</v>
+        <v>2620</v>
       </c>
       <c r="F1084" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1084" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1085">
@@ -30805,26 +30805,26 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>7000000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E1085" t="n">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="F1085" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1085" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086">
@@ -30833,26 +30833,26 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>31500000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1086" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E1086" t="n">
-        <v>2620</v>
+        <v>1343</v>
       </c>
       <c r="F1086" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1086" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1086" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1087">
@@ -30861,26 +30861,26 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>3750000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="E1087" t="n">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="F1087" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1087" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -30889,17 +30889,17 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>25000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>700</v>
+        <v>210</v>
       </c>
       <c r="E1088" t="n">
-        <v>1343</v>
+        <v>315</v>
       </c>
       <c r="F1088" t="n">
         <v>4</v>
@@ -30908,7 +30908,7 @@
         <v>3</v>
       </c>
       <c r="H1088" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -30917,23 +30917,23 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>6900000000</v>
+        <v>1650000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E1089" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F1089" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1089" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1089" t="n">
         <v>2</v>
@@ -30945,26 +30945,26 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Rumah Murah Di Pusat Bisnis Mega Kuningan Cocok Untuk Usaha</t>
+          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>14000000000</v>
+        <v>3900000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E1090" t="n">
-        <v>315</v>
+        <v>170</v>
       </c>
       <c r="F1090" t="n">
         <v>4</v>
       </c>
       <c r="G1090" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1091">
@@ -30973,23 +30973,23 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni 3 Lantai Dalam Cluster Pinggir Jalan Raya Tol</t>
+          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>1650000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="E1091" t="n">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F1091" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1091" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1091" t="n">
         <v>2</v>
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Private Lift Di Senopati Boulevard Selatan Jakarta</t>
+          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>3900000000</v>
+        <v>1800000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="E1092" t="n">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="F1092" t="n">
         <v>4</v>
       </c>
       <c r="G1092" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1092" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,23 +31029,23 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Rumah Baru 4 Lantai di Jagakarsa Viewe Danau 4 Menit Tol Andara</t>
+          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>3000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="E1093" t="n">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="F1093" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1093" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1093" t="n">
         <v>2</v>
@@ -31057,23 +31057,23 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Full Furnish di Jagakarsa Jakartaselatan Termurah</t>
+          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>1800000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="E1094" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F1094" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1094" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1094" t="n">
         <v>2</v>
@@ -31085,23 +31085,23 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Rumah Baru Siap Huni di Dekat Tol Andara Jagakarsa Jakarta Selatan</t>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>2400000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E1095" t="n">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="F1095" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1095" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1095" t="n">
         <v>2</v>
@@ -31113,23 +31113,23 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Pool di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>3850000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E1096" t="n">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="F1096" t="n">
         <v>5</v>
       </c>
       <c r="G1096" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1096" t="n">
         <v>2</v>
@@ -31141,7 +31141,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
         </is>
       </c>
       <c r="C1097" t="n">
@@ -31151,7 +31151,7 @@
         <v>180</v>
       </c>
       <c r="E1097" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1097" t="n">
         <v>5</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>3950000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1098" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E1098" t="n">
-        <v>162</v>
+        <v>446</v>
       </c>
       <c r="F1098" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1098" t="n">
         <v>3</v>
@@ -31197,26 +31197,26 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>3950000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1099" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="E1099" t="n">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="F1099" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1099" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -31225,26 +31225,26 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>11500000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1100" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E1100" t="n">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="F1100" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1101">
@@ -31253,26 +31253,26 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>9500000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="E1101" t="n">
-        <v>361</v>
+        <v>448</v>
       </c>
       <c r="F1101" t="n">
         <v>4</v>
       </c>
       <c r="G1101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102">
@@ -31281,26 +31281,26 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>35000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>650</v>
+        <v>1374</v>
       </c>
       <c r="E1102" t="n">
-        <v>406</v>
+        <v>1493</v>
       </c>
       <c r="F1102" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G1102" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H1102" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1103">
@@ -31309,17 +31309,17 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>30000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="D1103" t="n">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="E1103" t="n">
-        <v>448</v>
+        <v>899</v>
       </c>
       <c r="F1103" t="n">
         <v>4</v>
@@ -31328,7 +31328,7 @@
         <v>4</v>
       </c>
       <c r="H1103" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1104">
@@ -31337,26 +31337,26 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>26000000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1104" t="n">
-        <v>1374</v>
+        <v>520</v>
       </c>
       <c r="E1104" t="n">
-        <v>1493</v>
+        <v>720</v>
       </c>
       <c r="F1104" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G1104" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H1104" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1105">
@@ -31365,26 +31365,26 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>18000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1105" t="n">
-        <v>467</v>
+        <v>150</v>
       </c>
       <c r="E1105" t="n">
-        <v>899</v>
+        <v>300</v>
       </c>
       <c r="F1105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1105" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106">
@@ -31393,26 +31393,26 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru di Jagakarsa</t>
+          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>12500000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1106" t="n">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E1106" t="n">
-        <v>720</v>
+        <v>2028</v>
       </c>
       <c r="F1106" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1106" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1107">
@@ -31421,26 +31421,26 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>13000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1107" t="n">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E1107" t="n">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="F1107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108">
@@ -31449,26 +31449,26 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Dijual Bawah Njop Kemang Rp 13.3juta/m2 Luas 2028m2 Bebas Banjir</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>27000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1108" t="n">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="E1108" t="n">
-        <v>2028</v>
+        <v>250</v>
       </c>
       <c r="F1108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -31477,23 +31477,23 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
+          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>2500000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1109" t="n">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="E1109" t="n">
-        <v>128</v>
+        <v>318</v>
       </c>
       <c r="F1109" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1109" t="n">
         <v>2</v>
@@ -31505,23 +31505,23 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>8000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1110" t="n">
-        <v>430</v>
+        <v>850</v>
       </c>
       <c r="E1110" t="n">
-        <v>250</v>
+        <v>384</v>
       </c>
       <c r="F1110" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1110" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1110" t="n">
         <v>3</v>
@@ -31533,23 +31533,23 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
+          <t>Siap Huni 4 Lantai Private Lift 500 Meter Tol Andara Kawasa Artis</t>
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>5500000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1111" t="n">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="E1111" t="n">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="F1111" t="n">
         <v>5</v>
       </c>
       <c r="G1111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1111" t="n">
         <v>2</v>
@@ -31561,26 +31561,26 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
+          <t>Rumah Mewah Prime Location Area Permata Hijau Harga Menarik</t>
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>14000000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1112" t="n">
-        <v>850</v>
+        <v>409</v>
       </c>
       <c r="E1112" t="n">
-        <v>384</v>
+        <v>520</v>
       </c>
       <c r="F1112" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1112" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H1112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113">
@@ -31589,17 +31589,17 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Siap Huni 4 Lantai Private Lift 500 Meter Tol Andara Kawasa Artis</t>
+          <t>Luxury House At West Jakarta Taman Palem Cengkareng</t>
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>4800000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1113" t="n">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="E1113" t="n">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="F1113" t="n">
         <v>5</v>
@@ -31617,26 +31617,26 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Rumah Mewah Prime Location Area Permata Hijau Harga Menarik</t>
+          <t>Pondok Indah - For Sale Rumah Modern Classic Di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>19000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1114" t="n">
-        <v>409</v>
+        <v>1000</v>
       </c>
       <c r="E1114" t="n">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="F1114" t="n">
         <v>5</v>
       </c>
       <c r="G1114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1115">
@@ -31645,26 +31645,26 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Luxury House At West Jakarta Taman Palem Cengkareng</t>
+          <t>Jual Rumah Bagus SHM di Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>9000000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1115" t="n">
-        <v>440</v>
+        <v>1600</v>
       </c>
       <c r="E1115" t="n">
-        <v>202</v>
+        <v>1050</v>
       </c>
       <c r="F1115" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1115" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1116">
@@ -31673,26 +31673,26 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Pondok Indah - For Sale Rumah Modern Classic Di Jakarta Selatan</t>
+          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>45000000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1116" t="n">
-        <v>1000</v>
+        <v>825</v>
       </c>
       <c r="E1116" t="n">
-        <v>620</v>
+        <v>768</v>
       </c>
       <c r="F1116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1116" t="n">
         <v>5</v>
       </c>
       <c r="H1116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
@@ -31701,26 +31701,26 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Jual Rumah Bagus SHM di Pondok Indah Jakarta Selatan</t>
+          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>68000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1117" t="n">
-        <v>1600</v>
+        <v>380</v>
       </c>
       <c r="E1117" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="F1117" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1117" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1117" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -31729,17 +31729,17 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
+          <t>Rumah Rasa Villa Luas 2000M 6 Kamar Cipete Dekat Pondok Indah</t>
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>32000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1118" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="E1118" t="n">
-        <v>768</v>
+        <v>1925</v>
       </c>
       <c r="F1118" t="n">
         <v>6</v>
@@ -31748,7 +31748,7 @@
         <v>5</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1119">
@@ -31757,23 +31757,23 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>14000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1119" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E1119" t="n">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="F1119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1119" t="n">
         <v>2</v>
@@ -31785,26 +31785,26 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Rumah Rasa Villa Luas 2000M 6 Kamar Cipete Dekat Pondok Indah</t>
+          <t>Rumah 2 Lantai di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>42000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1120" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="E1120" t="n">
-        <v>1925</v>
+        <v>1000</v>
       </c>
       <c r="F1120" t="n">
         <v>6</v>
       </c>
       <c r="G1120" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H1120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121">
@@ -31813,26 +31813,26 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+          <t>Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>6900000000</v>
+        <v>15800000000</v>
       </c>
       <c r="D1121" t="n">
-        <v>375</v>
+        <v>240</v>
       </c>
       <c r="E1121" t="n">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="F1121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1121" t="n">
         <v>4</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -31841,26 +31841,26 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai di Kemang Jakarta Selatan</t>
+          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>45000000000</v>
+        <v>17000000000</v>
       </c>
       <c r="D1122" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="E1122" t="n">
-        <v>1000</v>
+        <v>1070</v>
       </c>
       <c r="F1122" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1122" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H1122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1123">
@@ -31869,23 +31869,23 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
+          <t>Rumah Besar Tebet Utara, Jakarta Selatan.</t>
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>15800000000</v>
+        <v>9700000000</v>
       </c>
       <c r="D1123" t="n">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="E1123" t="n">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="F1123" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1123" t="n">
         <v>1</v>
@@ -31897,17 +31897,17 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah di Kemang Masih Sangat Terawat dan Bangunan Masih Bagus</t>
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>17000000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1124" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="E1124" t="n">
-        <v>1070</v>
+        <v>1250</v>
       </c>
       <c r="F1124" t="n">
         <v>4</v>
@@ -31916,7 +31916,7 @@
         <v>3</v>
       </c>
       <c r="H1124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -31925,26 +31925,26 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Rumah Besar Tebet Utara, Jakarta Selatan.</t>
+          <t>Dijual Rumah Renovated Di Kemang, Dekat Kemang Dalam Lt 467m Hanya Rp 12 Milyar</t>
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>9700000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1125" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="E1125" t="n">
-        <v>216</v>
+        <v>467</v>
       </c>
       <c r="F1125" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126">
@@ -31953,26 +31953,26 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah di Kemang Masih Sangat Terawat dan Bangunan Masih Bagus</t>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>23000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1126" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E1126" t="n">
-        <v>1250</v>
+        <v>620</v>
       </c>
       <c r="F1126" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G1126" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H1126" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1127">
@@ -31981,17 +31981,17 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Dijual Rumah Renovated Di Kemang, Dekat Kemang Dalam Lt 467m Hanya Rp 12 Milyar</t>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>12000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1127" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="E1127" t="n">
-        <v>467</v>
+        <v>960</v>
       </c>
       <c r="F1127" t="n">
         <v>5</v>
@@ -32000,7 +32000,7 @@
         <v>4</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1128">
@@ -32009,26 +32009,26 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+          <t>Dijual Murah 15Jt/M2 di Kemang.pejaten Barat Kemang. Rumah Model Bali Luas 4041M2 Siap Huni Hanya Rp 15Juta/M</t>
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>42000000000</v>
+        <v>60600000000</v>
       </c>
       <c r="D1128" t="n">
-        <v>1200</v>
+        <v>1130</v>
       </c>
       <c r="E1128" t="n">
-        <v>620</v>
+        <v>4041</v>
       </c>
       <c r="F1128" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G1128" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1128" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1129">
@@ -32037,26 +32037,26 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>21000000000</v>
+        <v>40500000000</v>
       </c>
       <c r="D1129" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="E1129" t="n">
-        <v>960</v>
+        <v>534</v>
       </c>
       <c r="F1129" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1129" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1130">
@@ -32065,26 +32065,26 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Dijual Murah 15Jt/M2 di Kemang.pejaten Barat Kemang. Rumah Model Bali Luas 4041M2 Siap Huni Hanya Rp 15Juta/M</t>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>60600000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1130" t="n">
-        <v>1130</v>
+        <v>600</v>
       </c>
       <c r="E1130" t="n">
-        <v>4041</v>
+        <v>550</v>
       </c>
       <c r="F1130" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1130" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1130" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131">
@@ -32093,26 +32093,26 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>40500000000</v>
+        <v>61000000000</v>
       </c>
       <c r="D1131" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="E1131" t="n">
-        <v>534</v>
+        <v>850</v>
       </c>
       <c r="F1131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1132">
@@ -32121,26 +32121,26 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+          <t>Dijual Murah Hanya Rp 13Jt/M Rumah Lama di Kemang - Cipete, Luas 1153M Harga Rp 15 M</t>
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>12000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1132" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E1132" t="n">
-        <v>550</v>
+        <v>1153</v>
       </c>
       <c r="F1132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1133">
@@ -32149,26 +32149,26 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni di Jl. Wijaya Kebayoran Baru Jalan Lebar, Strategis. Lt 850M2 Rp 63 M Nego</t>
+          <t>Dijual Cepat Mendekati NJOP Rumah di Pondok Indah (Dalam Portal) Luas 1235M2.hanya Rp.36.4jt/M</t>
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>61000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1133" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E1133" t="n">
-        <v>850</v>
+        <v>1235</v>
       </c>
       <c r="F1133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1133" t="n">
         <v>4</v>
       </c>
       <c r="H1133" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1134">
@@ -32177,26 +32177,26 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Dijual Murah Hanya Rp 13Jt/M Rumah Lama di Kemang - Cipete, Luas 1153M Harga Rp 15 M</t>
+          <t>Dijual Murah Area Senopati Rumah untuk Hunian / Kantor / Klinik / Usaha Luas 252M Jalan Lebar Rp 14 M</t>
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>15000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1134" t="n">
-        <v>1000</v>
+        <v>195</v>
       </c>
       <c r="E1134" t="n">
-        <v>1153</v>
+        <v>252</v>
       </c>
       <c r="F1134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1134" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -32205,26 +32205,26 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Dijual Cepat Mendekati NJOP Rumah di Pondok Indah (Dalam Portal) Luas 1235M2.hanya Rp.36.4jt/M</t>
+          <t>Pondok Indah Luas 300M Hanya 13 M . Jalan Lebar dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>45000000000</v>
+        <v>12800000000</v>
       </c>
       <c r="D1135" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="E1135" t="n">
-        <v>1235</v>
+        <v>300</v>
       </c>
       <c r="F1135" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -32233,17 +32233,17 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Dijual Murah Area Senopati Rumah untuk Hunian / Kantor / Klinik / Usaha Luas 252M Jalan Lebar Rp 14 M</t>
+          <t>Dijua Murah Rumah Depan Taman di Kebayoran Baru. Luas 379M Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>14000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1136" t="n">
-        <v>195</v>
+        <v>350</v>
       </c>
       <c r="E1136" t="n">
-        <v>252</v>
+        <v>379</v>
       </c>
       <c r="F1136" t="n">
         <v>4</v>
@@ -32252,7 +32252,7 @@
         <v>3</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -32261,26 +32261,26 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300M Hanya 13 M . Jalan Lebar dan Tenang, Dalam Portal</t>
+          <t>Dijual Cepat Rumah Lux di Mega Kuningan (Dalam Komplek) Luas.tanah 604M2 Rp 40 M Nego</t>
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>12800000000</v>
+        <v>40000000000</v>
       </c>
       <c r="D1137" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="E1137" t="n">
-        <v>300</v>
+        <v>604</v>
       </c>
       <c r="F1137" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G1137" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1138">
@@ -32289,17 +32289,17 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Dijua Murah Rumah Depan Taman di Kebayoran Baru. Luas 379M Lokasi Bagus</t>
+          <t>Dijual Murah Rumah di Kebayoran Baru. Lingkungan Seperti Komplek(Gated) . Jalan Lebar dan Tenang. Luas.293m Rp 15 M (Rp 51.1Jt/M Nego)</t>
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>21000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1138" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E1138" t="n">
-        <v>379</v>
+        <v>293</v>
       </c>
       <c r="F1138" t="n">
         <v>4</v>
@@ -32308,7 +32308,7 @@
         <v>3</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -32317,26 +32317,26 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Lux di Mega Kuningan (Dalam Komplek) Luas.tanah 604M2 Rp 40 M Nego</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>40000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1139" t="n">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="E1139" t="n">
-        <v>604</v>
+        <v>76</v>
       </c>
       <c r="F1139" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140">
@@ -32345,26 +32345,26 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Dijual Murah Rumah di Kebayoran Baru. Lingkungan Seperti Komplek(Gated) . Jalan Lebar dan Tenang. Luas.293m Rp 15 M (Rp 51.1Jt/M Nego)</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>15000000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1140" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E1140" t="n">
-        <v>293</v>
+        <v>696</v>
       </c>
       <c r="F1140" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1140" t="n">
         <v>3</v>
       </c>
       <c r="H1140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1141">
@@ -32373,26 +32373,26 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Rumah Bagus Siap Huni di Area Pakubuwono Kebayoran Baru</t>
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>6900000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1141" t="n">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="E1141" t="n">
-        <v>76</v>
+        <v>469</v>
       </c>
       <c r="F1141" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1142">
@@ -32401,26 +32401,26 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Dijual Rumah Modern Siap Huni Lokasi Asri Dan Nyaman Tenang Dekat Sekolah Internasional Dan Dekat Kemang Raya Dan Dekat Kuningan Dan Kebayoran Baru Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>13500000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1142" t="n">
-        <v>325</v>
+        <v>600</v>
       </c>
       <c r="E1142" t="n">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="F1142" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1142" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1143">
@@ -32429,26 +32429,26 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Dijual Cepat Hunian Nyaman Dalam Cluster Private Jagakarsa | Lokasi Favorit Jaksel</t>
+          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat MRT dan Dekat Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>6950000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1143" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="E1143" t="n">
-        <v>322</v>
+        <v>1925</v>
       </c>
       <c r="F1143" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1143" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1144">
@@ -32457,26 +32457,26 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Rumah Bagus Siap Huni di Area Pakubuwono Kebayoran Baru</t>
+          <t>Dijual Cepat Murah Rumah Bangunan 1 Lantai Luas Tanah 1845 Meter Harga Murah Lokasi Prime Area Kuningan Dekat Menteng dan Sudirman dan Area Kedutaan dan Pejabat dan Pengusaha Dekat Mega Kuningan Area Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>27000000000</v>
+        <v>71900000000</v>
       </c>
       <c r="D1144" t="n">
-        <v>301</v>
+        <v>882</v>
       </c>
       <c r="E1144" t="n">
-        <v>469</v>
+        <v>1845</v>
       </c>
       <c r="F1144" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1144" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1145">
@@ -32485,26 +32485,26 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Dijual Rumah Modern Siap Huni Lokasi Asri Dan Nyaman Tenang Dekat Sekolah Internasional Dan Dekat Kemang Raya Dan Dekat Kuningan Dan Kebayoran Baru Area Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah Cantik Modern Murah Dalam Townhouse Area Ampera Jeruk Purut Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>21000000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1145" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E1145" t="n">
-        <v>630</v>
+        <v>140</v>
       </c>
       <c r="F1145" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1145" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1145" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146">
@@ -32513,7 +32513,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat MRT dan Dekat Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat MRT dan Fatmawati dan Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1146" t="n">
@@ -32541,26 +32541,26 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Dijual Cepat Murah Rumah Bangunan 1 Lantai Luas Tanah 1845 Meter Harga Murah Lokasi Prime Area Kuningan Dekat Menteng dan Sudirman dan Area Kedutaan dan Pejabat dan Pengusaha Dekat Mega Kuningan Area Kuningan Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran Dan Drkat Senayan Dan Dekat Gatot Subroto Dan Sudirman Dan Dekat Menteng Area Mentri Dan Pejabat Dan Perkantoran Dan Dekat Mall Dan Kedutaan Dan Area Mega Kuning</t>
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>71900000000</v>
+        <v>49000000000</v>
       </c>
       <c r="D1147" t="n">
-        <v>882</v>
+        <v>1100</v>
       </c>
       <c r="E1147" t="n">
-        <v>1845</v>
+        <v>540</v>
       </c>
       <c r="F1147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1147" t="n">
         <v>4</v>
       </c>
       <c r="H1147" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1148">
@@ -32569,17 +32569,17 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Dijual Rumah Cantik Modern Murah Dalam Townhouse Area Ampera Jeruk Purut Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Cantik Tanah Luas Lokasi Premium Dekat Kemang Raya dan Perbelanjaan dan Perkantoran dan Kuliner Area dan Dekat ke Kebayoran Baru Harga Murah Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>6500000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1148" t="n">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="E1148" t="n">
-        <v>140</v>
+        <v>696</v>
       </c>
       <c r="F1148" t="n">
         <v>3</v>
@@ -32588,7 +32588,7 @@
         <v>3</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1149">
@@ -32597,20 +32597,20 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Design Tropical Resort Parkir Banyak dan Tanah Luas Ada Paviliun Lokasi Strategis Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat MRT dan Fatmawati dan Pondok Indah dan Kebayoran Baru Area Cipete Cilandak Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Brand New Tropical Modern Kemang Lokasi Strategis Tanah Luas Parkiran Lebih Dari 10 Mobil Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat Kemang Raya Area Prime Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>42000000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1149" t="n">
-        <v>850</v>
+        <v>880</v>
       </c>
       <c r="E1149" t="n">
-        <v>1925</v>
+        <v>1000</v>
       </c>
       <c r="F1149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1149" t="n">
         <v>6</v>
@@ -32625,17 +32625,17 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran Dan Drkat Senayan Dan Dekat Gatot Subroto Dan Sudirman Dan Dekat Menteng Area Mentri Dan Pejabat Dan Perkantoran Dan Dekat Mall Dan Kedutaan Dan Area Mega Kuning</t>
+          <t>Dijual Cepat Harga Murah Rumah Modern Cantik Asri Siap Huni Dalam Komplek Dekat MRT dan Fatmawati dan Cilandak Dekat MRT dan Tol Tb Simatupang dan Dekat Kuliner Rea Lebak Bulus Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>49000000000</v>
+        <v>4990000000</v>
       </c>
       <c r="D1150" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="E1150" t="n">
-        <v>540</v>
+        <v>187</v>
       </c>
       <c r="F1150" t="n">
         <v>4</v>
@@ -32644,7 +32644,7 @@
         <v>4</v>
       </c>
       <c r="H1150" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151">
@@ -32653,26 +32653,26 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Cantik Tanah Luas Lokasi Premium Dekat Kemang Raya dan Perbelanjaan dan Perkantoran dan Kuliner Area dan Dekat ke Kebayoran Baru Harga Murah Area Bangka Kemang Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Rumah Lama Tanah Luas Harga Murah Lokasi Strategis Dekat Sekolah Internasional Prancis dan Kuliner dan MRT Cipete dan Dekat Kebayoran Baru dan Dekat Pondok Indah dan Kemang Area Cipete Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>13000000000</v>
+        <v>13800000000</v>
       </c>
       <c r="D1151" t="n">
-        <v>325</v>
+        <v>407</v>
       </c>
       <c r="E1151" t="n">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F1151" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1151" t="n">
         <v>3</v>
       </c>
       <c r="H1151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1152">
@@ -32681,26 +32681,26 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Brand New Tropical Modern Kemang Lokasi Strategis Tanah Luas Parkiran Lebih Dari 10 Mobil Dekat Sekolah Internasional dan Dekat Kuliner dan Dekat Kemang Raya Area Prime Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Cantik Lokasi Strategis Dekat Kemang dan Pejaten dan Mampang Prapatan Area Kalibata Mampang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>62000000000</v>
+        <v>13900000000</v>
       </c>
       <c r="D1152" t="n">
-        <v>880</v>
+        <v>500</v>
       </c>
       <c r="E1152" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="F1152" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1152" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1152" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153">
@@ -32709,26 +32709,26 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Dijual Cepat Harga Murah Rumah Modern Cantik Asri Siap Huni Dalam Komplek Dekat MRT dan Fatmawati dan Cilandak Dekat MRT dan Tol Tb Simatupang dan Dekat Kuliner Rea Lebak Bulus Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>4990000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1153" t="n">
-        <v>250</v>
+        <v>1050</v>
       </c>
       <c r="E1153" t="n">
-        <v>187</v>
+        <v>627</v>
       </c>
       <c r="F1153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1154">
@@ -32737,23 +32737,23 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Rumah Lama Tanah Luas Harga Murah Lokasi Strategis Dekat Sekolah Internasional Prancis dan Kuliner dan MRT Cipete dan Dekat Kebayoran Baru dan Dekat Pondok Indah dan Kemang Area Cipete Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>13800000000</v>
+        <v>31900000000</v>
       </c>
       <c r="D1154" t="n">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E1154" t="n">
-        <v>692</v>
+        <v>350</v>
       </c>
       <c r="F1154" t="n">
         <v>5</v>
       </c>
       <c r="G1154" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1154" t="n">
         <v>4</v>
@@ -32765,17 +32765,17 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Lokasi Strategis Dekat Kemang dan Pejaten dan Mampang Prapatan Area Kalibata Mampang Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>13900000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1155" t="n">
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="E1155" t="n">
-        <v>340</v>
+        <v>696</v>
       </c>
       <c r="F1155" t="n">
         <v>3</v>
@@ -32784,7 +32784,7 @@
         <v>3</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1156">
@@ -32793,26 +32793,26 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>44000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1156" t="n">
-        <v>1050</v>
+        <v>375</v>
       </c>
       <c r="E1156" t="n">
-        <v>627</v>
+        <v>76</v>
       </c>
       <c r="F1156" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1156" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1156" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157">
@@ -32821,26 +32821,26 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+          <t>Pondok Indah Harga di Bawah NJOP</t>
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>31900000000</v>
+        <v>7500000000</v>
       </c>
       <c r="D1157" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E1157" t="n">
-        <v>350</v>
+        <v>246</v>
       </c>
       <c r="F1157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1157" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1157" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158">
@@ -32849,26 +32849,26 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah 2 Lantai Murah Cilandak</t>
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>13000000000</v>
+        <v>7300000000</v>
       </c>
       <c r="D1158" t="n">
-        <v>325</v>
+        <v>600</v>
       </c>
       <c r="E1158" t="n">
-        <v>696</v>
+        <v>510</v>
       </c>
       <c r="F1158" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1158" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1158" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159">
@@ -32877,23 +32877,23 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Harga dibawah 1 M - Rumah BRANDNEW di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>7090000000</v>
+        <v>998000000</v>
       </c>
       <c r="D1159" t="n">
-        <v>375</v>
+        <v>64</v>
       </c>
       <c r="E1159" t="n">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="F1159" t="n">
         <v>2</v>
       </c>
       <c r="G1159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1159" t="n">
         <v>1</v>
@@ -32905,23 +32905,23 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Pondok Indah Harga di Bawah NJOP</t>
+          <t>Rumah Area Senopati Dekat Sekali ke Scbd, Gunawarman, Pacific Place</t>
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>7500000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1160" t="n">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="E1160" t="n">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="F1160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1160" t="n">
         <v>1</v>
@@ -32933,26 +32933,26 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Dijual Rumah 2 Lantai Murah Cilandak</t>
+          <t>Rumah Tebet Strategis SHM Hadap Barat</t>
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>7300000000</v>
+        <v>6250000000</v>
       </c>
       <c r="D1161" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="E1161" t="n">
-        <v>510</v>
+        <v>172</v>
       </c>
       <c r="F1161" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1161" t="n">
         <v>5</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -32961,23 +32961,23 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Harga dibawah 1 M - Rumah BRANDNEW di Jakarta Selatan</t>
+          <t>Dijual Kost Exlusive Tebet Cocok untuk Investasi Negotiable</t>
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>998000000</v>
+        <v>7200000000</v>
       </c>
       <c r="D1162" t="n">
-        <v>64</v>
+        <v>380</v>
       </c>
       <c r="E1162" t="n">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="F1162" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G1162" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H1162" t="n">
         <v>1</v>
@@ -32989,23 +32989,23 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Rumah Area Senopati Dekat Sekali ke Scbd, Gunawarman, Pacific Place</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>22000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1163" t="n">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="E1163" t="n">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="F1163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1163" t="n">
         <v>1</v>
@@ -33017,26 +33017,26 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Rumah Tebet Strategis SHM Hadap Barat</t>
+          <t>Rumah Modern di Kebayoran Baru Row Jalan Lebar Dekat ke Senayan</t>
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>6250000000</v>
+        <v>65000000000</v>
       </c>
       <c r="D1164" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="E1164" t="n">
-        <v>172</v>
+        <v>675</v>
       </c>
       <c r="F1164" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1164" t="n">
         <v>5</v>
       </c>
       <c r="H1164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165">
@@ -33045,26 +33045,26 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Dijual Kost Exlusive Tebet Cocok untuk Investasi Negotiable</t>
+          <t>Jual Cepat Rumah Bagus 534M2 di Bukit Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>7200000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1165" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E1165" t="n">
-        <v>196</v>
+        <v>534</v>
       </c>
       <c r="F1165" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G1165" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H1165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166">
@@ -33073,23 +33073,23 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Murah! Townhouse Cantik Suralaya Residences A4 di Daerah Elit Kemang</t>
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>2600000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1166" t="n">
-        <v>88</v>
+        <v>928</v>
       </c>
       <c r="E1166" t="n">
-        <v>55</v>
+        <v>378</v>
       </c>
       <c r="F1166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1166" t="n">
         <v>1</v>
@@ -33101,26 +33101,26 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Rumah Modern di Kebayoran Baru Row Jalan Lebar Dekat ke Senayan</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>65000000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1167" t="n">
-        <v>1000</v>
+        <v>112</v>
       </c>
       <c r="E1167" t="n">
-        <v>675</v>
+        <v>70</v>
       </c>
       <c r="F1167" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1167" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -33129,26 +33129,26 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Jual Cepat Rumah Bagus 534M2 di Bukit Hijau Pondok Indah</t>
+          <t>Rumah Mewah Siap Huni Di Kebayoran</t>
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>23000000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1168" t="n">
-        <v>375</v>
+        <v>1350</v>
       </c>
       <c r="E1168" t="n">
-        <v>534</v>
+        <v>863</v>
       </c>
       <c r="F1168" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1168" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -33157,23 +33157,23 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Murah! Townhouse Cantik Suralaya Residences A4 di Daerah Elit Kemang</t>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>15500000000</v>
+        <v>8800000000</v>
       </c>
       <c r="D1169" t="n">
-        <v>928</v>
+        <v>280</v>
       </c>
       <c r="E1169" t="n">
-        <v>378</v>
+        <v>120</v>
       </c>
       <c r="F1169" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1169" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1169" t="n">
         <v>1</v>
@@ -33185,17 +33185,17 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>ZENITPARC HYTT</t>
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>2830000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1170" t="n">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E1170" t="n">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F1170" t="n">
         <v>2</v>
@@ -33213,26 +33213,26 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Di Kebayoran</t>
+          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>38000000000</v>
+        <v>68000000000</v>
       </c>
       <c r="D1171" t="n">
-        <v>1350</v>
+        <v>1600</v>
       </c>
       <c r="E1171" t="n">
-        <v>863</v>
+        <v>1050</v>
       </c>
       <c r="F1171" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1171" t="n">
         <v>6</v>
-      </c>
-      <c r="G1171" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1171" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="1172">
@@ -33241,26 +33241,26 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+          <t>Dinual Rumah Pinggir Jalan Raya Petogogan Jaksel</t>
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>8800000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1172" t="n">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="E1172" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="F1172" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1172" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173">
@@ -33269,26 +33269,26 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>2600000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1173" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="E1173" t="n">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="F1173" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174">
@@ -33297,23 +33297,23 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Langkah! Rumah Semi Furnish European Style Taman Palem Jakarta Barat</t>
+          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>9000000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1174" t="n">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="E1174" t="n">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="F1174" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1174" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1174" t="n">
         <v>2</v>
@@ -33325,26 +33325,26 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
+          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>68000000000</v>
+        <v>14500000000</v>
       </c>
       <c r="D1175" t="n">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="E1175" t="n">
-        <v>1050</v>
+        <v>240</v>
       </c>
       <c r="F1175" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1175" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1175" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1176">
@@ -33353,23 +33353,23 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Dinual Rumah Pinggir Jalan Raya Petogogan Jaksel</t>
+          <t>Kemang Rumah Brand New 2.5Lantai 100Meter ke Kemang Raya Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>22000000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1176" t="n">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="E1176" t="n">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="F1176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1176" t="n">
         <v>2</v>
@@ -33381,26 +33381,26 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Rumah Mewah Brand New Modern Design Dalam Perumahan di Radio Dalam</t>
+          <t>Lahan Strategis Fatmawati No. 42 Samping Ace Hardware</t>
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>15000000000</v>
+        <v>52500000000</v>
       </c>
       <c r="D1177" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="E1177" t="n">
-        <v>307</v>
+        <v>1554</v>
       </c>
       <c r="F1177" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1177" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1178">
@@ -33409,23 +33409,23 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>4800000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1178" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="E1178" t="n">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="F1178" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1178" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1178" t="n">
         <v>2</v>
@@ -33437,26 +33437,26 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
+          <t>New House Full Furnished Kemang Selatan</t>
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>13500000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1179" t="n">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="E1179" t="n">
-        <v>304</v>
+        <v>518</v>
       </c>
       <c r="F1179" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1179" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1180">
@@ -33465,26 +33465,26 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
+          <t>Rumah 2 Lantai di Daerah Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>14500000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1180" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E1180" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="F1180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1180" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1180" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181">
@@ -33493,26 +33493,26 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Dijual rumah mewah dalam Gated community Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>7090000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1181" t="n">
-        <v>60</v>
+        <v>810</v>
       </c>
       <c r="E1181" t="n">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="F1181" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182">
@@ -33521,17 +33521,17 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Kemang Rumah Brand New 2.5Lantai 100Meter ke Kemang Raya Jakarta Selatan</t>
+          <t>Dijual Rumah Murah Strategis Akses 1Mobil Lokasi Tebet Timur</t>
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>8500000000</v>
+        <v>2950000000</v>
       </c>
       <c r="D1182" t="n">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="E1182" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F1182" t="n">
         <v>4</v>
@@ -33540,7 +33540,7 @@
         <v>4</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183">
@@ -33549,26 +33549,26 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Lahan Strategis Fatmawati No. 42 Samping Ace Hardware</t>
+          <t>Dijual Rumah Nol Jalan Raya Suryo Senopati Jakarta Selatan.cocok Untuk Tempat Usaha</t>
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>52500000000</v>
+        <v>34500000000</v>
       </c>
       <c r="D1183" t="n">
         <v>500</v>
       </c>
       <c r="E1183" t="n">
-        <v>1554</v>
+        <v>351</v>
       </c>
       <c r="F1183" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1183" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184">
@@ -33577,26 +33577,26 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Jual rumah pondok labu cilandak, 5 Menit RSUP Fatmawati</t>
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>6900000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1184" t="n">
-        <v>375</v>
+        <v>120</v>
       </c>
       <c r="E1184" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F1184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185">
@@ -33605,26 +33605,26 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>New House Full Furnished Kemang Selatan</t>
+          <t>Brand New House Modern Design With Pool Cilandak</t>
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>38000000000</v>
+        <v>9800000000</v>
       </c>
       <c r="D1185" t="n">
-        <v>760</v>
+        <v>428</v>
       </c>
       <c r="E1185" t="n">
-        <v>518</v>
+        <v>204</v>
       </c>
       <c r="F1185" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1185" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H1185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1186">
@@ -33633,23 +33633,23 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai di Daerah Pondok Indah Jakarta Selatan</t>
+          <t>Dijual Rumah di Pondok Indah Mendekat NJOP</t>
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>7800000000</v>
+        <v>37000000000</v>
       </c>
       <c r="D1186" t="n">
-        <v>200</v>
+        <v>588</v>
       </c>
       <c r="E1186" t="n">
-        <v>160</v>
+        <v>866</v>
       </c>
       <c r="F1186" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1186" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1186" t="n">
         <v>2</v>
@@ -33661,23 +33661,23 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Dijual rumah mewah dalam Gated community Kebayoran Baru Jakarta Selatan</t>
+          <t>Pomentia Residence Full Furnished Murah Jagakarsa</t>
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>48000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1187" t="n">
-        <v>810</v>
+        <v>140</v>
       </c>
       <c r="E1187" t="n">
-        <v>370</v>
+        <v>105</v>
       </c>
       <c r="F1187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1187" t="n">
         <v>2</v>
@@ -33689,26 +33689,26 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Murah dan Mewah di Taman Bukit Hijau Pondo Indah</t>
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>2600000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1188" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="E1188" t="n">
-        <v>60</v>
+        <v>650</v>
       </c>
       <c r="F1188" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G1188" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1188" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1189">
@@ -33717,26 +33717,26 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Dijual Rumah Murah Strategis Akses 1Mobil Lokasi Tebet Timur</t>
+          <t>Rumah Tropical Modern Dekat Dengan Area Golf Pondok Indah</t>
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>2950000000</v>
+        <v>60000000000</v>
       </c>
       <c r="D1189" t="n">
-        <v>200</v>
+        <v>1115</v>
       </c>
       <c r="E1189" t="n">
-        <v>172</v>
+        <v>759</v>
       </c>
       <c r="F1189" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1189" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190">
@@ -33745,23 +33745,23 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Rumah Brand New di Pondok Labu, 400 Meter ke Jalan Raya Fatmawati, Cocok untuk Keluarga Besar</t>
+          <t>Rumah Lama Hitung Tanah di Lokasi Bagus dan Tenang</t>
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>15000000000</v>
+        <v>4550000000</v>
       </c>
       <c r="D1190" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E1190" t="n">
-        <v>515</v>
+        <v>197</v>
       </c>
       <c r="F1190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1190" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1190" t="n">
         <v>1</v>
@@ -33773,26 +33773,26 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Jarang Ada Rumah Bagus Kemang Bangka Tanah 648</t>
+          <t>Rumah Kost Dijual Jl Madrasah Dekat Akses MRT Haji Nawi</t>
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>10000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1191" t="n">
-        <v>355</v>
+        <v>580</v>
       </c>
       <c r="E1191" t="n">
-        <v>648</v>
+        <v>344</v>
       </c>
       <c r="F1191" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G1191" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192">
@@ -33801,26 +33801,26 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Dijual Lahan Berikut Rumah dan Ruko Didalamnya</t>
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>2830000000</v>
+        <v>31200000000</v>
       </c>
       <c r="D1192" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="E1192" t="n">
-        <v>60</v>
+        <v>1200</v>
       </c>
       <c r="F1192" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G1192" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1192" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1193">
@@ -33829,26 +33829,26 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Dijual Rumah Nol Jalan Raya Suryo Senopati Jakarta Selatan.cocok Untuk Tempat Usaha</t>
+          <t>Rumah Djual Dalam Cluster Dekat Cilandak Trakindo</t>
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>34500000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1193" t="n">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="E1193" t="n">
-        <v>351</v>
+        <v>105</v>
       </c>
       <c r="F1193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1193" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194">
@@ -33857,26 +33857,26 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Jual rumah pondok labu cilandak, 5 Menit RSUP Fatmawati</t>
+          <t>Rumah Hoek 2 Lantai di Kerinci Kebayoran Baru Dekat ke Senayan</t>
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>2500000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1194" t="n">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="E1194" t="n">
-        <v>50</v>
+        <v>469</v>
       </c>
       <c r="F1194" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G1194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1194" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1195">
@@ -33885,17 +33885,17 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Brand New House Modern Design With Pool Cilandak</t>
+          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1195" t="n">
-        <v>9800000000</v>
+        <v>16000000000</v>
       </c>
       <c r="D1195" t="n">
-        <v>428</v>
+        <v>616</v>
       </c>
       <c r="E1195" t="n">
-        <v>204</v>
+        <v>383</v>
       </c>
       <c r="F1195" t="n">
         <v>4</v>
@@ -33904,7 +33904,7 @@
         <v>3</v>
       </c>
       <c r="H1195" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196">
@@ -33913,26 +33913,26 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Rumah 2 Lantai di Cilandak Dekat Citos Lokasi Strategis SHM</t>
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>2600000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1196" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="E1196" t="n">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="F1196" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G1196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197">
@@ -33941,20 +33941,20 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Dijual Rumah di Pondok Indah Mendekat NJOP</t>
+          <t>Rumah Bagus, Ceiling Tinggi, Dilengkapi Kolam Renang, Lay Out Bagus</t>
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>37000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1197" t="n">
-        <v>588</v>
+        <v>400</v>
       </c>
       <c r="E1197" t="n">
-        <v>866</v>
+        <v>543</v>
       </c>
       <c r="F1197" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1197" t="n">
         <v>5</v>
@@ -33969,23 +33969,23 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Pomentia Residence Full Furnished Murah Jagakarsa</t>
+          <t>Rumah Tropical Rasa Resort Bali di Pejaten Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>2400000000</v>
+        <v>18500000000</v>
       </c>
       <c r="D1198" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="E1198" t="n">
-        <v>105</v>
+        <v>1028</v>
       </c>
       <c r="F1198" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1198" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1198" t="n">
         <v>2</v>
@@ -33997,26 +33997,26 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Murah dan Mewah di Taman Bukit Hijau Pondo Indah</t>
+          <t>Rumah Jakarta Selatan Siap Huni Minim Renovasi</t>
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>45000000000</v>
+        <v>5550000000</v>
       </c>
       <c r="D1199" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="E1199" t="n">
-        <v>650</v>
+        <v>304</v>
       </c>
       <c r="F1199" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1199" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1199" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200">
@@ -34025,26 +34025,26 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Rumah Tropical Modern Dekat Dengan Area Golf Pondok Indah</t>
+          <t>Rumah 1 Lantai Posisi Hoek di Cipete Kemang Jakarta Selatan SHM</t>
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>60000000000</v>
+        <v>15300000000</v>
       </c>
       <c r="D1200" t="n">
-        <v>1115</v>
+        <v>350</v>
       </c>
       <c r="E1200" t="n">
-        <v>759</v>
+        <v>793</v>
       </c>
       <c r="F1200" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1200" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1201">
@@ -34053,26 +34053,26 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Rumah Lama Hitung Tanah di Lokasi Bagus dan Tenang</t>
+          <t>Rumah Kokoh, Lingkungan Tenang, Siap Huni, Sirkulasi Udara Bagus</t>
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>4550000000</v>
+        <v>24000000000</v>
       </c>
       <c r="D1201" t="n">
-        <v>100</v>
+        <v>559</v>
       </c>
       <c r="E1201" t="n">
-        <v>197</v>
+        <v>572</v>
       </c>
       <c r="F1201" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202">
@@ -34081,26 +34081,26 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Rumah Kost Dijual Jl Madrasah Dekat Akses MRT Haji Nawi</t>
+          <t>Rumah Mewah 2 Lantai Bagus di Kemang Jaya Halaman Luas Siap Huni</t>
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>8000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1202" t="n">
-        <v>580</v>
+        <v>1100</v>
       </c>
       <c r="E1202" t="n">
-        <v>344</v>
+        <v>1000</v>
       </c>
       <c r="F1202" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G1202" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H1202" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1203">
@@ -34109,26 +34109,26 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Dijual Lahan Berikut Rumah dan Ruko Didalamnya</t>
+          <t>Rumah Pondok Indah Siap Huni, Sudah Renov Walking Distance To Mall</t>
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>31200000000</v>
+        <v>11000000000</v>
       </c>
       <c r="D1203" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="E1203" t="n">
-        <v>1200</v>
+        <v>260</v>
       </c>
       <c r="F1203" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G1203" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1203" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1204">
@@ -34137,26 +34137,26 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Rumah Djual Dalam Cluster Dekat Cilandak Trakindo</t>
+          <t>Rumah Baru American Classic di Kemang Bangunan Megah Mewah SHM</t>
         </is>
       </c>
       <c r="C1204" t="n">
-        <v>3850000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1204" t="n">
-        <v>198</v>
+        <v>760</v>
       </c>
       <c r="E1204" t="n">
-        <v>105</v>
+        <v>517</v>
       </c>
       <c r="F1204" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1204" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1205">
@@ -34165,26 +34165,26 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Rumah Hoek 2 Lantai di Kerinci Kebayoran Baru Dekat ke Senayan</t>
+          <t>Rumah 3 Lantai di Kemang Jakarta Selatan SHM Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>27000000000</v>
+        <v>13900000000</v>
       </c>
       <c r="D1205" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="E1205" t="n">
-        <v>469</v>
+        <v>340</v>
       </c>
       <c r="F1205" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G1205" t="n">
         <v>4</v>
       </c>
       <c r="H1205" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206">
@@ -34193,23 +34193,23 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
+          <t>Rumah 2 Lantai di Cipete Utara Kebayoran Baru Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>16000000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1206" t="n">
-        <v>616</v>
+        <v>318</v>
       </c>
       <c r="E1206" t="n">
-        <v>383</v>
+        <v>497</v>
       </c>
       <c r="F1206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1206" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1206" t="n">
         <v>2</v>
@@ -34221,23 +34221,23 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai di Cilandak Dekat Citos Lokasi Strategis SHM</t>
+          <t>Jual Cepat Kemang Timur Harga Murah Bisa Nego</t>
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>5500000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1207" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="E1207" t="n">
-        <v>272</v>
+        <v>544</v>
       </c>
       <c r="F1207" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1207" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1207" t="n">
         <v>2</v>
@@ -34249,26 +34249,26 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Rumah Bagus, Ceiling Tinggi, Dilengkapi Kolam Renang, Lay Out Bagus</t>
+          <t>Rumah Cocok Untuk Usaha Di Tebet Selangkah Ke Mt Haryono Shm</t>
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>21000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1208" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E1208" t="n">
-        <v>543</v>
+        <v>348</v>
       </c>
       <c r="F1208" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1208" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1209">
@@ -34277,26 +34277,26 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Rumah Tropical Rasa Resort Bali di Pejaten Kemang Jakarta Selatan</t>
+          <t>Rumah Cantik Di Kemang Private Pool Dan Rooftop Shm Siap Huni</t>
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>18500000000</v>
+        <v>9800000000</v>
       </c>
       <c r="D1209" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="E1209" t="n">
-        <v>1028</v>
+        <v>230</v>
       </c>
       <c r="F1209" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210">
@@ -34305,20 +34305,20 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Rumah Jakarta Selatan Siap Huni Minim Renovasi</t>
+          <t>Townhouse Minimalis 3 Lantai Di Kemang Harga Mulai 3 Miliaran</t>
         </is>
       </c>
       <c r="C1210" t="n">
-        <v>5550000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1210" t="n">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="E1210" t="n">
-        <v>304</v>
+        <v>66</v>
       </c>
       <c r="F1210" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1210" t="n">
         <v>3</v>
@@ -34333,17 +34333,17 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Rumah 1 Lantai Posisi Hoek di Cipete Kemang Jakarta Selatan SHM</t>
+          <t>Rumah Furnished 4 Kamar Tidur Di Selatan Jakarta Akses Dekat Tol</t>
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>15300000000</v>
+        <v>990000000</v>
       </c>
       <c r="D1211" t="n">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="E1211" t="n">
-        <v>793</v>
+        <v>72</v>
       </c>
       <c r="F1211" t="n">
         <v>4</v>
@@ -34352,7 +34352,7 @@
         <v>3</v>
       </c>
       <c r="H1211" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212">
@@ -34361,20 +34361,20 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Rumah Kokoh, Lingkungan Tenang, Siap Huni, Sirkulasi Udara Bagus</t>
+          <t>Jual Cepat Rumah 7Residence Duren Tiga Belakang Total Buah</t>
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>24000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="D1212" t="n">
-        <v>559</v>
+        <v>250</v>
       </c>
       <c r="E1212" t="n">
-        <v>572</v>
+        <v>347</v>
       </c>
       <c r="F1212" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1212" t="n">
         <v>4</v>
@@ -34389,26 +34389,26 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Rumah Mewah 2 Lantai Bagus di Kemang Jaya Halaman Luas Siap Huni</t>
+          <t>Dijual Cepat Rumah, 2 Lantai, SHM, Dekat Akses KRL 4+1 Kt</t>
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>35000000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1213" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="E1213" t="n">
-        <v>1000</v>
+        <v>105</v>
       </c>
       <c r="F1213" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1213" t="n">
         <v>4</v>
       </c>
       <c r="H1213" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214">
@@ -34417,26 +34417,26 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Rumah Pondok Indah Siap Huni, Sudah Renov Walking Distance To Mall</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>11000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1214" t="n">
-        <v>310</v>
+        <v>60</v>
       </c>
       <c r="E1214" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="F1214" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1214" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215">
@@ -34445,23 +34445,23 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Rumah Baru American Classic di Kemang Bangunan Megah Mewah SHM</t>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>38000000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1215" t="n">
-        <v>760</v>
+        <v>340</v>
       </c>
       <c r="E1215" t="n">
-        <v>517</v>
+        <v>350</v>
       </c>
       <c r="F1215" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1215" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1215" t="n">
         <v>3</v>
@@ -34473,26 +34473,26 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai di Kemang Jakarta Selatan SHM Lokasi Bagus</t>
+          <t>Rumah Dijual Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>13900000000</v>
+        <v>17000000000</v>
       </c>
       <c r="D1216" t="n">
-        <v>500</v>
+        <v>288</v>
       </c>
       <c r="E1216" t="n">
-        <v>340</v>
+        <v>598</v>
       </c>
       <c r="F1216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217">
@@ -34501,26 +34501,26 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai di Cipete Utara Kebayoran Baru Lokasi Strategis</t>
+          <t>Dijual Cepat Alam Segar Pondok Indah Harga Murah Semi Furnished Bagus, Rumah Pondok Indah</t>
         </is>
       </c>
       <c r="C1217" t="n">
-        <v>12500000000</v>
+        <v>11000000000</v>
       </c>
       <c r="D1217" t="n">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E1217" t="n">
-        <v>497</v>
+        <v>260</v>
       </c>
       <c r="F1217" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1217" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218">
@@ -34529,23 +34529,23 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Jual Cepat Kemang Timur Harga Murah Bisa Nego</t>
+          <t>Exclusive Pine View Residence - Hot Listing Dijual Cepat!</t>
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>12500000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1218" t="n">
-        <v>650</v>
+        <v>431</v>
       </c>
       <c r="E1218" t="n">
-        <v>544</v>
+        <v>874</v>
       </c>
       <c r="F1218" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1218" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1218" t="n">
         <v>2</v>
@@ -34557,26 +34557,26 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Rumah Cocok Untuk Usaha Di Tebet Selangkah Ke Mt Haryono Shm</t>
+          <t>Tinggal Bawa Koper! Rumah Mewah 3.5 Lt Desain European Style</t>
         </is>
       </c>
       <c r="C1219" t="n">
-        <v>12000000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1219" t="n">
-        <v>250</v>
+        <v>440</v>
       </c>
       <c r="E1219" t="n">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="F1219" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1219" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1219" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1220">
@@ -34585,26 +34585,26 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Rumah Cantik Di Kemang Private Pool Dan Rooftop Shm Siap Huni</t>
+          <t>Langkah! Rumah Semi Furnish European Style Taman Palem Jakarta Barat</t>
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>9800000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1220" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="E1220" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="F1220" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1220" t="n">
         <v>3</v>
       </c>
       <c r="H1220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1221">
@@ -34613,23 +34613,23 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Townhouse Minimalis 3 Lantai Di Kemang Harga Mulai 3 Miliaran</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>3500000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1221" t="n">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="E1221" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F1221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1221" t="n">
         <v>1</v>
@@ -34641,23 +34641,23 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Rumah Furnished 4 Kamar Tidur Di Selatan Jakarta Akses Dekat Tol</t>
+          <t>Jual Cepat! Rumah 10X20 Eroupean Style Palem Lestari Jakarta Barat</t>
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>990000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1222" t="n">
-        <v>125</v>
+        <v>440</v>
       </c>
       <c r="E1222" t="n">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="F1222" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1222" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1222" t="n">
         <v>2</v>
@@ -34669,23 +34669,23 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Jual Cepat Rumah 7Residence Duren Tiga Belakang Total Buah</t>
+          <t>Brand New House 700M2 Kawasan Elit Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>10000000000</v>
+        <v>76000000000</v>
       </c>
       <c r="D1223" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="E1223" t="n">
-        <v>347</v>
+        <v>700</v>
       </c>
       <c r="F1223" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1223" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1223" t="n">
         <v>2</v>
@@ -34697,26 +34697,390 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah, 2 Lantai, SHM, Dekat Akses KRL 4+1 Kt</t>
+          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>1900000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1224" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E1224" t="n">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="F1224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1225" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>Murah ,Jual Cepat Rumah Asri Depan Taman Area Kebayoran Baru</t>
+        </is>
+      </c>
+      <c r="C1226" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>240</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>310</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>Rumah Brand New di Pondok Labu, 400 Meter ke Jalan Raya Fatmawati, Cocok untuk Keluarga Besar</t>
+        </is>
+      </c>
+      <c r="C1227" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>515</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Terawat di Pondok Indah Harga Bagus Hoek , Strategis</t>
+        </is>
+      </c>
+      <c r="C1228" t="n">
+        <v>40000000000</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>636</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>938</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1229" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>60</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>Rumah di Pondok Indah Terawat 5Menit ke Pim 2 SHM</t>
+        </is>
+      </c>
+      <c r="C1230" t="n">
+        <v>6750000000</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>160</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>Rumah di Villa Cinere Mas SHM Asri Siap Huni Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1231" t="n">
+        <v>3700000000</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>205</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>Jarang Ada Rumah Bagus Kemang Bangka Tanah 648</t>
+        </is>
+      </c>
+      <c r="C1232" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>355</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>648</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Brand New Modern Design Dalam Perumahan di Radio Dalam</t>
+        </is>
+      </c>
+      <c r="C1233" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>360</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>307</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>Rumah di Kavling Lestari Dekat Stasiun MRT Lebak Bulus Jaksel</t>
+        </is>
+      </c>
+      <c r="C1234" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>113</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Hunian Nyaman Dalam Cluster Private Jagakarsa | Lokasi Favorit Jaksel</t>
+        </is>
+      </c>
+      <c r="C1235" t="n">
+        <v>6950000000</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>322</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>Rumah Siap Huni bisa Utk Rumah Kos. Dpn Taman Akses 2 Mobil</t>
+        </is>
+      </c>
+      <c r="C1236" t="n">
+        <v>4500000000</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>231</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>Tebet Barat, Rumah Bangunan 2025 Akses Jalan 2 Mobil</t>
+        </is>
+      </c>
+      <c r="C1237" t="n">
+        <v>4900000000</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>160</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
